--- a/output9/前赤壁賦.xlsx
+++ b/output9/前赤壁賦.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56E758-8816-4595-B9FE-B62C58048512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B33268-1C38-42C5-B7AE-A8165F421C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EA0A38C-B750-42E9-B691-0F234429BA61}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{4EA0A38C-B750-42E9-B691-0F234429BA61}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,7 +124,7 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
-      <code># 1. 讀取 B 欄範圍 (2-668)
+      <code># 1. 讀取 B 欄範圍 (根據您的反饋更新至 668 列)
 df_input = xl(%P2%, headers=False)
 # 2. 聲母字典 (查最後一個字)
 sheng_mu_dict = {
@@ -150,24 +151,25 @@
 # 4. 調號映射 (查中間的字)
 tone_map = {"一": 1, "二": 2, "三": 3, "四": 4, "五": 5, "六": 6, "七": 7, "八": 8}
 results = []
-# 5. 執行切割與過濾邏輯
+# 5. 執行切割、轉換與合成邏輯
 for val in df_input[0]:
     s = str(val).strip() if val is not None else ""
-    # 確保字串長度至少為 3 (韻+調+聲)
     if s and len(s) &gt;= 3:
-        y_char = s[0]  # 第一個字：韻
-        t_char = s[1]  # 中間個字：調
-        s_char = s[2]  # 最後一個字：聲
+        y_char = s[0]  # 第一個字：韻 (例如「堅」)
+        t_char = s[1]  # 中間個字：調 (例如「五」)
+        s_char = s[2]  # 最後一個字：聲 (例如「曾」)
         t_num = tone_map.get(t_char, "")
-        # 將原本的 "N/A" 改為 "" (空字串)
         s_code = sheng_mu_dict.get(s_char, "")
         # 判斷舒促聲 (4, 8 聲取索引 1)
         idx = 1 if t_num in [4, 8] else 0
         y_code = yun_mu_dict.get(y_char, ["", ""])[idx]
-        results.append([s_code, y_code, t_num])
+        # 合成完整的台語音標 (TLPA)
+        tlpa_combined = f"{s_code}{y_code}{t_num}" if (s_code or y_code) else ""
+        # 輸出順序：C(合成), D(聲), E(韻), F(調)
+        results.append([tlpa_combined, s_code, y_code, t_num])
     else:
-        # 當 B 欄為空或僅有標點符號 (如《、》) 時，回傳全空
-        results.append(["", "", ""])
+        # B 欄空白或為標點符號時回傳全空
+        results.append(["", "", "", ""])
 results</code>
     </pythonScript>
     <pythonScript>
@@ -217,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14657" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14227" uniqueCount="1899">
   <si>
     <t>漢字</t>
   </si>
@@ -6712,10 +6714,6 @@
     <t/>
   </si>
   <si>
-    <t>ong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公一喜</t>
   </si>
   <si>
@@ -6742,6 +6740,18 @@
   </si>
   <si>
     <t>◌̍</t>
+  </si>
+  <si>
+    <t>hong1</t>
+  </si>
+  <si>
+    <t>ciu2</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>ong2</t>
   </si>
 </sst>
 </file>
@@ -9296,7 +9306,7 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9353,7 +9363,7 @@
         <v>1860</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -19812,7 +19822,7 @@
       </c>
       <c r="I3" s="74"/>
       <c r="J3" s="74" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="33.75">
@@ -19846,7 +19856,7 @@
         <v>́</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="33.75">
@@ -19880,7 +19890,7 @@
         <v>̀</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="33.75">
@@ -19911,7 +19921,7 @@
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.75">
@@ -19945,7 +19955,7 @@
         <v>̂</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="33.75">
@@ -19979,7 +19989,7 @@
         <v>̌</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="33.75">
@@ -20013,7 +20023,7 @@
         <v>̄</v>
       </c>
       <c r="J9" s="74" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33.75">
@@ -20047,7 +20057,7 @@
         <v>̍</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
   </sheetData>
@@ -20063,8 +20073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B95D7C-605C-4924-946D-BB8403B949FA}">
   <dimension ref="A1:I662"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -20100,6 +20110,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>1885</v>
+      </c>
       <c r="D2" t="s">
         <v>1885</v>
       </c>
@@ -20229,6 +20242,9 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>1885</v>
+      </c>
       <c r="D7" t="s">
         <v>1885</v>
       </c>
@@ -20303,6 +20319,9 @@
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1885</v>
       </c>
       <c r="D10" t="s">
         <v>1885</v>
@@ -20382,7 +20401,9 @@
 </v>
       </c>
       <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
+      <c r="C13" s="95" t="s">
+        <v>1885</v>
+      </c>
       <c r="D13" s="95" t="s">
         <v>1885</v>
       </c>
@@ -20513,6 +20534,9 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
+      <c r="C18" t="s">
+        <v>1885</v>
+      </c>
       <c r="D18" t="s">
         <v>1885</v>
       </c>
@@ -20612,7 +20636,7 @@
         <v>1808</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>1809</v>
+        <v>595</v>
       </c>
       <c r="D22" t="s">
         <v>596</v>
@@ -20628,6 +20652,9 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="C23" t="s">
+        <v>1885</v>
+      </c>
       <c r="D23" t="s">
         <v>1885</v>
       </c>
@@ -20882,6 +20909,9 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
+      <c r="C36" t="s">
+        <v>1885</v>
+      </c>
       <c r="D36" t="s">
         <v>1885</v>
       </c>
@@ -20920,7 +20950,7 @@
         <v>1810</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>1811</v>
+        <v>1895</v>
       </c>
       <c r="D38" t="s">
         <v>569</v>
@@ -20976,6 +21006,9 @@
       <c r="A41" t="s">
         <v>29</v>
       </c>
+      <c r="C41" t="s">
+        <v>1885</v>
+      </c>
       <c r="D41" t="s">
         <v>1885</v>
       </c>
@@ -21070,6 +21103,9 @@
       <c r="A46" t="s">
         <v>29</v>
       </c>
+      <c r="C46" t="s">
+        <v>1885</v>
+      </c>
       <c r="D46" t="s">
         <v>1885</v>
       </c>
@@ -21164,6 +21200,9 @@
       <c r="A51" t="s">
         <v>29</v>
       </c>
+      <c r="C51" t="s">
+        <v>1885</v>
+      </c>
       <c r="D51" t="s">
         <v>1885</v>
       </c>
@@ -21278,6 +21317,9 @@
       <c r="A57" t="s">
         <v>29</v>
       </c>
+      <c r="C57" t="s">
+        <v>1885</v>
+      </c>
       <c r="D57" t="s">
         <v>1885</v>
       </c>
@@ -21391,6 +21433,9 @@
     <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1885</v>
       </c>
       <c r="D63" t="s">
         <v>1885</v>
@@ -21409,7 +21454,9 @@
 </v>
       </c>
       <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
+      <c r="C64" s="95" t="s">
+        <v>1885</v>
+      </c>
       <c r="D64" s="95" t="s">
         <v>1885</v>
       </c>
@@ -21472,6 +21519,9 @@
       <c r="A67" t="s">
         <v>29</v>
       </c>
+      <c r="C67" t="s">
+        <v>1885</v>
+      </c>
       <c r="D67" t="s">
         <v>1885</v>
       </c>
@@ -21626,6 +21676,9 @@
       <c r="A75" t="s">
         <v>29</v>
       </c>
+      <c r="C75" t="s">
+        <v>1885</v>
+      </c>
       <c r="D75" t="s">
         <v>1885</v>
       </c>
@@ -21780,6 +21833,9 @@
       <c r="A83" t="s">
         <v>29</v>
       </c>
+      <c r="C83" t="s">
+        <v>1885</v>
+      </c>
       <c r="D83" t="s">
         <v>1885</v>
       </c>
@@ -21874,6 +21930,9 @@
       <c r="A88" t="s">
         <v>29</v>
       </c>
+      <c r="C88" t="s">
+        <v>1885</v>
+      </c>
       <c r="D88" t="s">
         <v>1885</v>
       </c>
@@ -21968,6 +22027,9 @@
       <c r="A93" t="s">
         <v>126</v>
       </c>
+      <c r="C93" t="s">
+        <v>1885</v>
+      </c>
       <c r="D93" t="s">
         <v>1885</v>
       </c>
@@ -22102,6 +22164,9 @@
       <c r="A100" t="s">
         <v>29</v>
       </c>
+      <c r="C100" t="s">
+        <v>1885</v>
+      </c>
       <c r="D100" t="s">
         <v>1885</v>
       </c>
@@ -22236,6 +22301,9 @@
       <c r="A107" t="s">
         <v>54</v>
       </c>
+      <c r="C107" t="s">
+        <v>1885</v>
+      </c>
       <c r="D107" t="s">
         <v>1885</v>
       </c>
@@ -22314,7 +22382,7 @@
         <v>1812</v>
       </c>
       <c r="C111" s="51" t="s">
-        <v>1813</v>
+        <v>968</v>
       </c>
       <c r="D111" t="s">
         <v>580</v>
@@ -22394,7 +22462,7 @@
         <v>1810</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>1811</v>
+        <v>1895</v>
       </c>
       <c r="D115" t="s">
         <v>569</v>
@@ -22410,6 +22478,9 @@
       <c r="A116" t="s">
         <v>29</v>
       </c>
+      <c r="C116" t="s">
+        <v>1885</v>
+      </c>
       <c r="D116" t="s">
         <v>1885</v>
       </c>
@@ -22544,6 +22615,9 @@
       <c r="A123" t="s">
         <v>126</v>
       </c>
+      <c r="C123" t="s">
+        <v>1885</v>
+      </c>
       <c r="D123" t="s">
         <v>1885</v>
       </c>
@@ -22718,6 +22792,9 @@
       <c r="A132" t="s">
         <v>29</v>
       </c>
+      <c r="C132" t="s">
+        <v>1885</v>
+      </c>
       <c r="D132" t="s">
         <v>1885</v>
       </c>
@@ -22832,6 +22909,9 @@
       <c r="A138" t="s">
         <v>54</v>
       </c>
+      <c r="C138" t="s">
+        <v>1885</v>
+      </c>
       <c r="D138" t="s">
         <v>1885</v>
       </c>
@@ -22966,6 +23046,9 @@
       <c r="A145" t="s">
         <v>29</v>
       </c>
+      <c r="C145" t="s">
+        <v>1885</v>
+      </c>
       <c r="D145" t="s">
         <v>1885</v>
       </c>
@@ -23080,6 +23163,9 @@
       <c r="A151" t="s">
         <v>54</v>
       </c>
+      <c r="C151" t="s">
+        <v>1885</v>
+      </c>
       <c r="D151" t="s">
         <v>1885</v>
       </c>
@@ -23134,6 +23220,9 @@
       <c r="A154" t="s">
         <v>16</v>
       </c>
+      <c r="C154" t="s">
+        <v>1885</v>
+      </c>
       <c r="D154" t="s">
         <v>1885</v>
       </c>
@@ -23148,6 +23237,9 @@
       <c r="A155" t="s">
         <v>196</v>
       </c>
+      <c r="C155" t="s">
+        <v>1885</v>
+      </c>
       <c r="D155" t="s">
         <v>1885</v>
       </c>
@@ -23262,6 +23354,9 @@
       <c r="A161" t="s">
         <v>29</v>
       </c>
+      <c r="C161" t="s">
+        <v>1885</v>
+      </c>
       <c r="D161" t="s">
         <v>1885</v>
       </c>
@@ -23416,6 +23511,9 @@
       <c r="A169" t="s">
         <v>54</v>
       </c>
+      <c r="C169" t="s">
+        <v>1885</v>
+      </c>
       <c r="D169" t="s">
         <v>1885</v>
       </c>
@@ -23530,6 +23628,9 @@
       <c r="A175" t="s">
         <v>29</v>
       </c>
+      <c r="C175" t="s">
+        <v>1885</v>
+      </c>
       <c r="D175" t="s">
         <v>1885</v>
       </c>
@@ -23548,7 +23649,7 @@
         <v>1808</v>
       </c>
       <c r="C176" s="51" t="s">
-        <v>1809</v>
+        <v>595</v>
       </c>
       <c r="D176" t="s">
         <v>596</v>
@@ -23668,22 +23769,25 @@
         <v>1818</v>
       </c>
       <c r="C182" s="51" t="s">
-        <v>1815</v>
+        <v>1895</v>
       </c>
       <c r="D182" t="s">
         <v>569</v>
       </c>
       <c r="E182" t="s">
-        <v>1886</v>
+        <v>575</v>
       </c>
       <c r="F182">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>54</v>
       </c>
+      <c r="C183" t="s">
+        <v>1885</v>
+      </c>
       <c r="D183" t="s">
         <v>1885</v>
       </c>
@@ -23697,6 +23801,9 @@
     <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>228</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1885</v>
       </c>
       <c r="D184" t="s">
         <v>1885</v>
@@ -23715,7 +23822,9 @@
 </v>
       </c>
       <c r="B185" s="95"/>
-      <c r="C185" s="95"/>
+      <c r="C185" s="95" t="s">
+        <v>1885</v>
+      </c>
       <c r="D185" s="95" t="s">
         <v>1885</v>
       </c>
@@ -23858,6 +23967,9 @@
       <c r="A192" t="s">
         <v>29</v>
       </c>
+      <c r="C192" t="s">
+        <v>1885</v>
+      </c>
       <c r="D192" t="s">
         <v>1885</v>
       </c>
@@ -23972,6 +24084,9 @@
       <c r="A198" t="s">
         <v>29</v>
       </c>
+      <c r="C198" t="s">
+        <v>1885</v>
+      </c>
       <c r="D198" t="s">
         <v>1885</v>
       </c>
@@ -24086,6 +24201,9 @@
       <c r="A204" t="s">
         <v>29</v>
       </c>
+      <c r="C204" t="s">
+        <v>1885</v>
+      </c>
       <c r="D204" t="s">
         <v>1885</v>
       </c>
@@ -24180,6 +24298,9 @@
       <c r="A209" t="s">
         <v>29</v>
       </c>
+      <c r="C209" t="s">
+        <v>1885</v>
+      </c>
       <c r="D209" t="s">
         <v>1885</v>
       </c>
@@ -24274,6 +24395,9 @@
       <c r="A214" t="s">
         <v>29</v>
       </c>
+      <c r="C214" t="s">
+        <v>1885</v>
+      </c>
       <c r="D214" t="s">
         <v>1885</v>
       </c>
@@ -24368,6 +24492,9 @@
       <c r="A219" t="s">
         <v>29</v>
       </c>
+      <c r="C219" t="s">
+        <v>1885</v>
+      </c>
       <c r="D219" t="s">
         <v>1885</v>
       </c>
@@ -24426,7 +24553,7 @@
         <v>1812</v>
       </c>
       <c r="C222" s="51" t="s">
-        <v>1813</v>
+        <v>968</v>
       </c>
       <c r="D222" t="s">
         <v>580</v>
@@ -24462,6 +24589,9 @@
       <c r="A224" t="s">
         <v>54</v>
       </c>
+      <c r="C224" t="s">
+        <v>1885</v>
+      </c>
       <c r="D224" t="s">
         <v>1885</v>
       </c>
@@ -24596,6 +24726,9 @@
       <c r="A231" t="s">
         <v>29</v>
       </c>
+      <c r="C231" t="s">
+        <v>1885</v>
+      </c>
       <c r="D231" t="s">
         <v>1885</v>
       </c>
@@ -24730,6 +24863,9 @@
       <c r="A238" t="s">
         <v>54</v>
       </c>
+      <c r="C238" t="s">
+        <v>1885</v>
+      </c>
       <c r="D238" t="s">
         <v>1885</v>
       </c>
@@ -24788,7 +24924,7 @@
         <v>1816</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>1817</v>
+        <v>1896</v>
       </c>
       <c r="D241" t="s">
         <v>564</v>
@@ -24824,6 +24960,9 @@
       <c r="A243" t="s">
         <v>29</v>
       </c>
+      <c r="C243" t="s">
+        <v>1885</v>
+      </c>
       <c r="D243" t="s">
         <v>1885</v>
       </c>
@@ -24918,6 +25057,9 @@
       <c r="A248" t="s">
         <v>29</v>
       </c>
+      <c r="C248" t="s">
+        <v>1885</v>
+      </c>
       <c r="D248" t="s">
         <v>1885</v>
       </c>
@@ -25012,6 +25154,9 @@
       <c r="A253" t="s">
         <v>16</v>
       </c>
+      <c r="C253" t="s">
+        <v>1885</v>
+      </c>
       <c r="D253" t="s">
         <v>1885</v>
       </c>
@@ -25026,6 +25171,9 @@
       <c r="A254" t="s">
         <v>196</v>
       </c>
+      <c r="C254" t="s">
+        <v>1885</v>
+      </c>
       <c r="D254" t="s">
         <v>1885</v>
       </c>
@@ -25140,6 +25288,9 @@
       <c r="A260" t="s">
         <v>296</v>
       </c>
+      <c r="C260" t="s">
+        <v>1885</v>
+      </c>
       <c r="D260" t="s">
         <v>1885</v>
       </c>
@@ -25154,6 +25305,9 @@
       <c r="A261" t="s">
         <v>228</v>
       </c>
+      <c r="C261" t="s">
+        <v>1885</v>
+      </c>
       <c r="D261" t="s">
         <v>1885</v>
       </c>
@@ -25208,6 +25362,9 @@
       <c r="A264" t="s">
         <v>16</v>
       </c>
+      <c r="C264" t="s">
+        <v>1885</v>
+      </c>
       <c r="D264" t="s">
         <v>1885</v>
       </c>
@@ -25222,6 +25379,9 @@
       <c r="A265" t="s">
         <v>196</v>
       </c>
+      <c r="C265" t="s">
+        <v>1885</v>
+      </c>
       <c r="D265" t="s">
         <v>1885</v>
       </c>
@@ -25236,6 +25396,9 @@
       <c r="A266" t="s">
         <v>297</v>
       </c>
+      <c r="C266" t="s">
+        <v>1885</v>
+      </c>
       <c r="D266" t="s">
         <v>1885</v>
       </c>
@@ -25330,6 +25493,9 @@
       <c r="A271" t="s">
         <v>29</v>
       </c>
+      <c r="C271" t="s">
+        <v>1885</v>
+      </c>
       <c r="D271" t="s">
         <v>1885</v>
       </c>
@@ -25424,6 +25590,9 @@
       <c r="A276" t="s">
         <v>308</v>
       </c>
+      <c r="C276" t="s">
+        <v>1885</v>
+      </c>
       <c r="D276" t="s">
         <v>1885</v>
       </c>
@@ -25438,6 +25607,9 @@
       <c r="A277" t="s">
         <v>29</v>
       </c>
+      <c r="C277" t="s">
+        <v>1885</v>
+      </c>
       <c r="D277" t="s">
         <v>1885</v>
       </c>
@@ -25612,6 +25784,9 @@
       <c r="A286" t="s">
         <v>296</v>
       </c>
+      <c r="C286" t="s">
+        <v>1885</v>
+      </c>
       <c r="D286" t="s">
         <v>1885</v>
       </c>
@@ -25650,7 +25825,7 @@
         <v>1808</v>
       </c>
       <c r="C288" s="51" t="s">
-        <v>1809</v>
+        <v>595</v>
       </c>
       <c r="D288" t="s">
         <v>596</v>
@@ -25706,6 +25881,9 @@
       <c r="A291" t="s">
         <v>29</v>
       </c>
+      <c r="C291" t="s">
+        <v>1885</v>
+      </c>
       <c r="D291" t="s">
         <v>1885</v>
       </c>
@@ -25744,7 +25922,7 @@
         <v>1808</v>
       </c>
       <c r="C293" s="51" t="s">
-        <v>1809</v>
+        <v>595</v>
       </c>
       <c r="D293" t="s">
         <v>596</v>
@@ -25800,6 +25978,9 @@
       <c r="A296" t="s">
         <v>29</v>
       </c>
+      <c r="C296" t="s">
+        <v>1885</v>
+      </c>
       <c r="D296" t="s">
         <v>1885</v>
       </c>
@@ -25894,6 +26075,9 @@
       <c r="A301" t="s">
         <v>29</v>
       </c>
+      <c r="C301" t="s">
+        <v>1885</v>
+      </c>
       <c r="D301" t="s">
         <v>1885</v>
       </c>
@@ -25988,6 +26172,9 @@
       <c r="A306" t="s">
         <v>29</v>
       </c>
+      <c r="C306" t="s">
+        <v>1885</v>
+      </c>
       <c r="D306" t="s">
         <v>1885</v>
       </c>
@@ -26222,6 +26409,9 @@
       <c r="A318" t="s">
         <v>296</v>
       </c>
+      <c r="C318" t="s">
+        <v>1885</v>
+      </c>
       <c r="D318" t="s">
         <v>1885</v>
       </c>
@@ -26240,7 +26430,7 @@
         <v>1818</v>
       </c>
       <c r="C319" s="51" t="s">
-        <v>1815</v>
+        <v>1897</v>
       </c>
       <c r="D319" t="s">
         <v>569</v>
@@ -26336,6 +26526,9 @@
       <c r="A324" t="s">
         <v>29</v>
       </c>
+      <c r="C324" t="s">
+        <v>1885</v>
+      </c>
       <c r="D324" t="s">
         <v>1885</v>
       </c>
@@ -26410,6 +26603,9 @@
       <c r="A328" t="s">
         <v>29</v>
       </c>
+      <c r="C328" t="s">
+        <v>1885</v>
+      </c>
       <c r="D328" t="s">
         <v>1885</v>
       </c>
@@ -26524,6 +26720,9 @@
       <c r="A334" t="s">
         <v>29</v>
       </c>
+      <c r="C334" t="s">
+        <v>1885</v>
+      </c>
       <c r="D334" t="s">
         <v>1885</v>
       </c>
@@ -26618,6 +26817,9 @@
       <c r="A339" t="s">
         <v>29</v>
       </c>
+      <c r="C339" t="s">
+        <v>1885</v>
+      </c>
       <c r="D339" t="s">
         <v>1885</v>
       </c>
@@ -26712,6 +26914,9 @@
       <c r="A344" t="s">
         <v>29</v>
       </c>
+      <c r="C344" t="s">
+        <v>1885</v>
+      </c>
       <c r="D344" t="s">
         <v>1885</v>
       </c>
@@ -26806,6 +27011,9 @@
       <c r="A349" t="s">
         <v>29</v>
       </c>
+      <c r="C349" t="s">
+        <v>1885</v>
+      </c>
       <c r="D349" t="s">
         <v>1885</v>
       </c>
@@ -26900,6 +27108,9 @@
       <c r="A354" t="s">
         <v>29</v>
       </c>
+      <c r="C354" t="s">
+        <v>1885</v>
+      </c>
       <c r="D354" t="s">
         <v>1885</v>
       </c>
@@ -27034,6 +27245,9 @@
       <c r="A361" t="s">
         <v>29</v>
       </c>
+      <c r="C361" t="s">
+        <v>1885</v>
+      </c>
       <c r="D361" t="s">
         <v>1885</v>
       </c>
@@ -27148,6 +27362,9 @@
       <c r="A367" t="s">
         <v>296</v>
       </c>
+      <c r="C367" t="s">
+        <v>1885</v>
+      </c>
       <c r="D367" t="s">
         <v>1885</v>
       </c>
@@ -27226,7 +27443,7 @@
         <v>1819</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1820</v>
+        <v>597</v>
       </c>
       <c r="D371" t="s">
         <v>561</v>
@@ -27242,6 +27459,9 @@
       <c r="A372" t="s">
         <v>29</v>
       </c>
+      <c r="C372" t="s">
+        <v>1885</v>
+      </c>
       <c r="D372" t="s">
         <v>1885</v>
       </c>
@@ -27396,6 +27616,9 @@
       <c r="A380" t="s">
         <v>29</v>
       </c>
+      <c r="C380" t="s">
+        <v>1885</v>
+      </c>
       <c r="D380" t="s">
         <v>1885</v>
       </c>
@@ -27550,6 +27773,9 @@
       <c r="A388" t="s">
         <v>126</v>
       </c>
+      <c r="C388" t="s">
+        <v>1885</v>
+      </c>
       <c r="D388" t="s">
         <v>1885</v>
       </c>
@@ -27684,6 +27910,9 @@
       <c r="A395" t="s">
         <v>29</v>
       </c>
+      <c r="C395" t="s">
+        <v>1885</v>
+      </c>
       <c r="D395" t="s">
         <v>1885</v>
       </c>
@@ -27818,6 +28047,9 @@
       <c r="A402" t="s">
         <v>54</v>
       </c>
+      <c r="C402" t="s">
+        <v>1885</v>
+      </c>
       <c r="D402" t="s">
         <v>1885</v>
       </c>
@@ -27936,7 +28168,7 @@
         <v>1821</v>
       </c>
       <c r="C408" s="51" t="s">
-        <v>1822</v>
+        <v>829</v>
       </c>
       <c r="D408" t="s">
         <v>635</v>
@@ -27952,6 +28184,9 @@
       <c r="A409" t="s">
         <v>29</v>
       </c>
+      <c r="C409" t="s">
+        <v>1885</v>
+      </c>
       <c r="D409" t="s">
         <v>1885</v>
       </c>
@@ -28086,6 +28321,9 @@
       <c r="A416" t="s">
         <v>54</v>
       </c>
+      <c r="C416" t="s">
+        <v>1885</v>
+      </c>
       <c r="D416" t="s">
         <v>1885</v>
       </c>
@@ -28220,6 +28458,9 @@
       <c r="A423" t="s">
         <v>29</v>
       </c>
+      <c r="C423" t="s">
+        <v>1885</v>
+      </c>
       <c r="D423" t="s">
         <v>1885</v>
       </c>
@@ -28354,6 +28595,9 @@
       <c r="A430" t="s">
         <v>54</v>
       </c>
+      <c r="C430" t="s">
+        <v>1885</v>
+      </c>
       <c r="D430" t="s">
         <v>1885</v>
       </c>
@@ -28488,6 +28732,9 @@
       <c r="A437" t="s">
         <v>29</v>
       </c>
+      <c r="C437" t="s">
+        <v>1885</v>
+      </c>
       <c r="D437" t="s">
         <v>1885</v>
       </c>
@@ -28622,6 +28869,9 @@
       <c r="A444" t="s">
         <v>54</v>
       </c>
+      <c r="C444" t="s">
+        <v>1885</v>
+      </c>
       <c r="D444" t="s">
         <v>1885</v>
       </c>
@@ -28756,6 +29006,9 @@
       <c r="A451" t="s">
         <v>29</v>
       </c>
+      <c r="C451" t="s">
+        <v>1885</v>
+      </c>
       <c r="D451" t="s">
         <v>1885</v>
       </c>
@@ -28874,13 +29127,13 @@
         <v>1810</v>
       </c>
       <c r="C457" s="51" t="s">
-        <v>1811</v>
+        <v>1895</v>
       </c>
       <c r="D457" t="s">
         <v>569</v>
       </c>
       <c r="E457" t="s">
-        <v>1886</v>
+        <v>575</v>
       </c>
       <c r="F457">
         <v>1</v>
@@ -28889,6 +29142,9 @@
     <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>54</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1885</v>
       </c>
       <c r="D458" t="s">
         <v>1885</v>
@@ -28907,7 +29163,9 @@
 </v>
       </c>
       <c r="B459" s="95"/>
-      <c r="C459" s="95"/>
+      <c r="C459" s="95" t="s">
+        <v>1885</v>
+      </c>
       <c r="D459" s="95" t="s">
         <v>1885</v>
       </c>
@@ -28990,6 +29248,9 @@
       <c r="A463" t="s">
         <v>16</v>
       </c>
+      <c r="C463" t="s">
+        <v>1885</v>
+      </c>
       <c r="D463" t="s">
         <v>1885</v>
       </c>
@@ -29004,6 +29265,9 @@
       <c r="A464" t="s">
         <v>196</v>
       </c>
+      <c r="C464" t="s">
+        <v>1885</v>
+      </c>
       <c r="D464" t="s">
         <v>1885</v>
       </c>
@@ -29178,6 +29442,9 @@
       <c r="A473" t="s">
         <v>296</v>
       </c>
+      <c r="C473" t="s">
+        <v>1885</v>
+      </c>
       <c r="D473" t="s">
         <v>1885</v>
       </c>
@@ -29272,6 +29539,9 @@
       <c r="A478" t="s">
         <v>29</v>
       </c>
+      <c r="C478" t="s">
+        <v>1885</v>
+      </c>
       <c r="D478" t="s">
         <v>1885</v>
       </c>
@@ -29350,7 +29620,7 @@
         <v>1824</v>
       </c>
       <c r="C482" s="51" t="s">
-        <v>1825</v>
+        <v>1898</v>
       </c>
       <c r="D482" t="s">
         <v>1885</v>
@@ -29386,6 +29656,9 @@
       <c r="A484" t="s">
         <v>126</v>
       </c>
+      <c r="C484" t="s">
+        <v>1885</v>
+      </c>
       <c r="D484" t="s">
         <v>1885</v>
       </c>
@@ -29500,6 +29773,9 @@
       <c r="A490" t="s">
         <v>29</v>
       </c>
+      <c r="C490" t="s">
+        <v>1885</v>
+      </c>
       <c r="D490" t="s">
         <v>1885</v>
       </c>
@@ -29634,6 +29910,9 @@
       <c r="A497" t="s">
         <v>29</v>
       </c>
+      <c r="C497" t="s">
+        <v>1885</v>
+      </c>
       <c r="D497" t="s">
         <v>1885</v>
       </c>
@@ -29828,6 +30107,9 @@
       <c r="A507" t="s">
         <v>29</v>
       </c>
+      <c r="C507" t="s">
+        <v>1885</v>
+      </c>
       <c r="D507" t="s">
         <v>1885</v>
       </c>
@@ -30022,6 +30304,9 @@
       <c r="A517" t="s">
         <v>126</v>
       </c>
+      <c r="C517" t="s">
+        <v>1885</v>
+      </c>
       <c r="D517" t="s">
         <v>1885</v>
       </c>
@@ -30100,7 +30385,7 @@
         <v>1826</v>
       </c>
       <c r="C521" s="51" t="s">
-        <v>1827</v>
+        <v>826</v>
       </c>
       <c r="D521" t="s">
         <v>567</v>
@@ -30196,6 +30481,9 @@
       <c r="A526" t="s">
         <v>29</v>
       </c>
+      <c r="C526" t="s">
+        <v>1885</v>
+      </c>
       <c r="D526" t="s">
         <v>1885</v>
       </c>
@@ -30370,6 +30658,9 @@
       <c r="A535" t="s">
         <v>29</v>
       </c>
+      <c r="C535" t="s">
+        <v>1885</v>
+      </c>
       <c r="D535" t="s">
         <v>1885</v>
       </c>
@@ -30484,6 +30775,9 @@
       <c r="A541" t="s">
         <v>296</v>
       </c>
+      <c r="C541" t="s">
+        <v>1885</v>
+      </c>
       <c r="D541" t="s">
         <v>1885</v>
       </c>
@@ -30618,6 +30912,9 @@
       <c r="A548" t="s">
         <v>29</v>
       </c>
+      <c r="C548" t="s">
+        <v>1885</v>
+      </c>
       <c r="D548" t="s">
         <v>1885</v>
       </c>
@@ -30712,6 +31009,9 @@
       <c r="A553" t="s">
         <v>29</v>
       </c>
+      <c r="C553" t="s">
+        <v>1885</v>
+      </c>
       <c r="D553" t="s">
         <v>1885</v>
       </c>
@@ -30846,6 +31146,9 @@
       <c r="A560" t="s">
         <v>29</v>
       </c>
+      <c r="C560" t="s">
+        <v>1885</v>
+      </c>
       <c r="D560" t="s">
         <v>1885</v>
       </c>
@@ -30980,6 +31283,9 @@
       <c r="A567" t="s">
         <v>54</v>
       </c>
+      <c r="C567" t="s">
+        <v>1885</v>
+      </c>
       <c r="D567" t="s">
         <v>1885</v>
       </c>
@@ -31098,7 +31404,7 @@
         <v>1810</v>
       </c>
       <c r="C573" s="51" t="s">
-        <v>1811</v>
+        <v>1895</v>
       </c>
       <c r="D573" t="s">
         <v>569</v>
@@ -31114,6 +31420,9 @@
       <c r="A574" t="s">
         <v>29</v>
       </c>
+      <c r="C574" t="s">
+        <v>1885</v>
+      </c>
       <c r="D574" t="s">
         <v>1885</v>
       </c>
@@ -31248,6 +31557,9 @@
       <c r="A581" t="s">
         <v>29</v>
       </c>
+      <c r="C581" t="s">
+        <v>1885</v>
+      </c>
       <c r="D581" t="s">
         <v>1885</v>
       </c>
@@ -31382,6 +31694,9 @@
       <c r="A588" t="s">
         <v>29</v>
       </c>
+      <c r="C588" t="s">
+        <v>1885</v>
+      </c>
       <c r="D588" t="s">
         <v>1885</v>
       </c>
@@ -31400,7 +31715,7 @@
         <v>1828</v>
       </c>
       <c r="C589" s="51" t="s">
-        <v>1829</v>
+        <v>823</v>
       </c>
       <c r="D589" t="s">
         <v>596</v>
@@ -31516,6 +31831,9 @@
       <c r="A595" t="s">
         <v>29</v>
       </c>
+      <c r="C595" t="s">
+        <v>1885</v>
+      </c>
       <c r="D595" t="s">
         <v>1885</v>
       </c>
@@ -31610,6 +31928,9 @@
       <c r="A600" t="s">
         <v>29</v>
       </c>
+      <c r="C600" t="s">
+        <v>1885</v>
+      </c>
       <c r="D600" t="s">
         <v>1885</v>
       </c>
@@ -31704,6 +32025,9 @@
       <c r="A605" t="s">
         <v>29</v>
       </c>
+      <c r="C605" t="s">
+        <v>1885</v>
+      </c>
       <c r="D605" t="s">
         <v>1885</v>
       </c>
@@ -31898,6 +32222,9 @@
       <c r="A615" t="s">
         <v>29</v>
       </c>
+      <c r="C615" t="s">
+        <v>1885</v>
+      </c>
       <c r="D615" t="s">
         <v>1885</v>
       </c>
@@ -32071,6 +32398,9 @@
     <row r="624" spans="1:6">
       <c r="A624" t="s">
         <v>54</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1885</v>
       </c>
       <c r="D624" t="s">
         <v>1885</v>
@@ -32089,7 +32419,9 @@
 </v>
       </c>
       <c r="B625" s="95"/>
-      <c r="C625" s="95"/>
+      <c r="C625" s="95" t="s">
+        <v>1885</v>
+      </c>
       <c r="D625" s="95" t="s">
         <v>1885</v>
       </c>
@@ -32184,6 +32516,9 @@
       <c r="A630" t="s">
         <v>29</v>
       </c>
+      <c r="C630" t="s">
+        <v>1885</v>
+      </c>
       <c r="D630" t="s">
         <v>1885</v>
       </c>
@@ -32278,6 +32613,9 @@
       <c r="A635" t="s">
         <v>54</v>
       </c>
+      <c r="C635" t="s">
+        <v>1885</v>
+      </c>
       <c r="D635" t="s">
         <v>1885</v>
       </c>
@@ -32372,6 +32710,9 @@
       <c r="A640" t="s">
         <v>29</v>
       </c>
+      <c r="C640" t="s">
+        <v>1885</v>
+      </c>
       <c r="D640" t="s">
         <v>1885</v>
       </c>
@@ -32466,6 +32807,9 @@
       <c r="A645" t="s">
         <v>29</v>
       </c>
+      <c r="C645" t="s">
+        <v>1885</v>
+      </c>
       <c r="D645" t="s">
         <v>1885</v>
       </c>
@@ -32620,6 +32964,9 @@
       <c r="A653" t="s">
         <v>29</v>
       </c>
+      <c r="C653" t="s">
+        <v>1885</v>
+      </c>
       <c r="D653" t="s">
         <v>1885</v>
       </c>
@@ -32773,6 +33120,9 @@
     <row r="661" spans="1:6">
       <c r="A661" t="s">
         <v>54</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1885</v>
       </c>
       <c r="D661" t="s">
         <v>1885</v>
@@ -32803,16 +33153,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086B592-18F3-4F53-90A1-CE2F21DA787B}">
-  <dimension ref="A1:I662"/>
+  <dimension ref="A1:I668"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" customWidth="1"/>
@@ -32842,8 +33193,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="str" cm="1">
-        <f t="array" ref="D2:F661">_xlfn._xlws.PY(0,0,B2:B661)</f>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:F668">_xlfn._xlws.PY(0,0,B2:B668)</f>
+        <v/>
+      </c>
+      <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
@@ -32867,8 +33221,8 @@
       <c r="B3" t="s">
         <v>1849</v>
       </c>
-      <c r="C3" t="s">
-        <v>560</v>
+      <c r="C3" t="str">
+        <v>zian5</v>
       </c>
       <c r="D3" t="str">
         <v>z</v>
@@ -32894,8 +33248,8 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>563</v>
+      <c r="C4" t="str">
+        <v>cik4</v>
       </c>
       <c r="D4" t="str">
         <v>c</v>
@@ -32921,8 +33275,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>566</v>
+      <c r="C5" t="str">
+        <v>pik4</v>
       </c>
       <c r="D5" t="str">
         <v>p</v>
@@ -32948,8 +33302,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>568</v>
+      <c r="C6" t="str">
+        <v>hu3</v>
       </c>
       <c r="D6" t="str">
         <v>h</v>
@@ -32972,6 +33326,9 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
       <c r="D7" t="str">
         <v/>
       </c>
@@ -32996,8 +33353,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>571</v>
+      <c r="C8" t="str">
+        <v>pok4</v>
       </c>
       <c r="D8" t="str">
         <v>p</v>
@@ -33023,8 +33380,8 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>573</v>
+      <c r="C9" t="str">
+        <v>song3</v>
       </c>
       <c r="D9" t="str">
         <v>s</v>
@@ -33047,6 +33404,9 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
       <c r="D10" t="str">
         <v/>
       </c>
@@ -33071,8 +33431,8 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>576</v>
+      <c r="C11" t="str">
+        <v>soo1</v>
       </c>
       <c r="D11" t="str">
         <v>s</v>
@@ -33098,8 +33458,8 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>578</v>
+      <c r="C12" t="str">
+        <v>sik4</v>
       </c>
       <c r="D12" t="str">
         <v>s</v>
@@ -33125,7 +33485,9 @@
 </v>
       </c>
       <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
+      <c r="C13" s="95" t="str">
+        <v/>
+      </c>
       <c r="D13" s="95" t="str">
         <v/>
       </c>
@@ -33151,8 +33513,8 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>579</v>
+      <c r="C14" t="str">
+        <v>jim5</v>
       </c>
       <c r="D14" t="str">
         <v>j</v>
@@ -33178,8 +33540,8 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>582</v>
+      <c r="C15" t="str">
+        <v>sut4</v>
       </c>
       <c r="D15" t="str">
         <v>s</v>
@@ -33205,8 +33567,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>584</v>
+      <c r="C16" t="str">
+        <v>zi1</v>
       </c>
       <c r="D16" t="str">
         <v>z</v>
@@ -33232,8 +33594,8 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>586</v>
+      <c r="C17" t="str">
+        <v>ciu1</v>
       </c>
       <c r="D17" t="str">
         <v>c</v>
@@ -33256,6 +33618,9 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
       <c r="D18" t="str">
         <v/>
       </c>
@@ -33280,8 +33645,8 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
-        <v>588</v>
+      <c r="C19" t="str">
+        <v>cit4</v>
       </c>
       <c r="D19" t="str">
         <v>c</v>
@@ -33307,8 +33672,8 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>590</v>
+      <c r="C20" t="str">
+        <v>guat8</v>
       </c>
       <c r="D20" t="str">
         <v>g</v>
@@ -33334,8 +33699,8 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
-        <v>593</v>
+      <c r="C21" t="str">
+        <v>ki3</v>
       </c>
       <c r="D21" t="str">
         <v>k</v>
@@ -33354,8 +33719,8 @@
       <c r="B22" s="51" t="s">
         <v>1808</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>1809</v>
+      <c r="C22" s="51" t="str">
+        <v>bong7</v>
       </c>
       <c r="D22" t="str">
         <v>b</v>
@@ -33371,6 +33736,9 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
       <c r="D23" t="str">
         <v/>
       </c>
@@ -33388,8 +33756,8 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>576</v>
+      <c r="C24" t="str">
+        <v>soo1</v>
       </c>
       <c r="D24" t="str">
         <v>s</v>
@@ -33408,8 +33776,8 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>597</v>
+      <c r="C25" t="str">
+        <v>zu2</v>
       </c>
       <c r="D25" t="str">
         <v>z</v>
@@ -33428,8 +33796,8 @@
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
-        <v>946</v>
+      <c r="C26" t="str">
+        <v>u2</v>
       </c>
       <c r="D26" t="str">
         <v/>
@@ -33448,8 +33816,8 @@
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>600</v>
+      <c r="C27" t="str">
+        <v>khik4</v>
       </c>
       <c r="D27" t="str">
         <v>kh</v>
@@ -33468,8 +33836,8 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>602</v>
+      <c r="C28" t="str">
+        <v>huan3</v>
       </c>
       <c r="D28" t="str">
         <v>h</v>
@@ -33488,8 +33856,8 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
-        <v>604</v>
+      <c r="C29" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D29" t="str">
         <v>z</v>
@@ -33508,8 +33876,8 @@
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
-        <v>949</v>
+      <c r="C30" t="str">
+        <v>iu5</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -33528,8 +33896,8 @@
       <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>950</v>
+      <c r="C31" t="str">
+        <v>u1</v>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -33548,8 +33916,8 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>563</v>
+      <c r="C32" t="str">
+        <v>cik4</v>
       </c>
       <c r="D32" t="str">
         <v>c</v>
@@ -33568,8 +33936,8 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>566</v>
+      <c r="C33" t="str">
+        <v>pik4</v>
       </c>
       <c r="D33" t="str">
         <v>p</v>
@@ -33588,8 +33956,8 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
-        <v>584</v>
+      <c r="C34" t="str">
+        <v>zi1</v>
       </c>
       <c r="D34" t="str">
         <v>z</v>
@@ -33608,8 +33976,8 @@
       <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
-        <v>951</v>
+      <c r="C35" t="str">
+        <v>ha2</v>
       </c>
       <c r="D35" t="str">
         <v>h</v>
@@ -33625,6 +33993,9 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
       <c r="D36" t="str">
         <v/>
       </c>
@@ -33642,8 +34013,8 @@
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" t="s">
-        <v>609</v>
+      <c r="C37" t="str">
+        <v>cing1</v>
       </c>
       <c r="D37" t="str">
         <v>c</v>
@@ -33662,8 +34033,8 @@
       <c r="B38" s="51" t="s">
         <v>1810</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>1811</v>
+      <c r="C38" s="51" t="str">
+        <v>hong1</v>
       </c>
       <c r="D38" t="str">
         <v>h</v>
@@ -33682,8 +34053,8 @@
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C39" t="s">
-        <v>613</v>
+      <c r="C39" t="str">
+        <v>su5</v>
       </c>
       <c r="D39" t="str">
         <v>s</v>
@@ -33702,8 +34073,8 @@
       <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" t="s">
-        <v>614</v>
+      <c r="C40" t="str">
+        <v>lai5</v>
       </c>
       <c r="D40" t="str">
         <v>l</v>
@@ -33719,6 +34090,9 @@
       <c r="A41" t="s">
         <v>29</v>
       </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
       <c r="D41" t="str">
         <v/>
       </c>
@@ -33736,8 +34110,8 @@
       <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
-        <v>617</v>
+      <c r="C42" t="str">
+        <v>sui2</v>
       </c>
       <c r="D42" t="str">
         <v>s</v>
@@ -33756,8 +34130,8 @@
       <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" t="s">
-        <v>619</v>
+      <c r="C43" t="str">
+        <v>pho1</v>
       </c>
       <c r="D43" t="str">
         <v>ph</v>
@@ -33776,8 +34150,8 @@
       <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="C44" t="s">
-        <v>622</v>
+      <c r="C44" t="str">
+        <v>put4</v>
       </c>
       <c r="D44" t="str">
         <v>p</v>
@@ -33796,8 +34170,8 @@
       <c r="B45" t="s">
         <v>70</v>
       </c>
-      <c r="C45" t="s">
-        <v>623</v>
+      <c r="C45" t="str">
+        <v>hing1</v>
       </c>
       <c r="D45" t="str">
         <v>h</v>
@@ -33813,6 +34187,9 @@
       <c r="A46" t="s">
         <v>29</v>
       </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
       <c r="D46" t="str">
         <v/>
       </c>
@@ -33830,8 +34207,8 @@
       <c r="B47" t="s">
         <v>72</v>
       </c>
-      <c r="C47" t="s">
-        <v>957</v>
+      <c r="C47" t="str">
+        <v>ku2</v>
       </c>
       <c r="D47" t="str">
         <v>k</v>
@@ -33850,8 +34227,8 @@
       <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="C48" t="s">
-        <v>625</v>
+      <c r="C48" t="str">
+        <v>ziu2</v>
       </c>
       <c r="D48" t="str">
         <v>z</v>
@@ -33870,8 +34247,8 @@
       <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
-        <v>626</v>
+      <c r="C49" t="str">
+        <v>ziok4</v>
       </c>
       <c r="D49" t="str">
         <v>z</v>
@@ -33890,8 +34267,8 @@
       <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="C50" t="s">
-        <v>600</v>
+      <c r="C50" t="str">
+        <v>khik4</v>
       </c>
       <c r="D50" t="str">
         <v>kh</v>
@@ -33907,6 +34284,9 @@
       <c r="A51" t="s">
         <v>29</v>
       </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
       <c r="D51" t="str">
         <v/>
       </c>
@@ -33924,8 +34304,8 @@
       <c r="B52" t="s">
         <v>78</v>
       </c>
-      <c r="C52" t="s">
-        <v>628</v>
+      <c r="C52" t="str">
+        <v>siong7</v>
       </c>
       <c r="D52" t="str">
         <v>s</v>
@@ -33944,8 +34324,8 @@
       <c r="B53" t="s">
         <v>80</v>
       </c>
-      <c r="C53" t="s">
-        <v>629</v>
+      <c r="C53" t="str">
+        <v>bing5</v>
       </c>
       <c r="D53" t="str">
         <v>b</v>
@@ -33964,8 +34344,8 @@
       <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54" t="s">
-        <v>590</v>
+      <c r="C54" t="str">
+        <v>guat8</v>
       </c>
       <c r="D54" t="str">
         <v>g</v>
@@ -33984,8 +34364,8 @@
       <c r="B55" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
-        <v>584</v>
+      <c r="C55" t="str">
+        <v>zi1</v>
       </c>
       <c r="D55" t="str">
         <v>z</v>
@@ -34004,8 +34384,8 @@
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56" t="s">
-        <v>630</v>
+      <c r="C56" t="str">
+        <v>si1</v>
       </c>
       <c r="D56" t="str">
         <v>s</v>
@@ -34021,6 +34401,9 @@
       <c r="A57" t="s">
         <v>29</v>
       </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
       <c r="D57" t="str">
         <v/>
       </c>
@@ -34038,8 +34421,8 @@
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="C58" t="s">
-        <v>631</v>
+      <c r="C58" t="str">
+        <v>ko1</v>
       </c>
       <c r="D58" t="str">
         <v>k</v>
@@ -34058,8 +34441,8 @@
       <c r="B59" t="s">
         <v>86</v>
       </c>
-      <c r="C59" t="s">
-        <v>958</v>
+      <c r="C59" t="str">
+        <v>iau2</v>
       </c>
       <c r="D59" t="str">
         <v/>
@@ -34078,8 +34461,8 @@
       <c r="B60" t="s">
         <v>88</v>
       </c>
-      <c r="C60" t="s">
-        <v>634</v>
+      <c r="C60" t="str">
+        <v>tiau2</v>
       </c>
       <c r="D60" t="str">
         <v>t</v>
@@ -34098,8 +34481,8 @@
       <c r="B61" t="s">
         <v>26</v>
       </c>
-      <c r="C61" t="s">
-        <v>584</v>
+      <c r="C61" t="str">
+        <v>zi1</v>
       </c>
       <c r="D61" t="str">
         <v>z</v>
@@ -34118,8 +34501,8 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" t="s">
-        <v>636</v>
+      <c r="C62" t="str">
+        <v>ziong1</v>
       </c>
       <c r="D62" t="str">
         <v>z</v>
@@ -34134,6 +34517,9 @@
     <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>54</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
       </c>
       <c r="D63" t="str">
         <v/>
@@ -34152,7 +34538,9 @@
 </v>
       </c>
       <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
+      <c r="C64" s="95" t="str">
+        <v/>
+      </c>
       <c r="D64" s="95" t="str">
         <v/>
       </c>
@@ -34178,8 +34566,8 @@
       <c r="B65" t="s">
         <v>92</v>
       </c>
-      <c r="C65" t="s">
-        <v>637</v>
+      <c r="C65" t="str">
+        <v>siau2</v>
       </c>
       <c r="D65" t="str">
         <v>s</v>
@@ -34198,8 +34586,8 @@
       <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="C66" t="s">
-        <v>960</v>
+      <c r="C66" t="str">
+        <v>ian1</v>
       </c>
       <c r="D66" t="str">
         <v/>
@@ -34215,6 +34603,9 @@
       <c r="A67" t="s">
         <v>29</v>
       </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
       <c r="D67" t="str">
         <v/>
       </c>
@@ -34232,8 +34623,8 @@
       <c r="B68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" t="s">
-        <v>590</v>
+      <c r="C68" t="str">
+        <v>guat8</v>
       </c>
       <c r="D68" t="str">
         <v>g</v>
@@ -34252,8 +34643,8 @@
       <c r="B69" t="s">
         <v>96</v>
       </c>
-      <c r="C69" t="s">
-        <v>639</v>
+      <c r="C69" t="str">
+        <v>cui3</v>
       </c>
       <c r="D69" t="str">
         <v>c</v>
@@ -34272,8 +34663,8 @@
       <c r="B70" t="s">
         <v>51</v>
       </c>
-      <c r="C70" t="s">
-        <v>950</v>
+      <c r="C70" t="str">
+        <v>u1</v>
       </c>
       <c r="D70" t="str">
         <v/>
@@ -34292,8 +34683,8 @@
       <c r="B71" t="s">
         <v>98</v>
       </c>
-      <c r="C71" t="s">
-        <v>640</v>
+      <c r="C71" t="str">
+        <v>tong1</v>
       </c>
       <c r="D71" t="str">
         <v>t</v>
@@ -34312,8 +34703,8 @@
       <c r="B72" t="s">
         <v>100</v>
       </c>
-      <c r="C72" t="s">
-        <v>641</v>
+      <c r="C72" t="str">
+        <v>san1</v>
       </c>
       <c r="D72" t="str">
         <v>s</v>
@@ -34332,8 +34723,8 @@
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" t="s">
-        <v>584</v>
+      <c r="C73" t="str">
+        <v>zi1</v>
       </c>
       <c r="D73" t="str">
         <v>z</v>
@@ -34352,8 +34743,8 @@
       <c r="B74" t="s">
         <v>102</v>
       </c>
-      <c r="C74" t="s">
-        <v>643</v>
+      <c r="C74" t="str">
+        <v>siong2</v>
       </c>
       <c r="D74" t="str">
         <v>s</v>
@@ -34369,6 +34760,9 @@
       <c r="A75" t="s">
         <v>29</v>
       </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
       <c r="D75" t="str">
         <v/>
       </c>
@@ -34386,8 +34780,8 @@
       <c r="B76" t="s">
         <v>104</v>
       </c>
-      <c r="C76" t="s">
-        <v>644</v>
+      <c r="C76" t="str">
+        <v>pai5</v>
       </c>
       <c r="D76" t="str">
         <v>p</v>
@@ -34406,8 +34800,8 @@
       <c r="B77" t="s">
         <v>106</v>
       </c>
-      <c r="C77" t="s">
-        <v>645</v>
+      <c r="C77" t="str">
+        <v>hue5</v>
       </c>
       <c r="D77" t="str">
         <v>h</v>
@@ -34426,8 +34820,8 @@
       <c r="B78" t="s">
         <v>51</v>
       </c>
-      <c r="C78" t="s">
-        <v>950</v>
+      <c r="C78" t="str">
+        <v>u1</v>
       </c>
       <c r="D78" t="str">
         <v/>
@@ -34446,8 +34840,8 @@
       <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C79" t="s">
-        <v>647</v>
+      <c r="C79" t="str">
+        <v>too2</v>
       </c>
       <c r="D79" t="str">
         <v>t</v>
@@ -34466,8 +34860,8 @@
       <c r="B80" t="s">
         <v>110</v>
       </c>
-      <c r="C80" t="s">
-        <v>963</v>
+      <c r="C80" t="str">
+        <v>gu5</v>
       </c>
       <c r="D80" t="str">
         <v>g</v>
@@ -34486,8 +34880,8 @@
       <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="C81" t="s">
-        <v>584</v>
+      <c r="C81" t="str">
+        <v>zi1</v>
       </c>
       <c r="D81" t="str">
         <v>z</v>
@@ -34506,8 +34900,8 @@
       <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="C82" t="s">
-        <v>651</v>
+      <c r="C82" t="str">
+        <v>kan1</v>
       </c>
       <c r="D82" t="str">
         <v>k</v>
@@ -34523,6 +34917,9 @@
       <c r="A83" t="s">
         <v>29</v>
       </c>
+      <c r="C83" t="str">
+        <v/>
+      </c>
       <c r="D83" t="str">
         <v/>
       </c>
@@ -34540,8 +34937,8 @@
       <c r="B84" t="s">
         <v>114</v>
       </c>
-      <c r="C84" t="s">
-        <v>652</v>
+      <c r="C84" t="str">
+        <v>pik8</v>
       </c>
       <c r="D84" t="str">
         <v>p</v>
@@ -34560,8 +34957,8 @@
       <c r="B85" t="s">
         <v>116</v>
       </c>
-      <c r="C85" t="s">
-        <v>653</v>
+      <c r="C85" t="str">
+        <v>loo7</v>
       </c>
       <c r="D85" t="str">
         <v>l</v>
@@ -34580,8 +34977,8 @@
       <c r="B86" t="s">
         <v>70</v>
       </c>
-      <c r="C86" t="s">
-        <v>623</v>
+      <c r="C86" t="str">
+        <v>hing1</v>
       </c>
       <c r="D86" t="str">
         <v>h</v>
@@ -34600,8 +34997,8 @@
       <c r="B87" t="s">
         <v>119</v>
       </c>
-      <c r="C87" t="s">
-        <v>654</v>
+      <c r="C87" t="str">
+        <v>kang1</v>
       </c>
       <c r="D87" t="str">
         <v>k</v>
@@ -34617,6 +35014,9 @@
       <c r="A88" t="s">
         <v>29</v>
       </c>
+      <c r="C88" t="str">
+        <v/>
+      </c>
       <c r="D88" t="str">
         <v/>
       </c>
@@ -34634,8 +35034,8 @@
       <c r="B89" t="s">
         <v>64</v>
       </c>
-      <c r="C89" t="s">
-        <v>617</v>
+      <c r="C89" t="str">
+        <v>sui2</v>
       </c>
       <c r="D89" t="str">
         <v>s</v>
@@ -34654,8 +35054,8 @@
       <c r="B90" t="s">
         <v>121</v>
       </c>
-      <c r="C90" t="s">
-        <v>656</v>
+      <c r="C90" t="str">
+        <v>kong1</v>
       </c>
       <c r="D90" t="str">
         <v>k</v>
@@ -34674,8 +35074,8 @@
       <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
-        <v>657</v>
+      <c r="C91" t="str">
+        <v>ziap4</v>
       </c>
       <c r="D91" t="str">
         <v>z</v>
@@ -34694,8 +35094,8 @@
       <c r="B92" t="s">
         <v>125</v>
       </c>
-      <c r="C92" t="s">
-        <v>659</v>
+      <c r="C92" t="str">
+        <v>thian1</v>
       </c>
       <c r="D92" t="str">
         <v>th</v>
@@ -34711,6 +35111,9 @@
       <c r="A93" t="s">
         <v>126</v>
       </c>
+      <c r="C93" t="str">
+        <v/>
+      </c>
       <c r="D93" t="str">
         <v/>
       </c>
@@ -34728,8 +35131,8 @@
       <c r="B94" t="s">
         <v>90</v>
       </c>
-      <c r="C94" t="s">
-        <v>636</v>
+      <c r="C94" t="str">
+        <v>ziong1</v>
       </c>
       <c r="D94" t="str">
         <v>z</v>
@@ -34748,8 +35151,8 @@
       <c r="B95" t="s">
         <v>129</v>
       </c>
-      <c r="C95" t="s">
-        <v>966</v>
+      <c r="C95" t="str">
+        <v>it4</v>
       </c>
       <c r="D95" t="str">
         <v/>
@@ -34768,8 +35171,8 @@
       <c r="B96" t="s">
         <v>131</v>
       </c>
-      <c r="C96" t="s">
-        <v>967</v>
+      <c r="C96" t="str">
+        <v>ui2</v>
       </c>
       <c r="D96" t="str">
         <v/>
@@ -34788,8 +35191,8 @@
       <c r="B97" t="s">
         <v>26</v>
       </c>
-      <c r="C97" t="s">
-        <v>584</v>
+      <c r="C97" t="str">
+        <v>zi1</v>
       </c>
       <c r="D97" t="str">
         <v>z</v>
@@ -34808,8 +35211,8 @@
       <c r="B98" t="s">
         <v>133</v>
       </c>
-      <c r="C98" t="s">
-        <v>663</v>
+      <c r="C98" t="str">
+        <v>soo2</v>
       </c>
       <c r="D98" t="str">
         <v>s</v>
@@ -34828,8 +35231,8 @@
       <c r="B99" t="s">
         <v>135</v>
       </c>
-      <c r="C99" t="s">
-        <v>968</v>
+      <c r="C99" t="str">
+        <v>ju5</v>
       </c>
       <c r="D99" t="str">
         <v>j</v>
@@ -34845,6 +35248,9 @@
       <c r="A100" t="s">
         <v>29</v>
       </c>
+      <c r="C100" t="str">
+        <v/>
+      </c>
       <c r="D100" t="str">
         <v/>
       </c>
@@ -34862,8 +35268,8 @@
       <c r="B101" t="s">
         <v>137</v>
       </c>
-      <c r="C101" t="s">
-        <v>665</v>
+      <c r="C101" t="str">
+        <v>ling5</v>
       </c>
       <c r="D101" t="str">
         <v>l</v>
@@ -34882,8 +35288,8 @@
       <c r="B102" t="s">
         <v>139</v>
       </c>
-      <c r="C102" t="s">
-        <v>969</v>
+      <c r="C102" t="str">
+        <v>buan7</v>
       </c>
       <c r="D102" t="str">
         <v>b</v>
@@ -34902,8 +35308,8 @@
       <c r="B103" t="s">
         <v>141</v>
       </c>
-      <c r="C103" t="s">
-        <v>667</v>
+      <c r="C103" t="str">
+        <v>khing1</v>
       </c>
       <c r="D103" t="str">
         <v>kh</v>
@@ -34922,8 +35328,8 @@
       <c r="B104" t="s">
         <v>26</v>
       </c>
-      <c r="C104" t="s">
-        <v>584</v>
+      <c r="C104" t="str">
+        <v>zi1</v>
       </c>
       <c r="D104" t="str">
         <v>z</v>
@@ -34942,8 +35348,8 @@
       <c r="B105" t="s">
         <v>143</v>
       </c>
-      <c r="C105" t="s">
-        <v>668</v>
+      <c r="C105" t="str">
+        <v>bong5</v>
       </c>
       <c r="D105" t="str">
         <v>b</v>
@@ -34962,8 +35368,8 @@
       <c r="B106" t="s">
         <v>145</v>
       </c>
-      <c r="C106" t="s">
-        <v>669</v>
+      <c r="C106" t="str">
+        <v>jian5</v>
       </c>
       <c r="D106" t="str">
         <v>j</v>
@@ -34979,6 +35385,9 @@
       <c r="A107" t="s">
         <v>54</v>
       </c>
+      <c r="C107" t="str">
+        <v/>
+      </c>
       <c r="D107" t="str">
         <v/>
       </c>
@@ -34996,8 +35405,8 @@
       <c r="B108" t="s">
         <v>147</v>
       </c>
-      <c r="C108" t="s">
-        <v>670</v>
+      <c r="C108" t="str">
+        <v>ho2</v>
       </c>
       <c r="D108" t="str">
         <v>h</v>
@@ -35016,8 +35425,8 @@
       <c r="B109" t="s">
         <v>147</v>
       </c>
-      <c r="C109" t="s">
-        <v>670</v>
+      <c r="C109" t="str">
+        <v>ho2</v>
       </c>
       <c r="D109" t="str">
         <v>h</v>
@@ -35036,8 +35445,8 @@
       <c r="B110" t="s">
         <v>149</v>
       </c>
-      <c r="C110" t="s">
-        <v>671</v>
+      <c r="C110" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D110" t="str">
         <v>h</v>
@@ -35056,8 +35465,8 @@
       <c r="B111" s="52" t="s">
         <v>1812</v>
       </c>
-      <c r="C111" s="51" t="s">
-        <v>1813</v>
+      <c r="C111" s="51" t="str">
+        <v>ju5</v>
       </c>
       <c r="D111" t="str">
         <v>j</v>
@@ -35076,8 +35485,8 @@
       <c r="B112" t="s">
         <v>152</v>
       </c>
-      <c r="C112" t="s">
-        <v>672</v>
+      <c r="C112" t="str">
+        <v>ping5</v>
       </c>
       <c r="D112" t="str">
         <v>p</v>
@@ -35096,8 +35505,8 @@
       <c r="B113" t="s">
         <v>154</v>
       </c>
-      <c r="C113" t="s">
-        <v>673</v>
+      <c r="C113" t="str">
+        <v>hu1</v>
       </c>
       <c r="D113" t="str">
         <v>h</v>
@@ -35116,8 +35525,8 @@
       <c r="B114" t="s">
         <v>156</v>
       </c>
-      <c r="C114" t="s">
-        <v>970</v>
+      <c r="C114" t="str">
+        <v>gu7</v>
       </c>
       <c r="D114" t="str">
         <v>g</v>
@@ -35136,8 +35545,8 @@
       <c r="B115" s="51" t="s">
         <v>1810</v>
       </c>
-      <c r="C115" s="51" t="s">
-        <v>1811</v>
+      <c r="C115" s="51" t="str">
+        <v>hong1</v>
       </c>
       <c r="D115" t="str">
         <v>h</v>
@@ -35153,6 +35562,9 @@
       <c r="A116" t="s">
         <v>29</v>
       </c>
+      <c r="C116" t="str">
+        <v/>
+      </c>
       <c r="D116" t="str">
         <v/>
       </c>
@@ -35170,8 +35582,8 @@
       <c r="B117" t="s">
         <v>150</v>
       </c>
-      <c r="C117" t="s">
-        <v>664</v>
+      <c r="C117" t="str">
+        <v>ji5</v>
       </c>
       <c r="D117" t="str">
         <v>j</v>
@@ -35190,8 +35602,8 @@
       <c r="B118" t="s">
         <v>68</v>
       </c>
-      <c r="C118" t="s">
-        <v>622</v>
+      <c r="C118" t="str">
+        <v>put4</v>
       </c>
       <c r="D118" t="str">
         <v>p</v>
@@ -35210,8 +35622,8 @@
       <c r="B119" t="s">
         <v>159</v>
       </c>
-      <c r="C119" t="s">
-        <v>675</v>
+      <c r="C119" t="str">
+        <v>ti1</v>
       </c>
       <c r="D119" t="str">
         <v>t</v>
@@ -35230,8 +35642,8 @@
       <c r="B120" t="s">
         <v>161</v>
       </c>
-      <c r="C120" t="s">
-        <v>676</v>
+      <c r="C120" t="str">
+        <v>ki5</v>
       </c>
       <c r="D120" t="str">
         <v>k</v>
@@ -35250,8 +35662,8 @@
       <c r="B121" t="s">
         <v>133</v>
       </c>
-      <c r="C121" t="s">
-        <v>663</v>
+      <c r="C121" t="str">
+        <v>soo2</v>
       </c>
       <c r="D121" t="str">
         <v>s</v>
@@ -35270,8 +35682,8 @@
       <c r="B122" t="s">
         <v>163</v>
       </c>
-      <c r="C122" t="s">
-        <v>677</v>
+      <c r="C122" t="str">
+        <v>zi2</v>
       </c>
       <c r="D122" t="str">
         <v>z</v>
@@ -35287,6 +35699,9 @@
       <c r="A123" t="s">
         <v>126</v>
       </c>
+      <c r="C123" t="str">
+        <v/>
+      </c>
       <c r="D123" t="str">
         <v/>
       </c>
@@ -35304,8 +35719,8 @@
       <c r="B124" t="s">
         <v>165</v>
       </c>
-      <c r="C124" t="s">
-        <v>678</v>
+      <c r="C124" t="str">
+        <v>phiau1</v>
       </c>
       <c r="D124" t="str">
         <v>ph</v>
@@ -35324,8 +35739,8 @@
       <c r="B125" t="s">
         <v>165</v>
       </c>
-      <c r="C125" t="s">
-        <v>678</v>
+      <c r="C125" t="str">
+        <v>phiau1</v>
       </c>
       <c r="D125" t="str">
         <v>ph</v>
@@ -35344,8 +35759,8 @@
       <c r="B126" t="s">
         <v>149</v>
       </c>
-      <c r="C126" t="s">
-        <v>671</v>
+      <c r="C126" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D126" t="str">
         <v>h</v>
@@ -35364,8 +35779,8 @@
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" t="s">
-        <v>968</v>
+      <c r="C127" t="str">
+        <v>ju5</v>
       </c>
       <c r="D127" t="str">
         <v>j</v>
@@ -35384,8 +35799,8 @@
       <c r="B128" t="s">
         <v>167</v>
       </c>
-      <c r="C128" t="s">
-        <v>971</v>
+      <c r="C128" t="str">
+        <v>ui5</v>
       </c>
       <c r="D128" t="str">
         <v/>
@@ -35404,8 +35819,8 @@
       <c r="B129" t="s">
         <v>169</v>
       </c>
-      <c r="C129" t="s">
-        <v>972</v>
+      <c r="C129" t="str">
+        <v>se3</v>
       </c>
       <c r="D129" t="str">
         <v>s</v>
@@ -35424,8 +35839,8 @@
       <c r="B130" t="s">
         <v>171</v>
       </c>
-      <c r="C130" t="s">
-        <v>681</v>
+      <c r="C130" t="str">
+        <v>tok8</v>
       </c>
       <c r="D130" t="str">
         <v>t</v>
@@ -35444,8 +35859,8 @@
       <c r="B131" t="s">
         <v>173</v>
       </c>
-      <c r="C131" t="s">
-        <v>682</v>
+      <c r="C131" t="str">
+        <v>lip8</v>
       </c>
       <c r="D131" t="str">
         <v>l</v>
@@ -35461,6 +35876,9 @@
       <c r="A132" t="s">
         <v>29</v>
       </c>
+      <c r="C132" t="str">
+        <v/>
+      </c>
       <c r="D132" t="str">
         <v/>
       </c>
@@ -35478,8 +35896,8 @@
       <c r="B133" t="s">
         <v>41</v>
       </c>
-      <c r="C133" t="s">
-        <v>946</v>
+      <c r="C133" t="str">
+        <v>u2</v>
       </c>
       <c r="D133" t="str">
         <v/>
@@ -35498,8 +35916,8 @@
       <c r="B134" t="s">
         <v>176</v>
       </c>
-      <c r="C134" t="s">
-        <v>684</v>
+      <c r="C134" t="str">
+        <v>hua3</v>
       </c>
       <c r="D134" t="str">
         <v>h</v>
@@ -35518,8 +35936,8 @@
       <c r="B135" t="s">
         <v>150</v>
       </c>
-      <c r="C135" t="s">
-        <v>664</v>
+      <c r="C135" t="str">
+        <v>ji5</v>
       </c>
       <c r="D135" t="str">
         <v>j</v>
@@ -35538,8 +35956,8 @@
       <c r="B136" t="s">
         <v>178</v>
       </c>
-      <c r="C136" t="s">
-        <v>686</v>
+      <c r="C136" t="str">
+        <v>ting1</v>
       </c>
       <c r="D136" t="str">
         <v>t</v>
@@ -35558,8 +35976,8 @@
       <c r="B137" t="s">
         <v>180</v>
       </c>
-      <c r="C137" t="s">
-        <v>687</v>
+      <c r="C137" t="str">
+        <v>sian1</v>
       </c>
       <c r="D137" t="str">
         <v>s</v>
@@ -35575,6 +35993,9 @@
       <c r="A138" t="s">
         <v>54</v>
       </c>
+      <c r="C138" t="str">
+        <v/>
+      </c>
       <c r="D138" t="str">
         <v/>
       </c>
@@ -35592,8 +36013,8 @@
       <c r="B139" t="s">
         <v>51</v>
       </c>
-      <c r="C139" t="s">
-        <v>950</v>
+      <c r="C139" t="str">
+        <v>u1</v>
       </c>
       <c r="D139" t="str">
         <v/>
@@ -35612,8 +36033,8 @@
       <c r="B140" t="s">
         <v>182</v>
       </c>
-      <c r="C140" t="s">
-        <v>688</v>
+      <c r="C140" t="str">
+        <v>si2</v>
       </c>
       <c r="D140" t="str">
         <v>s</v>
@@ -35632,8 +36053,8 @@
       <c r="B141" t="s">
         <v>184</v>
       </c>
-      <c r="C141" t="s">
-        <v>975</v>
+      <c r="C141" t="str">
+        <v>im2</v>
       </c>
       <c r="D141" t="str">
         <v/>
@@ -35652,8 +36073,8 @@
       <c r="B142" t="s">
         <v>74</v>
       </c>
-      <c r="C142" t="s">
-        <v>625</v>
+      <c r="C142" t="str">
+        <v>ziu2</v>
       </c>
       <c r="D142" t="str">
         <v>z</v>
@@ -35672,8 +36093,8 @@
       <c r="B143" t="s">
         <v>186</v>
       </c>
-      <c r="C143" t="s">
-        <v>690</v>
+      <c r="C143" t="str">
+        <v>lok8</v>
       </c>
       <c r="D143" t="str">
         <v>l</v>
@@ -35692,8 +36113,8 @@
       <c r="B144" t="s">
         <v>188</v>
       </c>
-      <c r="C144" t="s">
-        <v>691</v>
+      <c r="C144" t="str">
+        <v>sim2</v>
       </c>
       <c r="D144" t="str">
         <v>s</v>
@@ -35709,6 +36130,9 @@
       <c r="A145" t="s">
         <v>29</v>
       </c>
+      <c r="C145" t="str">
+        <v/>
+      </c>
       <c r="D145" t="str">
         <v/>
       </c>
@@ -35726,8 +36150,8 @@
       <c r="B146" t="s">
         <v>190</v>
       </c>
-      <c r="C146" t="s">
-        <v>692</v>
+      <c r="C146" t="str">
+        <v>khoo3</v>
       </c>
       <c r="D146" t="str">
         <v>kh</v>
@@ -35746,8 +36170,8 @@
       <c r="B147" t="s">
         <v>192</v>
       </c>
-      <c r="C147" t="s">
-        <v>693</v>
+      <c r="C147" t="str">
+        <v>hian5</v>
       </c>
       <c r="D147" t="str">
         <v>h</v>
@@ -35766,8 +36190,8 @@
       <c r="B148" t="s">
         <v>150</v>
       </c>
-      <c r="C148" t="s">
-        <v>664</v>
+      <c r="C148" t="str">
+        <v>ji5</v>
       </c>
       <c r="D148" t="str">
         <v>j</v>
@@ -35786,8 +36210,8 @@
       <c r="B149" t="s">
         <v>84</v>
       </c>
-      <c r="C149" t="s">
-        <v>631</v>
+      <c r="C149" t="str">
+        <v>ko1</v>
       </c>
       <c r="D149" t="str">
         <v>k</v>
@@ -35806,8 +36230,8 @@
       <c r="B150" t="s">
         <v>26</v>
       </c>
-      <c r="C150" t="s">
-        <v>584</v>
+      <c r="C150" t="str">
+        <v>zi1</v>
       </c>
       <c r="D150" t="str">
         <v>z</v>
@@ -35823,6 +36247,9 @@
       <c r="A151" t="s">
         <v>54</v>
       </c>
+      <c r="C151" t="str">
+        <v/>
+      </c>
       <c r="D151" t="str">
         <v/>
       </c>
@@ -35840,8 +36267,8 @@
       <c r="B152" t="s">
         <v>84</v>
       </c>
-      <c r="C152" t="s">
-        <v>631</v>
+      <c r="C152" t="str">
+        <v>ko1</v>
       </c>
       <c r="D152" t="str">
         <v>k</v>
@@ -35860,8 +36287,8 @@
       <c r="B153" t="s">
         <v>194</v>
       </c>
-      <c r="C153" t="s">
-        <v>976</v>
+      <c r="C153" t="str">
+        <v>uat8</v>
       </c>
       <c r="D153" t="str">
         <v/>
@@ -35877,6 +36304,9 @@
       <c r="A154" t="s">
         <v>16</v>
       </c>
+      <c r="C154" t="str">
+        <v/>
+      </c>
       <c r="D154" t="str">
         <v/>
       </c>
@@ -35891,6 +36321,9 @@
       <c r="A155" t="s">
         <v>196</v>
       </c>
+      <c r="C155" t="str">
+        <v/>
+      </c>
       <c r="D155" t="str">
         <v/>
       </c>
@@ -35908,8 +36341,8 @@
       <c r="B156" t="s">
         <v>198</v>
       </c>
-      <c r="C156" t="s">
-        <v>695</v>
+      <c r="C156" t="str">
+        <v>kue3</v>
       </c>
       <c r="D156" t="str">
         <v>k</v>
@@ -35928,8 +36361,8 @@
       <c r="B157" t="s">
         <v>200</v>
       </c>
-      <c r="C157" t="s">
-        <v>696</v>
+      <c r="C157" t="str">
+        <v>zau7</v>
       </c>
       <c r="D157" t="str">
         <v>z</v>
@@ -35948,8 +36381,8 @@
       <c r="B158" t="s">
         <v>202</v>
       </c>
-      <c r="C158" t="s">
-        <v>978</v>
+      <c r="C158" t="str">
+        <v>he5</v>
       </c>
       <c r="D158" t="str">
         <v>h</v>
@@ -35968,8 +36401,8 @@
       <c r="B159" t="s">
         <v>204</v>
       </c>
-      <c r="C159" t="s">
-        <v>700</v>
+      <c r="C159" t="str">
+        <v>lan5</v>
       </c>
       <c r="D159" t="str">
         <v>l</v>
@@ -35988,8 +36421,8 @@
       <c r="B160" t="s">
         <v>206</v>
       </c>
-      <c r="C160" t="s">
-        <v>701</v>
+      <c r="C160" t="str">
+        <v>ziong2</v>
       </c>
       <c r="D160" t="str">
         <v>z</v>
@@ -36005,6 +36438,9 @@
       <c r="A161" t="s">
         <v>29</v>
       </c>
+      <c r="C161" t="str">
+        <v/>
+      </c>
       <c r="D161" t="str">
         <v/>
       </c>
@@ -36022,8 +36458,8 @@
       <c r="B162" t="s">
         <v>208</v>
       </c>
-      <c r="C162" t="s">
-        <v>702</v>
+      <c r="C162" t="str">
+        <v>kik4</v>
       </c>
       <c r="D162" t="str">
         <v>k</v>
@@ -36042,8 +36478,8 @@
       <c r="B163" t="s">
         <v>210</v>
       </c>
-      <c r="C163" t="s">
-        <v>703</v>
+      <c r="C163" t="str">
+        <v>khong1</v>
       </c>
       <c r="D163" t="str">
         <v>kh</v>
@@ -36062,8 +36498,8 @@
       <c r="B164" t="s">
         <v>80</v>
       </c>
-      <c r="C164" t="s">
-        <v>629</v>
+      <c r="C164" t="str">
+        <v>bing5</v>
       </c>
       <c r="D164" t="str">
         <v>b</v>
@@ -36082,8 +36518,8 @@
       <c r="B165" t="s">
         <v>202</v>
       </c>
-      <c r="C165" t="s">
-        <v>978</v>
+      <c r="C165" t="str">
+        <v>he5</v>
       </c>
       <c r="D165" t="str">
         <v>h</v>
@@ -36102,8 +36538,8 @@
       <c r="B166" t="s">
         <v>212</v>
       </c>
-      <c r="C166" t="s">
-        <v>704</v>
+      <c r="C166" t="str">
+        <v>soo3</v>
       </c>
       <c r="D166" t="str">
         <v>s</v>
@@ -36122,8 +36558,8 @@
       <c r="B167" t="s">
         <v>214</v>
       </c>
-      <c r="C167" t="s">
-        <v>705</v>
+      <c r="C167" t="str">
+        <v>liu5</v>
       </c>
       <c r="D167" t="str">
         <v>l</v>
@@ -36142,8 +36578,8 @@
       <c r="B168" t="s">
         <v>121</v>
       </c>
-      <c r="C168" t="s">
-        <v>656</v>
+      <c r="C168" t="str">
+        <v>kong1</v>
       </c>
       <c r="D168" t="str">
         <v>k</v>
@@ -36159,6 +36595,9 @@
       <c r="A169" t="s">
         <v>54</v>
       </c>
+      <c r="C169" t="str">
+        <v/>
+      </c>
       <c r="D169" t="str">
         <v/>
       </c>
@@ -36176,8 +36615,8 @@
       <c r="B170" t="s">
         <v>216</v>
       </c>
-      <c r="C170" t="s">
-        <v>706</v>
+      <c r="C170" t="str">
+        <v>biau2</v>
       </c>
       <c r="D170" t="str">
         <v>b</v>
@@ -36196,8 +36635,8 @@
       <c r="B171" t="s">
         <v>216</v>
       </c>
-      <c r="C171" t="s">
-        <v>706</v>
+      <c r="C171" t="str">
+        <v>biau2</v>
       </c>
       <c r="D171" t="str">
         <v>b</v>
@@ -36216,8 +36655,8 @@
       <c r="B172" t="s">
         <v>202</v>
       </c>
-      <c r="C172" t="s">
-        <v>978</v>
+      <c r="C172" t="str">
+        <v>he5</v>
       </c>
       <c r="D172" t="str">
         <v>h</v>
@@ -36236,8 +36675,8 @@
       <c r="B173" t="s">
         <v>218</v>
       </c>
-      <c r="C173" t="s">
-        <v>979</v>
+      <c r="C173" t="str">
+        <v>u5</v>
       </c>
       <c r="D173" t="str">
         <v/>
@@ -36256,8 +36695,8 @@
       <c r="B174" t="s">
         <v>220</v>
       </c>
-      <c r="C174" t="s">
-        <v>708</v>
+      <c r="C174" t="str">
+        <v>huai5</v>
       </c>
       <c r="D174" t="str">
         <v>h</v>
@@ -36273,6 +36712,9 @@
       <c r="A175" t="s">
         <v>29</v>
       </c>
+      <c r="C175" t="str">
+        <v/>
+      </c>
       <c r="D175" t="str">
         <v/>
       </c>
@@ -36290,8 +36732,8 @@
       <c r="B176" s="51" t="s">
         <v>1808</v>
       </c>
-      <c r="C176" s="51" t="s">
-        <v>1809</v>
+      <c r="C176" s="51" t="str">
+        <v>bong7</v>
       </c>
       <c r="D176" t="str">
         <v>b</v>
@@ -36310,8 +36752,8 @@
       <c r="B177" t="s">
         <v>223</v>
       </c>
-      <c r="C177" t="s">
-        <v>710</v>
+      <c r="C177" t="str">
+        <v>bi2</v>
       </c>
       <c r="D177" t="str">
         <v>b</v>
@@ -36330,8 +36772,8 @@
       <c r="B178" t="s">
         <v>225</v>
       </c>
-      <c r="C178" t="s">
-        <v>711</v>
+      <c r="C178" t="str">
+        <v>jin5</v>
       </c>
       <c r="D178" t="str">
         <v>j</v>
@@ -36350,8 +36792,8 @@
       <c r="B179" t="s">
         <v>202</v>
       </c>
-      <c r="C179" t="s">
-        <v>978</v>
+      <c r="C179" t="str">
+        <v>he5</v>
       </c>
       <c r="D179" t="str">
         <v>h</v>
@@ -36370,8 +36812,8 @@
       <c r="B180" t="s">
         <v>125</v>
       </c>
-      <c r="C180" t="s">
-        <v>659</v>
+      <c r="C180" t="str">
+        <v>thian1</v>
       </c>
       <c r="D180" t="str">
         <v>th</v>
@@ -36390,8 +36832,8 @@
       <c r="B181" t="s">
         <v>129</v>
       </c>
-      <c r="C181" t="s">
-        <v>966</v>
+      <c r="C181" t="str">
+        <v>it4</v>
       </c>
       <c r="D181" t="str">
         <v/>
@@ -36410,8 +36852,8 @@
       <c r="B182" s="51" t="s">
         <v>1810</v>
       </c>
-      <c r="C182" s="51" t="s">
-        <v>1815</v>
+      <c r="C182" s="51" t="str">
+        <v>hong1</v>
       </c>
       <c r="D182" t="str">
         <v>h</v>
@@ -36427,6 +36869,9 @@
       <c r="A183" t="s">
         <v>54</v>
       </c>
+      <c r="C183" t="str">
+        <v/>
+      </c>
       <c r="D183" t="str">
         <v/>
       </c>
@@ -36440,6 +36885,9 @@
     <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>228</v>
+      </c>
+      <c r="C184" t="str">
+        <v/>
       </c>
       <c r="D184" t="str">
         <v/>
@@ -36458,7 +36906,9 @@
 </v>
       </c>
       <c r="B185" s="95"/>
-      <c r="C185" s="95"/>
+      <c r="C185" s="95" t="str">
+        <v/>
+      </c>
       <c r="D185" s="95" t="str">
         <v/>
       </c>
@@ -36484,8 +36934,8 @@
       <c r="B186" t="s">
         <v>43</v>
       </c>
-      <c r="C186" t="s">
-        <v>600</v>
+      <c r="C186" t="str">
+        <v>khik4</v>
       </c>
       <c r="D186" t="str">
         <v>kh</v>
@@ -36504,8 +36954,8 @@
       <c r="B187" t="s">
         <v>230</v>
       </c>
-      <c r="C187" t="s">
-        <v>981</v>
+      <c r="C187" t="str">
+        <v>iu2</v>
       </c>
       <c r="D187" t="str">
         <v/>
@@ -36524,8 +36974,8 @@
       <c r="B188" t="s">
         <v>232</v>
       </c>
-      <c r="C188" t="s">
-        <v>715</v>
+      <c r="C188" t="str">
+        <v>cui1</v>
       </c>
       <c r="D188" t="str">
         <v>c</v>
@@ -36544,8 +36994,8 @@
       <c r="B189" t="s">
         <v>234</v>
       </c>
-      <c r="C189" t="s">
-        <v>716</v>
+      <c r="C189" t="str">
+        <v>tong5</v>
       </c>
       <c r="D189" t="str">
         <v>t</v>
@@ -36564,8 +37014,8 @@
       <c r="B190" t="s">
         <v>236</v>
       </c>
-      <c r="C190" t="s">
-        <v>717</v>
+      <c r="C190" t="str">
+        <v>siau1</v>
       </c>
       <c r="D190" t="str">
         <v>s</v>
@@ -36584,8 +37034,8 @@
       <c r="B191" t="s">
         <v>238</v>
       </c>
-      <c r="C191" t="s">
-        <v>718</v>
+      <c r="C191" t="str">
+        <v>zia2</v>
       </c>
       <c r="D191" t="str">
         <v>z</v>
@@ -36601,6 +37051,9 @@
       <c r="A192" t="s">
         <v>29</v>
       </c>
+      <c r="C192" t="str">
+        <v/>
+      </c>
       <c r="D192" t="str">
         <v/>
       </c>
@@ -36618,8 +37071,8 @@
       <c r="B193" t="s">
         <v>240</v>
       </c>
-      <c r="C193" t="s">
-        <v>983</v>
+      <c r="C193" t="str">
+        <v>i2</v>
       </c>
       <c r="D193" t="str">
         <v/>
@@ -36638,8 +37091,8 @@
       <c r="B194" t="s">
         <v>84</v>
       </c>
-      <c r="C194" t="s">
-        <v>631</v>
+      <c r="C194" t="str">
+        <v>ko1</v>
       </c>
       <c r="D194" t="str">
         <v>k</v>
@@ -36658,8 +37111,8 @@
       <c r="B195" t="s">
         <v>150</v>
       </c>
-      <c r="C195" t="s">
-        <v>664</v>
+      <c r="C195" t="str">
+        <v>ji5</v>
       </c>
       <c r="D195" t="str">
         <v>j</v>
@@ -36678,8 +37131,8 @@
       <c r="B196" t="s">
         <v>242</v>
       </c>
-      <c r="C196" t="s">
-        <v>721</v>
+      <c r="C196" t="str">
+        <v>ho5</v>
       </c>
       <c r="D196" t="str">
         <v>h</v>
@@ -36698,8 +37151,8 @@
       <c r="B197" t="s">
         <v>26</v>
       </c>
-      <c r="C197" t="s">
-        <v>584</v>
+      <c r="C197" t="str">
+        <v>zi1</v>
       </c>
       <c r="D197" t="str">
         <v>z</v>
@@ -36715,6 +37168,9 @@
       <c r="A198" t="s">
         <v>29</v>
       </c>
+      <c r="C198" t="str">
+        <v/>
+      </c>
       <c r="D198" t="str">
         <v/>
       </c>
@@ -36732,8 +37188,8 @@
       <c r="B199" t="s">
         <v>161</v>
       </c>
-      <c r="C199" t="s">
-        <v>676</v>
+      <c r="C199" t="str">
+        <v>ki5</v>
       </c>
       <c r="D199" t="str">
         <v>k</v>
@@ -36752,8 +37208,8 @@
       <c r="B200" t="s">
         <v>244</v>
       </c>
-      <c r="C200" t="s">
-        <v>722</v>
+      <c r="C200" t="str">
+        <v>sing1</v>
       </c>
       <c r="D200" t="str">
         <v>s</v>
@@ -36772,8 +37228,8 @@
       <c r="B201" t="s">
         <v>246</v>
       </c>
-      <c r="C201" t="s">
-        <v>984</v>
+      <c r="C201" t="str">
+        <v>oo1</v>
       </c>
       <c r="D201" t="str">
         <v/>
@@ -36792,8 +37248,8 @@
       <c r="B202" t="s">
         <v>246</v>
       </c>
-      <c r="C202" t="s">
-        <v>984</v>
+      <c r="C202" t="str">
+        <v>oo1</v>
       </c>
       <c r="D202" t="str">
         <v/>
@@ -36812,8 +37268,8 @@
       <c r="B203" t="s">
         <v>145</v>
       </c>
-      <c r="C203" t="s">
-        <v>669</v>
+      <c r="C203" t="str">
+        <v>jian5</v>
       </c>
       <c r="D203" t="str">
         <v>j</v>
@@ -36829,6 +37285,9 @@
       <c r="A204" t="s">
         <v>29</v>
       </c>
+      <c r="C204" t="str">
+        <v/>
+      </c>
       <c r="D204" t="str">
         <v/>
       </c>
@@ -36846,8 +37305,8 @@
       <c r="B205" t="s">
         <v>135</v>
       </c>
-      <c r="C205" t="s">
-        <v>968</v>
+      <c r="C205" t="str">
+        <v>ju5</v>
       </c>
       <c r="D205" t="str">
         <v>j</v>
@@ -36866,8 +37325,8 @@
       <c r="B206" t="s">
         <v>248</v>
       </c>
-      <c r="C206" t="s">
-        <v>985</v>
+      <c r="C206" t="str">
+        <v>uan1</v>
       </c>
       <c r="D206" t="str">
         <v/>
@@ -36886,8 +37345,8 @@
       <c r="B207" t="s">
         <v>135</v>
       </c>
-      <c r="C207" t="s">
-        <v>968</v>
+      <c r="C207" t="str">
+        <v>ju5</v>
       </c>
       <c r="D207" t="str">
         <v>j</v>
@@ -36906,8 +37365,8 @@
       <c r="B208" t="s">
         <v>250</v>
       </c>
-      <c r="C208" t="s">
-        <v>725</v>
+      <c r="C208" t="str">
+        <v>boo7</v>
       </c>
       <c r="D208" t="str">
         <v>b</v>
@@ -36923,6 +37382,9 @@
       <c r="A209" t="s">
         <v>29</v>
       </c>
+      <c r="C209" t="str">
+        <v/>
+      </c>
       <c r="D209" t="str">
         <v/>
       </c>
@@ -36940,8 +37402,8 @@
       <c r="B210" t="s">
         <v>135</v>
       </c>
-      <c r="C210" t="s">
-        <v>968</v>
+      <c r="C210" t="str">
+        <v>ju5</v>
       </c>
       <c r="D210" t="str">
         <v>j</v>
@@ -36960,8 +37422,8 @@
       <c r="B211" t="s">
         <v>252</v>
       </c>
-      <c r="C211" t="s">
-        <v>726</v>
+      <c r="C211" t="str">
+        <v>khip4</v>
       </c>
       <c r="D211" t="str">
         <v>kh</v>
@@ -36980,8 +37442,8 @@
       <c r="B212" t="s">
         <v>135</v>
       </c>
-      <c r="C212" t="s">
-        <v>968</v>
+      <c r="C212" t="str">
+        <v>ju5</v>
       </c>
       <c r="D212" t="str">
         <v>j</v>
@@ -37000,8 +37462,8 @@
       <c r="B213" t="s">
         <v>212</v>
       </c>
-      <c r="C213" t="s">
-        <v>704</v>
+      <c r="C213" t="str">
+        <v>soo3</v>
       </c>
       <c r="D213" t="str">
         <v>s</v>
@@ -37017,6 +37479,9 @@
       <c r="A214" t="s">
         <v>29</v>
       </c>
+      <c r="C214" t="str">
+        <v/>
+      </c>
       <c r="D214" t="str">
         <v/>
       </c>
@@ -37034,8 +37499,8 @@
       <c r="B215" t="s">
         <v>218</v>
       </c>
-      <c r="C215" t="s">
-        <v>979</v>
+      <c r="C215" t="str">
+        <v>u5</v>
       </c>
       <c r="D215" t="str">
         <v/>
@@ -37054,8 +37519,8 @@
       <c r="B216" t="s">
         <v>256</v>
       </c>
-      <c r="C216" t="s">
-        <v>986</v>
+      <c r="C216" t="str">
+        <v>im1</v>
       </c>
       <c r="D216" t="str">
         <v/>
@@ -37074,8 +37539,8 @@
       <c r="B217" t="s">
         <v>258</v>
       </c>
-      <c r="C217" t="s">
-        <v>728</v>
+      <c r="C217" t="str">
+        <v>liau2</v>
       </c>
       <c r="D217" t="str">
         <v>l</v>
@@ -37094,8 +37559,8 @@
       <c r="B218" t="s">
         <v>258</v>
       </c>
-      <c r="C218" t="s">
-        <v>728</v>
+      <c r="C218" t="str">
+        <v>liau2</v>
       </c>
       <c r="D218" t="str">
         <v>l</v>
@@ -37111,6 +37576,9 @@
       <c r="A219" t="s">
         <v>29</v>
       </c>
+      <c r="C219" t="str">
+        <v/>
+      </c>
       <c r="D219" t="str">
         <v/>
       </c>
@@ -37128,8 +37596,8 @@
       <c r="B220" t="s">
         <v>68</v>
       </c>
-      <c r="C220" t="s">
-        <v>622</v>
+      <c r="C220" t="str">
+        <v>put4</v>
       </c>
       <c r="D220" t="str">
         <v>p</v>
@@ -37148,8 +37616,8 @@
       <c r="B221" t="s">
         <v>260</v>
       </c>
-      <c r="C221" t="s">
-        <v>729</v>
+      <c r="C221" t="str">
+        <v>zuat8</v>
       </c>
       <c r="D221" t="str">
         <v>z</v>
@@ -37168,8 +37636,8 @@
       <c r="B222" s="52" t="s">
         <v>1812</v>
       </c>
-      <c r="C222" s="51" t="s">
-        <v>1813</v>
+      <c r="C222" s="51" t="str">
+        <v>ju5</v>
       </c>
       <c r="D222" t="str">
         <v>j</v>
@@ -37188,8 +37656,8 @@
       <c r="B223" t="s">
         <v>262</v>
       </c>
-      <c r="C223" t="s">
-        <v>987</v>
+      <c r="C223" t="str">
+        <v>lu2</v>
       </c>
       <c r="D223" t="str">
         <v>l</v>
@@ -37205,6 +37673,9 @@
       <c r="A224" t="s">
         <v>54</v>
       </c>
+      <c r="C224" t="str">
+        <v/>
+      </c>
       <c r="D224" t="str">
         <v/>
       </c>
@@ -37222,8 +37693,8 @@
       <c r="B225" t="s">
         <v>264</v>
       </c>
-      <c r="C225" t="s">
-        <v>731</v>
+      <c r="C225" t="str">
+        <v>bu2</v>
       </c>
       <c r="D225" t="str">
         <v>b</v>
@@ -37242,8 +37713,8 @@
       <c r="B226" t="s">
         <v>266</v>
       </c>
-      <c r="C226" t="s">
-        <v>988</v>
+      <c r="C226" t="str">
+        <v>iu1</v>
       </c>
       <c r="D226" t="str">
         <v/>
@@ -37262,8 +37733,8 @@
       <c r="B227" t="s">
         <v>268</v>
       </c>
-      <c r="C227" t="s">
-        <v>733</v>
+      <c r="C227" t="str">
+        <v>hok4</v>
       </c>
       <c r="D227" t="str">
         <v>h</v>
@@ -37282,8 +37753,8 @@
       <c r="B228" t="s">
         <v>26</v>
       </c>
-      <c r="C228" t="s">
-        <v>584</v>
+      <c r="C228" t="str">
+        <v>zi1</v>
       </c>
       <c r="D228" t="str">
         <v>z</v>
@@ -37302,8 +37773,8 @@
       <c r="B229" t="s">
         <v>270</v>
       </c>
-      <c r="C229" t="s">
-        <v>734</v>
+      <c r="C229" t="str">
+        <v>ziam5</v>
       </c>
       <c r="D229" t="str">
         <v>z</v>
@@ -37322,8 +37793,8 @@
       <c r="B230" t="s">
         <v>272</v>
       </c>
-      <c r="C230" t="s">
-        <v>736</v>
+      <c r="C230" t="str">
+        <v>kau1</v>
       </c>
       <c r="D230" t="str">
         <v>k</v>
@@ -37339,6 +37810,9 @@
       <c r="A231" t="s">
         <v>29</v>
       </c>
+      <c r="C231" t="str">
+        <v/>
+      </c>
       <c r="D231" t="str">
         <v/>
       </c>
@@ -37356,8 +37830,8 @@
       <c r="B232" t="s">
         <v>252</v>
       </c>
-      <c r="C232" t="s">
-        <v>726</v>
+      <c r="C232" t="str">
+        <v>khip4</v>
       </c>
       <c r="D232" t="str">
         <v>kh</v>
@@ -37376,8 +37850,8 @@
       <c r="B233" t="s">
         <v>274</v>
       </c>
-      <c r="C233" t="s">
-        <v>737</v>
+      <c r="C233" t="str">
+        <v>koo1</v>
       </c>
       <c r="D233" t="str">
         <v>k</v>
@@ -37396,8 +37870,8 @@
       <c r="B234" t="s">
         <v>47</v>
       </c>
-      <c r="C234" t="s">
-        <v>604</v>
+      <c r="C234" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D234" t="str">
         <v>z</v>
@@ -37416,8 +37890,8 @@
       <c r="B235" t="s">
         <v>26</v>
       </c>
-      <c r="C235" t="s">
-        <v>584</v>
+      <c r="C235" t="str">
+        <v>zi1</v>
       </c>
       <c r="D235" t="str">
         <v>z</v>
@@ -37436,8 +37910,8 @@
       <c r="B236" t="s">
         <v>276</v>
       </c>
-      <c r="C236" t="s">
-        <v>738</v>
+      <c r="C236" t="str">
+        <v>li5</v>
       </c>
       <c r="D236" t="str">
         <v>l</v>
@@ -37456,8 +37930,8 @@
       <c r="B237" t="s">
         <v>278</v>
       </c>
-      <c r="C237" t="s">
-        <v>739</v>
+      <c r="C237" t="str">
+        <v>hu7</v>
       </c>
       <c r="D237" t="str">
         <v>h</v>
@@ -37473,6 +37947,9 @@
       <c r="A238" t="s">
         <v>54</v>
       </c>
+      <c r="C238" t="str">
+        <v/>
+      </c>
       <c r="D238" t="str">
         <v/>
       </c>
@@ -37490,8 +37967,8 @@
       <c r="B239" t="s">
         <v>18</v>
       </c>
-      <c r="C239" t="s">
-        <v>576</v>
+      <c r="C239" t="str">
+        <v>soo1</v>
       </c>
       <c r="D239" t="str">
         <v>s</v>
@@ -37510,8 +37987,8 @@
       <c r="B240" t="s">
         <v>163</v>
       </c>
-      <c r="C240" t="s">
-        <v>677</v>
+      <c r="C240" t="str">
+        <v>zi2</v>
       </c>
       <c r="D240" t="str">
         <v>z</v>
@@ -37530,8 +38007,8 @@
       <c r="B241" s="52" t="s">
         <v>1816</v>
       </c>
-      <c r="C241" s="51" t="s">
-        <v>1817</v>
+      <c r="C241" s="51" t="str">
+        <v>ciu2</v>
       </c>
       <c r="D241" t="str">
         <v>c</v>
@@ -37550,8 +38027,8 @@
       <c r="B242" t="s">
         <v>145</v>
       </c>
-      <c r="C242" t="s">
-        <v>669</v>
+      <c r="C242" t="str">
+        <v>jian5</v>
       </c>
       <c r="D242" t="str">
         <v>j</v>
@@ -37567,6 +38044,9 @@
       <c r="A243" t="s">
         <v>29</v>
       </c>
+      <c r="C243" t="str">
+        <v/>
+      </c>
       <c r="D243" t="str">
         <v/>
       </c>
@@ -37584,8 +38064,8 @@
       <c r="B244" t="s">
         <v>282</v>
       </c>
-      <c r="C244" t="s">
-        <v>741</v>
+      <c r="C244" t="str">
+        <v>zing3</v>
       </c>
       <c r="D244" t="str">
         <v>z</v>
@@ -37604,8 +38084,8 @@
       <c r="B245" t="s">
         <v>284</v>
       </c>
-      <c r="C245" t="s">
-        <v>742</v>
+      <c r="C245" t="str">
+        <v>kim1</v>
       </c>
       <c r="D245" t="str">
         <v>k</v>
@@ -37624,8 +38104,8 @@
       <c r="B246" t="s">
         <v>286</v>
       </c>
-      <c r="C246" t="s">
-        <v>743</v>
+      <c r="C246" t="str">
+        <v>gui5</v>
       </c>
       <c r="D246" t="str">
         <v>g</v>
@@ -37644,8 +38124,8 @@
       <c r="B247" t="s">
         <v>288</v>
       </c>
-      <c r="C247" t="s">
-        <v>744</v>
+      <c r="C247" t="str">
+        <v>zo2</v>
       </c>
       <c r="D247" t="str">
         <v>z</v>
@@ -37661,6 +38141,9 @@
       <c r="A248" t="s">
         <v>29</v>
       </c>
+      <c r="C248" t="str">
+        <v/>
+      </c>
       <c r="D248" t="str">
         <v/>
       </c>
@@ -37678,8 +38161,8 @@
       <c r="B249" t="s">
         <v>150</v>
       </c>
-      <c r="C249" t="s">
-        <v>664</v>
+      <c r="C249" t="str">
+        <v>ji5</v>
       </c>
       <c r="D249" t="str">
         <v>j</v>
@@ -37698,8 +38181,8 @@
       <c r="B250" t="s">
         <v>290</v>
       </c>
-      <c r="C250" t="s">
-        <v>745</v>
+      <c r="C250" t="str">
+        <v>bun7</v>
       </c>
       <c r="D250" t="str">
         <v>b</v>
@@ -37718,8 +38201,8 @@
       <c r="B251" t="s">
         <v>43</v>
       </c>
-      <c r="C251" t="s">
-        <v>600</v>
+      <c r="C251" t="str">
+        <v>khik4</v>
       </c>
       <c r="D251" t="str">
         <v>kh</v>
@@ -37738,8 +38221,8 @@
       <c r="B252" t="s">
         <v>194</v>
       </c>
-      <c r="C252" t="s">
-        <v>976</v>
+      <c r="C252" t="str">
+        <v>uat8</v>
       </c>
       <c r="D252" t="str">
         <v/>
@@ -37755,6 +38238,9 @@
       <c r="A253" t="s">
         <v>16</v>
       </c>
+      <c r="C253" t="str">
+        <v/>
+      </c>
       <c r="D253" t="str">
         <v/>
       </c>
@@ -37769,6 +38255,9 @@
       <c r="A254" t="s">
         <v>196</v>
       </c>
+      <c r="C254" t="str">
+        <v/>
+      </c>
       <c r="D254" t="str">
         <v/>
       </c>
@@ -37786,8 +38275,8 @@
       <c r="B255" t="s">
         <v>242</v>
       </c>
-      <c r="C255" t="s">
-        <v>721</v>
+      <c r="C255" t="str">
+        <v>ho5</v>
       </c>
       <c r="D255" t="str">
         <v>h</v>
@@ -37806,8 +38295,8 @@
       <c r="B256" t="s">
         <v>293</v>
       </c>
-      <c r="C256" t="s">
-        <v>989</v>
+      <c r="C256" t="str">
+        <v>ui7</v>
       </c>
       <c r="D256" t="str">
         <v/>
@@ -37826,8 +38315,8 @@
       <c r="B257" t="s">
         <v>161</v>
       </c>
-      <c r="C257" t="s">
-        <v>676</v>
+      <c r="C257" t="str">
+        <v>ki5</v>
       </c>
       <c r="D257" t="str">
         <v>k</v>
@@ -37846,8 +38335,8 @@
       <c r="B258" t="s">
         <v>145</v>
       </c>
-      <c r="C258" t="s">
-        <v>669</v>
+      <c r="C258" t="str">
+        <v>jian5</v>
       </c>
       <c r="D258" t="str">
         <v>j</v>
@@ -37866,8 +38355,8 @@
       <c r="B259" t="s">
         <v>295</v>
       </c>
-      <c r="C259" t="s">
-        <v>990</v>
+      <c r="C259" t="str">
+        <v>ia2</v>
       </c>
       <c r="D259" t="str">
         <v/>
@@ -37883,6 +38372,9 @@
       <c r="A260" t="s">
         <v>296</v>
       </c>
+      <c r="C260" t="str">
+        <v/>
+      </c>
       <c r="D260" t="str">
         <v/>
       </c>
@@ -37897,6 +38389,9 @@
       <c r="A261" t="s">
         <v>228</v>
       </c>
+      <c r="C261" t="str">
+        <v/>
+      </c>
       <c r="D261" t="str">
         <v/>
       </c>
@@ -37914,8 +38409,8 @@
       <c r="B262" t="s">
         <v>43</v>
       </c>
-      <c r="C262" t="s">
-        <v>600</v>
+      <c r="C262" t="str">
+        <v>khik4</v>
       </c>
       <c r="D262" t="str">
         <v>kh</v>
@@ -37934,8 +38429,8 @@
       <c r="B263" t="s">
         <v>194</v>
       </c>
-      <c r="C263" t="s">
-        <v>976</v>
+      <c r="C263" t="str">
+        <v>uat8</v>
       </c>
       <c r="D263" t="str">
         <v/>
@@ -37951,6 +38446,9 @@
       <c r="A264" t="s">
         <v>16</v>
       </c>
+      <c r="C264" t="str">
+        <v/>
+      </c>
       <c r="D264" t="str">
         <v/>
       </c>
@@ -37965,6 +38463,9 @@
       <c r="A265" t="s">
         <v>196</v>
       </c>
+      <c r="C265" t="str">
+        <v/>
+      </c>
       <c r="D265" t="str">
         <v/>
       </c>
@@ -37979,6 +38480,9 @@
       <c r="A266" t="s">
         <v>297</v>
       </c>
+      <c r="C266" t="str">
+        <v/>
+      </c>
       <c r="D266" t="str">
         <v/>
       </c>
@@ -37996,8 +38500,8 @@
       <c r="B267" t="s">
         <v>33</v>
       </c>
-      <c r="C267" t="s">
-        <v>590</v>
+      <c r="C267" t="str">
+        <v>guat8</v>
       </c>
       <c r="D267" t="str">
         <v>g</v>
@@ -38016,8 +38520,8 @@
       <c r="B268" t="s">
         <v>80</v>
       </c>
-      <c r="C268" t="s">
-        <v>629</v>
+      <c r="C268" t="str">
+        <v>bing5</v>
       </c>
       <c r="D268" t="str">
         <v>b</v>
@@ -38036,8 +38540,8 @@
       <c r="B269" t="s">
         <v>244</v>
       </c>
-      <c r="C269" t="s">
-        <v>722</v>
+      <c r="C269" t="str">
+        <v>sing1</v>
       </c>
       <c r="D269" t="str">
         <v>s</v>
@@ -38056,8 +38560,8 @@
       <c r="B270" t="s">
         <v>300</v>
       </c>
-      <c r="C270" t="s">
-        <v>749</v>
+      <c r="C270" t="str">
+        <v>hi1</v>
       </c>
       <c r="D270" t="str">
         <v>h</v>
@@ -38073,6 +38577,9 @@
       <c r="A271" t="s">
         <v>29</v>
       </c>
+      <c r="C271" t="str">
+        <v/>
+      </c>
       <c r="D271" t="str">
         <v/>
       </c>
@@ -38090,8 +38597,8 @@
       <c r="B272" t="s">
         <v>246</v>
       </c>
-      <c r="C272" t="s">
-        <v>984</v>
+      <c r="C272" t="str">
+        <v>oo1</v>
       </c>
       <c r="D272" t="str">
         <v/>
@@ -38110,8 +38617,8 @@
       <c r="B273" t="s">
         <v>303</v>
       </c>
-      <c r="C273" t="s">
-        <v>750</v>
+      <c r="C273" t="str">
+        <v>ciok4</v>
       </c>
       <c r="D273" t="str">
         <v>c</v>
@@ -38130,8 +38637,8 @@
       <c r="B274" t="s">
         <v>305</v>
       </c>
-      <c r="C274" t="s">
-        <v>751</v>
+      <c r="C274" t="str">
+        <v>lam5</v>
       </c>
       <c r="D274" t="str">
         <v>l</v>
@@ -38150,8 +38657,8 @@
       <c r="B275" t="s">
         <v>307</v>
       </c>
-      <c r="C275" t="s">
-        <v>753</v>
+      <c r="C275" t="str">
+        <v>hui1</v>
       </c>
       <c r="D275" t="str">
         <v>h</v>
@@ -38167,6 +38674,9 @@
       <c r="A276" t="s">
         <v>308</v>
       </c>
+      <c r="C276" t="str">
+        <v/>
+      </c>
       <c r="D276" t="str">
         <v/>
       </c>
@@ -38181,6 +38691,9 @@
       <c r="A277" t="s">
         <v>29</v>
       </c>
+      <c r="C277" t="str">
+        <v/>
+      </c>
       <c r="D277" t="str">
         <v/>
       </c>
@@ -38198,8 +38711,8 @@
       <c r="B278" t="s">
         <v>310</v>
       </c>
-      <c r="C278" t="s">
-        <v>754</v>
+      <c r="C278" t="str">
+        <v>cu2</v>
       </c>
       <c r="D278" t="str">
         <v>c</v>
@@ -38218,8 +38731,8 @@
       <c r="B279" t="s">
         <v>307</v>
       </c>
-      <c r="C279" t="s">
-        <v>753</v>
+      <c r="C279" t="str">
+        <v>hui1</v>
       </c>
       <c r="D279" t="str">
         <v>h</v>
@@ -38238,8 +38751,8 @@
       <c r="B280" t="s">
         <v>313</v>
       </c>
-      <c r="C280" t="s">
-        <v>755</v>
+      <c r="C280" t="str">
+        <v>zo5</v>
       </c>
       <c r="D280" t="str">
         <v>z</v>
@@ -38258,8 +38771,8 @@
       <c r="B281" t="s">
         <v>315</v>
       </c>
-      <c r="C281" t="s">
-        <v>756</v>
+      <c r="C281" t="str">
+        <v>bing7</v>
       </c>
       <c r="D281" t="str">
         <v>b</v>
@@ -38278,8 +38791,8 @@
       <c r="B282" t="s">
         <v>317</v>
       </c>
-      <c r="C282" t="s">
-        <v>757</v>
+      <c r="C282" t="str">
+        <v>tik4</v>
       </c>
       <c r="D282" t="str">
         <v>t</v>
@@ -38298,8 +38811,8 @@
       <c r="B283" t="s">
         <v>26</v>
       </c>
-      <c r="C283" t="s">
-        <v>584</v>
+      <c r="C283" t="str">
+        <v>zi1</v>
       </c>
       <c r="D283" t="str">
         <v>z</v>
@@ -38318,8 +38831,8 @@
       <c r="B284" t="s">
         <v>82</v>
       </c>
-      <c r="C284" t="s">
-        <v>630</v>
+      <c r="C284" t="str">
+        <v>si1</v>
       </c>
       <c r="D284" t="str">
         <v>s</v>
@@ -38338,8 +38851,8 @@
       <c r="B285" t="s">
         <v>149</v>
       </c>
-      <c r="C285" t="s">
-        <v>671</v>
+      <c r="C285" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D285" t="str">
         <v>h</v>
@@ -38355,6 +38868,9 @@
       <c r="A286" t="s">
         <v>296</v>
       </c>
+      <c r="C286" t="str">
+        <v/>
+      </c>
       <c r="D286" t="str">
         <v/>
       </c>
@@ -38372,8 +38888,8 @@
       <c r="B287" t="s">
         <v>319</v>
       </c>
-      <c r="C287" t="s">
-        <v>758</v>
+      <c r="C287" t="str">
+        <v>se1</v>
       </c>
       <c r="D287" t="str">
         <v>s</v>
@@ -38392,8 +38908,8 @@
       <c r="B288" s="51" t="s">
         <v>1808</v>
       </c>
-      <c r="C288" s="51" t="s">
-        <v>1809</v>
+      <c r="C288" s="51" t="str">
+        <v>bong7</v>
       </c>
       <c r="D288" t="str">
         <v>b</v>
@@ -38412,8 +38928,8 @@
       <c r="B289" t="s">
         <v>53</v>
       </c>
-      <c r="C289" t="s">
-        <v>951</v>
+      <c r="C289" t="str">
+        <v>ha2</v>
       </c>
       <c r="D289" t="str">
         <v>h</v>
@@ -38432,8 +38948,8 @@
       <c r="B290" t="s">
         <v>322</v>
       </c>
-      <c r="C290" t="s">
-        <v>760</v>
+      <c r="C290" t="str">
+        <v>khoo2</v>
       </c>
       <c r="D290" t="str">
         <v>kh</v>
@@ -38449,6 +38965,9 @@
       <c r="A291" t="s">
         <v>29</v>
       </c>
+      <c r="C291" t="str">
+        <v/>
+      </c>
       <c r="D291" t="str">
         <v/>
       </c>
@@ -38466,8 +38985,8 @@
       <c r="B292" t="s">
         <v>98</v>
       </c>
-      <c r="C292" t="s">
-        <v>640</v>
+      <c r="C292" t="str">
+        <v>tong1</v>
       </c>
       <c r="D292" t="str">
         <v>t</v>
@@ -38486,8 +39005,8 @@
       <c r="B293" s="51" t="s">
         <v>1808</v>
       </c>
-      <c r="C293" s="51" t="s">
-        <v>1809</v>
+      <c r="C293" s="51" t="str">
+        <v>bong7</v>
       </c>
       <c r="D293" t="str">
         <v>b</v>
@@ -38506,8 +39025,8 @@
       <c r="B294" t="s">
         <v>264</v>
       </c>
-      <c r="C294" t="s">
-        <v>731</v>
+      <c r="C294" t="str">
+        <v>bu2</v>
       </c>
       <c r="D294" t="str">
         <v>b</v>
@@ -38526,8 +39045,8 @@
       <c r="B295" t="s">
         <v>325</v>
       </c>
-      <c r="C295" t="s">
-        <v>761</v>
+      <c r="C295" t="str">
+        <v>ciong1</v>
       </c>
       <c r="D295" t="str">
         <v>c</v>
@@ -38543,6 +39062,9 @@
       <c r="A296" t="s">
         <v>29</v>
       </c>
+      <c r="C296" t="str">
+        <v/>
+      </c>
       <c r="D296" t="str">
         <v/>
       </c>
@@ -38560,8 +39082,8 @@
       <c r="B297" t="s">
         <v>100</v>
       </c>
-      <c r="C297" t="s">
-        <v>641</v>
+      <c r="C297" t="str">
+        <v>san1</v>
       </c>
       <c r="D297" t="str">
         <v>s</v>
@@ -38580,8 +39102,8 @@
       <c r="B298" t="s">
         <v>327</v>
       </c>
-      <c r="C298" t="s">
-        <v>762</v>
+      <c r="C298" t="str">
+        <v>cuan1</v>
       </c>
       <c r="D298" t="str">
         <v>c</v>
@@ -38600,8 +39122,8 @@
       <c r="B299" t="s">
         <v>329</v>
       </c>
-      <c r="C299" t="s">
-        <v>763</v>
+      <c r="C299" t="str">
+        <v>siong1</v>
       </c>
       <c r="D299" t="str">
         <v>s</v>
@@ -38620,8 +39142,8 @@
       <c r="B300" t="s">
         <v>331</v>
       </c>
-      <c r="C300" t="s">
-        <v>764</v>
+      <c r="C300" t="str">
+        <v>biu5</v>
       </c>
       <c r="D300" t="str">
         <v>b</v>
@@ -38637,6 +39159,9 @@
       <c r="A301" t="s">
         <v>29</v>
       </c>
+      <c r="C301" t="str">
+        <v/>
+      </c>
       <c r="D301" t="str">
         <v/>
       </c>
@@ -38654,8 +39179,8 @@
       <c r="B302" t="s">
         <v>333</v>
       </c>
-      <c r="C302" t="s">
-        <v>992</v>
+      <c r="C302" t="str">
+        <v>ut4</v>
       </c>
       <c r="D302" t="str">
         <v/>
@@ -38674,8 +39199,8 @@
       <c r="B303" t="s">
         <v>149</v>
       </c>
-      <c r="C303" t="s">
-        <v>671</v>
+      <c r="C303" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D303" t="str">
         <v>h</v>
@@ -38694,8 +39219,8 @@
       <c r="B304" t="s">
         <v>335</v>
       </c>
-      <c r="C304" t="s">
-        <v>766</v>
+      <c r="C304" t="str">
+        <v>cong1</v>
       </c>
       <c r="D304" t="str">
         <v>c</v>
@@ -38714,8 +39239,8 @@
       <c r="B305" t="s">
         <v>335</v>
       </c>
-      <c r="C305" t="s">
-        <v>766</v>
+      <c r="C305" t="str">
+        <v>cong1</v>
       </c>
       <c r="D305" t="str">
         <v>c</v>
@@ -38731,6 +39256,9 @@
       <c r="A306" t="s">
         <v>29</v>
       </c>
+      <c r="C306" t="str">
+        <v/>
+      </c>
       <c r="D306" t="str">
         <v/>
       </c>
@@ -38748,8 +39276,8 @@
       <c r="B307" t="s">
         <v>310</v>
       </c>
-      <c r="C307" t="s">
-        <v>754</v>
+      <c r="C307" t="str">
+        <v>cu2</v>
       </c>
       <c r="D307" t="str">
         <v>c</v>
@@ -38768,8 +39296,8 @@
       <c r="B308" t="s">
         <v>307</v>
       </c>
-      <c r="C308" t="s">
-        <v>753</v>
+      <c r="C308" t="str">
+        <v>hui1</v>
       </c>
       <c r="D308" t="str">
         <v>h</v>
@@ -38788,8 +39316,8 @@
       <c r="B309" t="s">
         <v>315</v>
       </c>
-      <c r="C309" t="s">
-        <v>756</v>
+      <c r="C309" t="str">
+        <v>bing7</v>
       </c>
       <c r="D309" t="str">
         <v>b</v>
@@ -38808,8 +39336,8 @@
       <c r="B310" t="s">
         <v>317</v>
       </c>
-      <c r="C310" t="s">
-        <v>757</v>
+      <c r="C310" t="str">
+        <v>tik4</v>
       </c>
       <c r="D310" t="str">
         <v>t</v>
@@ -38828,8 +39356,8 @@
       <c r="B311" t="s">
         <v>26</v>
       </c>
-      <c r="C311" t="s">
-        <v>584</v>
+      <c r="C311" t="str">
+        <v>zi1</v>
       </c>
       <c r="D311" t="str">
         <v>z</v>
@@ -38848,8 +39376,8 @@
       <c r="B312" t="s">
         <v>337</v>
       </c>
-      <c r="C312" t="s">
-        <v>767</v>
+      <c r="C312" t="str">
+        <v>khun3</v>
       </c>
       <c r="D312" t="str">
         <v>kh</v>
@@ -38868,8 +39396,8 @@
       <c r="B313" t="s">
         <v>51</v>
       </c>
-      <c r="C313" t="s">
-        <v>950</v>
+      <c r="C313" t="str">
+        <v>u1</v>
       </c>
       <c r="D313" t="str">
         <v/>
@@ -38888,8 +39416,8 @@
       <c r="B314" t="s">
         <v>47</v>
       </c>
-      <c r="C314" t="s">
-        <v>604</v>
+      <c r="C314" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D314" t="str">
         <v>z</v>
@@ -38908,8 +39436,8 @@
       <c r="B315" t="s">
         <v>340</v>
       </c>
-      <c r="C315" t="s">
-        <v>768</v>
+      <c r="C315" t="str">
+        <v>long5</v>
       </c>
       <c r="D315" t="str">
         <v>l</v>
@@ -38928,8 +39456,8 @@
       <c r="B316" t="s">
         <v>238</v>
       </c>
-      <c r="C316" t="s">
-        <v>718</v>
+      <c r="C316" t="str">
+        <v>zia2</v>
       </c>
       <c r="D316" t="str">
         <v>z</v>
@@ -38948,8 +39476,8 @@
       <c r="B317" t="s">
         <v>149</v>
       </c>
-      <c r="C317" t="s">
-        <v>671</v>
+      <c r="C317" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D317" t="str">
         <v>h</v>
@@ -38965,6 +39493,9 @@
       <c r="A318" t="s">
         <v>296</v>
       </c>
+      <c r="C318" t="str">
+        <v/>
+      </c>
       <c r="D318" t="str">
         <v/>
       </c>
@@ -38982,8 +39513,8 @@
       <c r="B319" s="51" t="s">
         <v>1818</v>
       </c>
-      <c r="C319" s="51" t="s">
-        <v>1815</v>
+      <c r="C319" s="51" t="str">
+        <v>hong5</v>
       </c>
       <c r="D319" t="str">
         <v>h</v>
@@ -39002,8 +39533,8 @@
       <c r="B320" t="s">
         <v>161</v>
       </c>
-      <c r="C320" t="s">
-        <v>676</v>
+      <c r="C320" t="str">
+        <v>ki5</v>
       </c>
       <c r="D320" t="str">
         <v>k</v>
@@ -39022,8 +39553,8 @@
       <c r="B321" t="s">
         <v>342</v>
       </c>
-      <c r="C321" t="s">
-        <v>769</v>
+      <c r="C321" t="str">
+        <v>pho3</v>
       </c>
       <c r="D321" t="str">
         <v>ph</v>
@@ -39042,8 +39573,8 @@
       <c r="B322" t="s">
         <v>344</v>
       </c>
-      <c r="C322" t="s">
-        <v>770</v>
+      <c r="C322" t="str">
+        <v>king1</v>
       </c>
       <c r="D322" t="str">
         <v>k</v>
@@ -39062,8 +39593,8 @@
       <c r="B323" t="s">
         <v>47</v>
       </c>
-      <c r="C323" t="s">
-        <v>604</v>
+      <c r="C323" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D323" t="str">
         <v>z</v>
@@ -39079,6 +39610,9 @@
       <c r="A324" t="s">
         <v>29</v>
       </c>
+      <c r="C324" t="str">
+        <v/>
+      </c>
       <c r="D324" t="str">
         <v/>
       </c>
@@ -39096,8 +39630,8 @@
       <c r="B325" t="s">
         <v>53</v>
       </c>
-      <c r="C325" t="s">
-        <v>951</v>
+      <c r="C325" t="str">
+        <v>ha2</v>
       </c>
       <c r="D325" t="str">
         <v>h</v>
@@ -39116,8 +39650,8 @@
       <c r="B326" t="s">
         <v>119</v>
       </c>
-      <c r="C326" t="s">
-        <v>654</v>
+      <c r="C326" t="str">
+        <v>kang1</v>
       </c>
       <c r="D326" t="str">
         <v>k</v>
@@ -39136,8 +39670,8 @@
       <c r="B327" t="s">
         <v>137</v>
       </c>
-      <c r="C327" t="s">
-        <v>665</v>
+      <c r="C327" t="str">
+        <v>ling5</v>
       </c>
       <c r="D327" t="str">
         <v>l</v>
@@ -39153,6 +39687,9 @@
       <c r="A328" t="s">
         <v>29</v>
       </c>
+      <c r="C328" t="str">
+        <v/>
+      </c>
       <c r="D328" t="str">
         <v/>
       </c>
@@ -39170,8 +39707,8 @@
       <c r="B329" t="s">
         <v>348</v>
       </c>
-      <c r="C329" t="s">
-        <v>771</v>
+      <c r="C329" t="str">
+        <v>sun7</v>
       </c>
       <c r="D329" t="str">
         <v>s</v>
@@ -39190,8 +39727,8 @@
       <c r="B330" t="s">
         <v>214</v>
       </c>
-      <c r="C330" t="s">
-        <v>705</v>
+      <c r="C330" t="str">
+        <v>liu5</v>
       </c>
       <c r="D330" t="str">
         <v>l</v>
@@ -39210,8 +39747,8 @@
       <c r="B331" t="s">
         <v>150</v>
       </c>
-      <c r="C331" t="s">
-        <v>664</v>
+      <c r="C331" t="str">
+        <v>ji5</v>
       </c>
       <c r="D331" t="str">
         <v>j</v>
@@ -39230,8 +39767,8 @@
       <c r="B332" t="s">
         <v>98</v>
       </c>
-      <c r="C332" t="s">
-        <v>640</v>
+      <c r="C332" t="str">
+        <v>tong1</v>
       </c>
       <c r="D332" t="str">
         <v>t</v>
@@ -39250,8 +39787,8 @@
       <c r="B333" t="s">
         <v>295</v>
       </c>
-      <c r="C333" t="s">
-        <v>990</v>
+      <c r="C333" t="str">
+        <v>ia2</v>
       </c>
       <c r="D333" t="str">
         <v/>
@@ -39267,6 +39804,9 @@
       <c r="A334" t="s">
         <v>29</v>
       </c>
+      <c r="C334" t="str">
+        <v/>
+      </c>
       <c r="D334" t="str">
         <v/>
       </c>
@@ -39284,8 +39824,8 @@
       <c r="B335" t="s">
         <v>350</v>
       </c>
-      <c r="C335" t="s">
-        <v>772</v>
+      <c r="C335" t="str">
+        <v>tiok8</v>
       </c>
       <c r="D335" t="str">
         <v>t</v>
@@ -39304,8 +39844,8 @@
       <c r="B336" t="s">
         <v>352</v>
       </c>
-      <c r="C336" t="s">
-        <v>773</v>
+      <c r="C336" t="str">
+        <v>loo5</v>
       </c>
       <c r="D336" t="str">
         <v>l</v>
@@ -39324,8 +39864,8 @@
       <c r="B337" t="s">
         <v>354</v>
       </c>
-      <c r="C337" t="s">
-        <v>774</v>
+      <c r="C337" t="str">
+        <v>cian1</v>
       </c>
       <c r="D337" t="str">
         <v>c</v>
@@ -39344,8 +39884,8 @@
       <c r="B338" t="s">
         <v>356</v>
       </c>
-      <c r="C338" t="s">
-        <v>730</v>
+      <c r="C338" t="str">
+        <v>li2</v>
       </c>
       <c r="D338" t="str">
         <v>l</v>
@@ -39361,6 +39901,9 @@
       <c r="A339" t="s">
         <v>29</v>
       </c>
+      <c r="C339" t="str">
+        <v/>
+      </c>
       <c r="D339" t="str">
         <v/>
       </c>
@@ -39378,8 +39921,8 @@
       <c r="B340" t="s">
         <v>358</v>
       </c>
-      <c r="C340" t="s">
-        <v>775</v>
+      <c r="C340" t="str">
+        <v>zing1</v>
       </c>
       <c r="D340" t="str">
         <v>z</v>
@@ -39398,8 +39941,8 @@
       <c r="B341" t="s">
         <v>161</v>
       </c>
-      <c r="C341" t="s">
-        <v>676</v>
+      <c r="C341" t="str">
+        <v>ki5</v>
       </c>
       <c r="D341" t="str">
         <v>k</v>
@@ -39418,8 +39961,8 @@
       <c r="B342" t="s">
         <v>361</v>
       </c>
-      <c r="C342" t="s">
-        <v>993</v>
+      <c r="C342" t="str">
+        <v>pe3</v>
       </c>
       <c r="D342" t="str">
         <v>p</v>
@@ -39438,8 +39981,8 @@
       <c r="B343" t="s">
         <v>210</v>
       </c>
-      <c r="C343" t="s">
-        <v>703</v>
+      <c r="C343" t="str">
+        <v>khong1</v>
       </c>
       <c r="D343" t="str">
         <v>kh</v>
@@ -39455,6 +39998,9 @@
       <c r="A344" t="s">
         <v>29</v>
       </c>
+      <c r="C344" t="str">
+        <v/>
+      </c>
       <c r="D344" t="str">
         <v/>
       </c>
@@ -39472,8 +40018,8 @@
       <c r="B345" t="s">
         <v>363</v>
       </c>
-      <c r="C345" t="s">
-        <v>777</v>
+      <c r="C345" t="str">
+        <v>su1</v>
       </c>
       <c r="D345" t="str">
         <v>s</v>
@@ -39492,8 +40038,8 @@
       <c r="B346" t="s">
         <v>74</v>
       </c>
-      <c r="C346" t="s">
-        <v>625</v>
+      <c r="C346" t="str">
+        <v>ziu2</v>
       </c>
       <c r="D346" t="str">
         <v>z</v>
@@ -39512,8 +40058,8 @@
       <c r="B347" t="s">
         <v>365</v>
       </c>
-      <c r="C347" t="s">
-        <v>778</v>
+      <c r="C347" t="str">
+        <v>lim5</v>
       </c>
       <c r="D347" t="str">
         <v>l</v>
@@ -39532,8 +40078,8 @@
       <c r="B348" t="s">
         <v>119</v>
       </c>
-      <c r="C348" t="s">
-        <v>654</v>
+      <c r="C348" t="str">
+        <v>kang1</v>
       </c>
       <c r="D348" t="str">
         <v>k</v>
@@ -39549,6 +40095,9 @@
       <c r="A349" t="s">
         <v>29</v>
       </c>
+      <c r="C349" t="str">
+        <v/>
+      </c>
       <c r="D349" t="str">
         <v/>
       </c>
@@ -39566,8 +40115,8 @@
       <c r="B350" t="s">
         <v>366</v>
       </c>
-      <c r="C350" t="s">
-        <v>779</v>
+      <c r="C350" t="str">
+        <v>hing5</v>
       </c>
       <c r="D350" t="str">
         <v>h</v>
@@ -39586,8 +40135,8 @@
       <c r="B351" t="s">
         <v>368</v>
       </c>
-      <c r="C351" t="s">
-        <v>780</v>
+      <c r="C351" t="str">
+        <v>sok4</v>
       </c>
       <c r="D351" t="str">
         <v>s</v>
@@ -39606,8 +40155,8 @@
       <c r="B352" t="s">
         <v>10</v>
       </c>
-      <c r="C352" t="s">
-        <v>568</v>
+      <c r="C352" t="str">
+        <v>hu3</v>
       </c>
       <c r="D352" t="str">
         <v>h</v>
@@ -39626,8 +40175,8 @@
       <c r="B353" t="s">
         <v>82</v>
       </c>
-      <c r="C353" t="s">
-        <v>630</v>
+      <c r="C353" t="str">
+        <v>si1</v>
       </c>
       <c r="D353" t="str">
         <v>s</v>
@@ -39643,6 +40192,9 @@
       <c r="A354" t="s">
         <v>29</v>
       </c>
+      <c r="C354" t="str">
+        <v/>
+      </c>
       <c r="D354" t="str">
         <v/>
       </c>
@@ -39660,8 +40212,8 @@
       <c r="B355" t="s">
         <v>370</v>
       </c>
-      <c r="C355" t="s">
-        <v>781</v>
+      <c r="C355" t="str">
+        <v>koo3</v>
       </c>
       <c r="D355" t="str">
         <v>k</v>
@@ -39680,8 +40232,8 @@
       <c r="B356" t="s">
         <v>129</v>
       </c>
-      <c r="C356" t="s">
-        <v>966</v>
+      <c r="C356" t="str">
+        <v>it4</v>
       </c>
       <c r="D356" t="str">
         <v/>
@@ -39700,8 +40252,8 @@
       <c r="B357" t="s">
         <v>169</v>
       </c>
-      <c r="C357" t="s">
-        <v>972</v>
+      <c r="C357" t="str">
+        <v>se3</v>
       </c>
       <c r="D357" t="str">
         <v>s</v>
@@ -39720,8 +40272,8 @@
       <c r="B358" t="s">
         <v>26</v>
       </c>
-      <c r="C358" t="s">
-        <v>584</v>
+      <c r="C358" t="str">
+        <v>zi1</v>
       </c>
       <c r="D358" t="str">
         <v>z</v>
@@ -39740,8 +40292,8 @@
       <c r="B359" t="s">
         <v>227</v>
       </c>
-      <c r="C359" t="s">
-        <v>713</v>
+      <c r="C359" t="str">
+        <v>hiong5</v>
       </c>
       <c r="D359" t="str">
         <v>h</v>
@@ -39760,8 +40312,8 @@
       <c r="B360" t="s">
         <v>295</v>
       </c>
-      <c r="C360" t="s">
-        <v>990</v>
+      <c r="C360" t="str">
+        <v>ia2</v>
       </c>
       <c r="D360" t="str">
         <v/>
@@ -39777,6 +40329,9 @@
       <c r="A361" t="s">
         <v>29</v>
       </c>
+      <c r="C361" t="str">
+        <v/>
+      </c>
       <c r="D361" t="str">
         <v/>
       </c>
@@ -39794,8 +40349,8 @@
       <c r="B362" t="s">
         <v>150</v>
       </c>
-      <c r="C362" t="s">
-        <v>664</v>
+      <c r="C362" t="str">
+        <v>ji5</v>
       </c>
       <c r="D362" t="str">
         <v>j</v>
@@ -39814,8 +40369,8 @@
       <c r="B363" t="s">
         <v>284</v>
       </c>
-      <c r="C363" t="s">
-        <v>742</v>
+      <c r="C363" t="str">
+        <v>kim1</v>
       </c>
       <c r="D363" t="str">
         <v>k</v>
@@ -39834,8 +40389,8 @@
       <c r="B364" t="s">
         <v>374</v>
       </c>
-      <c r="C364" t="s">
-        <v>994</v>
+      <c r="C364" t="str">
+        <v>an1</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -39854,8 +40409,8 @@
       <c r="B365" t="s">
         <v>376</v>
       </c>
-      <c r="C365" t="s">
-        <v>783</v>
+      <c r="C365" t="str">
+        <v>zai2</v>
       </c>
       <c r="D365" t="str">
         <v>z</v>
@@ -39874,8 +40429,8 @@
       <c r="B366" t="s">
         <v>378</v>
       </c>
-      <c r="C366" t="s">
-        <v>784</v>
+      <c r="C366" t="str">
+        <v>zai1</v>
       </c>
       <c r="D366" t="str">
         <v>z</v>
@@ -39891,6 +40446,9 @@
       <c r="A367" t="s">
         <v>296</v>
       </c>
+      <c r="C367" t="str">
+        <v/>
+      </c>
       <c r="D367" t="str">
         <v/>
       </c>
@@ -39908,8 +40466,8 @@
       <c r="B368" t="s">
         <v>380</v>
       </c>
-      <c r="C368" t="s">
-        <v>785</v>
+      <c r="C368" t="str">
+        <v>hong3</v>
       </c>
       <c r="D368" t="str">
         <v>h</v>
@@ -39928,8 +40486,8 @@
       <c r="B369" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C369" s="51" t="s">
-        <v>786</v>
+      <c r="C369" s="51" t="str">
+        <v>goo5</v>
       </c>
       <c r="D369" t="str">
         <v>g</v>
@@ -39948,8 +40506,8 @@
       <c r="B370" t="s">
         <v>41</v>
       </c>
-      <c r="C370" t="s">
-        <v>946</v>
+      <c r="C370" t="str">
+        <v>u2</v>
       </c>
       <c r="D370" t="str">
         <v/>
@@ -39968,8 +40526,8 @@
       <c r="B371" s="52" t="s">
         <v>1819</v>
       </c>
-      <c r="C371" s="51" t="s">
-        <v>1820</v>
+      <c r="C371" s="51" t="str">
+        <v>zu2</v>
       </c>
       <c r="D371" t="str">
         <v>z</v>
@@ -39985,6 +40543,9 @@
       <c r="A372" t="s">
         <v>29</v>
       </c>
+      <c r="C372" t="str">
+        <v/>
+      </c>
       <c r="D372" t="str">
         <v/>
       </c>
@@ -40002,8 +40563,8 @@
       <c r="B373" t="s">
         <v>110</v>
       </c>
-      <c r="C373" t="s">
-        <v>963</v>
+      <c r="C373" t="str">
+        <v>gu5</v>
       </c>
       <c r="D373" t="str">
         <v>g</v>
@@ -40022,8 +40583,8 @@
       <c r="B374" t="s">
         <v>385</v>
       </c>
-      <c r="C374" t="s">
-        <v>788</v>
+      <c r="C374" t="str">
+        <v>ziau5</v>
       </c>
       <c r="D374" t="str">
         <v>z</v>
@@ -40042,8 +40603,8 @@
       <c r="B375" t="s">
         <v>51</v>
       </c>
-      <c r="C375" t="s">
-        <v>950</v>
+      <c r="C375" t="str">
+        <v>u1</v>
       </c>
       <c r="D375" t="str">
         <v/>
@@ -40062,8 +40623,8 @@
       <c r="B376" t="s">
         <v>119</v>
       </c>
-      <c r="C376" t="s">
-        <v>654</v>
+      <c r="C376" t="str">
+        <v>kang1</v>
       </c>
       <c r="D376" t="str">
         <v>k</v>
@@ -40082,8 +40643,8 @@
       <c r="B377" t="s">
         <v>39</v>
       </c>
-      <c r="C377" t="s">
-        <v>597</v>
+      <c r="C377" t="str">
+        <v>zu2</v>
       </c>
       <c r="D377" t="str">
         <v>z</v>
@@ -40102,8 +40663,8 @@
       <c r="B378" t="s">
         <v>26</v>
       </c>
-      <c r="C378" t="s">
-        <v>584</v>
+      <c r="C378" t="str">
+        <v>zi1</v>
       </c>
       <c r="D378" t="str">
         <v>z</v>
@@ -40122,8 +40683,8 @@
       <c r="B379" t="s">
         <v>102</v>
       </c>
-      <c r="C379" t="s">
-        <v>643</v>
+      <c r="C379" t="str">
+        <v>siong2</v>
       </c>
       <c r="D379" t="str">
         <v>s</v>
@@ -40139,6 +40700,9 @@
       <c r="A380" t="s">
         <v>29</v>
       </c>
+      <c r="C380" t="str">
+        <v/>
+      </c>
       <c r="D380" t="str">
         <v/>
       </c>
@@ -40156,8 +40720,8 @@
       <c r="B381" t="s">
         <v>388</v>
       </c>
-      <c r="C381" t="s">
-        <v>995</v>
+      <c r="C381" t="str">
+        <v>lu7</v>
       </c>
       <c r="D381" t="str">
         <v>l</v>
@@ -40176,8 +40740,8 @@
       <c r="B382" t="s">
         <v>110</v>
       </c>
-      <c r="C382" t="s">
-        <v>963</v>
+      <c r="C382" t="str">
+        <v>gu5</v>
       </c>
       <c r="D382" t="str">
         <v>g</v>
@@ -40196,8 +40760,8 @@
       <c r="B383" t="s">
         <v>391</v>
       </c>
-      <c r="C383" t="s">
-        <v>790</v>
+      <c r="C383" t="str">
+        <v>hee5</v>
       </c>
       <c r="D383" t="str">
         <v>h</v>
@@ -40216,8 +40780,8 @@
       <c r="B384" t="s">
         <v>150</v>
       </c>
-      <c r="C384" t="s">
-        <v>664</v>
+      <c r="C384" t="str">
+        <v>ji5</v>
       </c>
       <c r="D384" t="str">
         <v>j</v>
@@ -40236,8 +40800,8 @@
       <c r="B385" t="s">
         <v>230</v>
       </c>
-      <c r="C385" t="s">
-        <v>981</v>
+      <c r="C385" t="str">
+        <v>iu2</v>
       </c>
       <c r="D385" t="str">
         <v/>
@@ -40256,8 +40820,8 @@
       <c r="B386" t="s">
         <v>394</v>
       </c>
-      <c r="C386" t="s">
-        <v>791</v>
+      <c r="C386" t="str">
+        <v>bi5</v>
       </c>
       <c r="D386" t="str">
         <v>b</v>
@@ -40276,8 +40840,8 @@
       <c r="B387" t="s">
         <v>186</v>
       </c>
-      <c r="C387" t="s">
-        <v>690</v>
+      <c r="C387" t="str">
+        <v>lok8</v>
       </c>
       <c r="D387" t="str">
         <v>l</v>
@@ -40293,6 +40857,9 @@
       <c r="A388" t="s">
         <v>126</v>
       </c>
+      <c r="C388" t="str">
+        <v/>
+      </c>
       <c r="D388" t="str">
         <v/>
       </c>
@@ -40310,8 +40877,8 @@
       <c r="B389" t="s">
         <v>397</v>
       </c>
-      <c r="C389" t="s">
-        <v>997</v>
+      <c r="C389" t="str">
+        <v>ka3</v>
       </c>
       <c r="D389" t="str">
         <v>k</v>
@@ -40330,8 +40897,8 @@
       <c r="B390" t="s">
         <v>129</v>
       </c>
-      <c r="C390" t="s">
-        <v>966</v>
+      <c r="C390" t="str">
+        <v>it4</v>
       </c>
       <c r="D390" t="str">
         <v/>
@@ -40350,8 +40917,8 @@
       <c r="B391" t="s">
         <v>399</v>
       </c>
-      <c r="C391" t="s">
-        <v>998</v>
+      <c r="C391" t="str">
+        <v>iap8</v>
       </c>
       <c r="D391" t="str">
         <v/>
@@ -40370,8 +40937,8 @@
       <c r="B392" t="s">
         <v>26</v>
       </c>
-      <c r="C392" t="s">
-        <v>584</v>
+      <c r="C392" t="str">
+        <v>zi1</v>
       </c>
       <c r="D392" t="str">
         <v>z</v>
@@ -40390,8 +40957,8 @@
       <c r="B393" t="s">
         <v>401</v>
       </c>
-      <c r="C393" t="s">
-        <v>794</v>
+      <c r="C393" t="str">
+        <v>phian1</v>
       </c>
       <c r="D393" t="str">
         <v>ph</v>
@@ -40410,8 +40977,8 @@
       <c r="B394" t="s">
         <v>47</v>
       </c>
-      <c r="C394" t="s">
-        <v>604</v>
+      <c r="C394" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D394" t="str">
         <v>z</v>
@@ -40427,6 +40994,9 @@
       <c r="A395" t="s">
         <v>29</v>
       </c>
+      <c r="C395" t="str">
+        <v/>
+      </c>
       <c r="D395" t="str">
         <v/>
       </c>
@@ -40444,8 +41014,8 @@
       <c r="B396" t="s">
         <v>72</v>
       </c>
-      <c r="C396" t="s">
-        <v>957</v>
+      <c r="C396" t="str">
+        <v>ku2</v>
       </c>
       <c r="D396" t="str">
         <v>k</v>
@@ -40464,8 +41034,8 @@
       <c r="B397" t="s">
         <v>404</v>
       </c>
-      <c r="C397" t="s">
-        <v>795</v>
+      <c r="C397" t="str">
+        <v>pau5</v>
       </c>
       <c r="D397" t="str">
         <v>p</v>
@@ -40484,8 +41054,8 @@
       <c r="B398" t="s">
         <v>406</v>
       </c>
-      <c r="C398" t="s">
-        <v>796</v>
+      <c r="C398" t="str">
+        <v>zun1</v>
       </c>
       <c r="D398" t="str">
         <v>z</v>
@@ -40504,8 +41074,8 @@
       <c r="B399" t="s">
         <v>240</v>
       </c>
-      <c r="C399" t="s">
-        <v>983</v>
+      <c r="C399" t="str">
+        <v>i2</v>
       </c>
       <c r="D399" t="str">
         <v/>
@@ -40524,8 +41094,8 @@
       <c r="B400" t="s">
         <v>329</v>
       </c>
-      <c r="C400" t="s">
-        <v>763</v>
+      <c r="C400" t="str">
+        <v>siong1</v>
       </c>
       <c r="D400" t="str">
         <v>s</v>
@@ -40544,8 +41114,8 @@
       <c r="B401" t="s">
         <v>76</v>
       </c>
-      <c r="C401" t="s">
-        <v>626</v>
+      <c r="C401" t="str">
+        <v>ziok4</v>
       </c>
       <c r="D401" t="str">
         <v>z</v>
@@ -40561,6 +41131,9 @@
       <c r="A402" t="s">
         <v>54</v>
       </c>
+      <c r="C402" t="str">
+        <v/>
+      </c>
       <c r="D402" t="str">
         <v/>
       </c>
@@ -40578,8 +41151,8 @@
       <c r="B403" t="s">
         <v>35</v>
       </c>
-      <c r="C403" t="s">
-        <v>593</v>
+      <c r="C403" t="str">
+        <v>ki3</v>
       </c>
       <c r="D403" t="str">
         <v>k</v>
@@ -40598,8 +41171,8 @@
       <c r="B404" t="s">
         <v>410</v>
       </c>
-      <c r="C404" t="s">
-        <v>797</v>
+      <c r="C404" t="str">
+        <v>hu5</v>
       </c>
       <c r="D404" t="str">
         <v>h</v>
@@ -40618,8 +41191,8 @@
       <c r="B405" t="s">
         <v>49</v>
       </c>
-      <c r="C405" t="s">
-        <v>949</v>
+      <c r="C405" t="str">
+        <v>iu5</v>
       </c>
       <c r="D405" t="str">
         <v/>
@@ -40638,8 +41211,8 @@
       <c r="B406" t="s">
         <v>51</v>
       </c>
-      <c r="C406" t="s">
-        <v>950</v>
+      <c r="C406" t="str">
+        <v>u1</v>
       </c>
       <c r="D406" t="str">
         <v/>
@@ -40658,8 +41231,8 @@
       <c r="B407" t="s">
         <v>125</v>
       </c>
-      <c r="C407" t="s">
-        <v>659</v>
+      <c r="C407" t="str">
+        <v>thian1</v>
       </c>
       <c r="D407" t="str">
         <v>th</v>
@@ -40678,8 +41251,8 @@
       <c r="B408" s="51" t="s">
         <v>1821</v>
       </c>
-      <c r="C408" s="51" t="s">
-        <v>1822</v>
+      <c r="C408" s="51" t="str">
+        <v>tei7</v>
       </c>
       <c r="D408" t="str">
         <v>t</v>
@@ -40695,6 +41268,9 @@
       <c r="A409" t="s">
         <v>29</v>
       </c>
+      <c r="C409" t="str">
+        <v/>
+      </c>
       <c r="D409" t="str">
         <v/>
       </c>
@@ -40712,8 +41288,8 @@
       <c r="B410" t="s">
         <v>216</v>
       </c>
-      <c r="C410" t="s">
-        <v>706</v>
+      <c r="C410" t="str">
+        <v>biau2</v>
       </c>
       <c r="D410" t="str">
         <v>b</v>
@@ -40732,8 +41308,8 @@
       <c r="B411" t="s">
         <v>335</v>
       </c>
-      <c r="C411" t="s">
-        <v>766</v>
+      <c r="C411" t="str">
+        <v>cong1</v>
       </c>
       <c r="D411" t="str">
         <v>c</v>
@@ -40752,8 +41328,8 @@
       <c r="B412" t="s">
         <v>416</v>
       </c>
-      <c r="C412" t="s">
-        <v>799</v>
+      <c r="C412" t="str">
+        <v>hai2</v>
       </c>
       <c r="D412" t="str">
         <v>h</v>
@@ -40772,8 +41348,8 @@
       <c r="B413" t="s">
         <v>26</v>
       </c>
-      <c r="C413" t="s">
-        <v>584</v>
+      <c r="C413" t="str">
+        <v>zi1</v>
       </c>
       <c r="D413" t="str">
         <v>z</v>
@@ -40792,8 +41368,8 @@
       <c r="B414" t="s">
         <v>129</v>
       </c>
-      <c r="C414" t="s">
-        <v>966</v>
+      <c r="C414" t="str">
+        <v>it4</v>
       </c>
       <c r="D414" t="str">
         <v/>
@@ -40812,8 +41388,8 @@
       <c r="B415" t="s">
         <v>418</v>
       </c>
-      <c r="C415" t="s">
-        <v>800</v>
+      <c r="C415" t="str">
+        <v>siok4</v>
       </c>
       <c r="D415" t="str">
         <v>s</v>
@@ -40829,6 +41405,9 @@
       <c r="A416" t="s">
         <v>54</v>
       </c>
+      <c r="C416" t="str">
+        <v/>
+      </c>
       <c r="D416" t="str">
         <v/>
       </c>
@@ -40846,8 +41425,8 @@
       <c r="B417" t="s">
         <v>420</v>
       </c>
-      <c r="C417" t="s">
-        <v>999</v>
+      <c r="C417" t="str">
+        <v>ai1</v>
       </c>
       <c r="D417" t="str">
         <v/>
@@ -40866,8 +41445,8 @@
       <c r="B418" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C418" s="51" t="s">
-        <v>786</v>
+      <c r="C418" s="51" t="str">
+        <v>goo5</v>
       </c>
       <c r="D418" t="str">
         <v>g</v>
@@ -40886,8 +41465,8 @@
       <c r="B419" t="s">
         <v>244</v>
       </c>
-      <c r="C419" t="s">
-        <v>722</v>
+      <c r="C419" t="str">
+        <v>sing1</v>
       </c>
       <c r="D419" t="str">
         <v>s</v>
@@ -40906,8 +41485,8 @@
       <c r="B420" t="s">
         <v>26</v>
       </c>
-      <c r="C420" t="s">
-        <v>584</v>
+      <c r="C420" t="str">
+        <v>zi1</v>
       </c>
       <c r="D420" t="str">
         <v>z</v>
@@ -40926,8 +41505,8 @@
       <c r="B421" t="s">
         <v>363</v>
       </c>
-      <c r="C421" t="s">
-        <v>777</v>
+      <c r="C421" t="str">
+        <v>su1</v>
       </c>
       <c r="D421" t="str">
         <v>s</v>
@@ -40946,8 +41525,8 @@
       <c r="B422" t="s">
         <v>218</v>
       </c>
-      <c r="C422" t="s">
-        <v>979</v>
+      <c r="C422" t="str">
+        <v>u5</v>
       </c>
       <c r="D422" t="str">
         <v/>
@@ -40963,6 +41542,9 @@
       <c r="A423" t="s">
         <v>29</v>
       </c>
+      <c r="C423" t="str">
+        <v/>
+      </c>
       <c r="D423" t="str">
         <v/>
       </c>
@@ -40980,8 +41562,8 @@
       <c r="B424" t="s">
         <v>425</v>
       </c>
-      <c r="C424" t="s">
-        <v>802</v>
+      <c r="C424" t="str">
+        <v>sian7</v>
       </c>
       <c r="D424" t="str">
         <v>s</v>
@@ -41000,8 +41582,8 @@
       <c r="B425" t="s">
         <v>427</v>
       </c>
-      <c r="C425" t="s">
-        <v>803</v>
+      <c r="C425" t="str">
+        <v>tiong5</v>
       </c>
       <c r="D425" t="str">
         <v>t</v>
@@ -41020,8 +41602,8 @@
       <c r="B426" t="s">
         <v>119</v>
       </c>
-      <c r="C426" t="s">
-        <v>654</v>
+      <c r="C426" t="str">
+        <v>kang1</v>
       </c>
       <c r="D426" t="str">
         <v>k</v>
@@ -41040,8 +41622,8 @@
       <c r="B427" t="s">
         <v>26</v>
       </c>
-      <c r="C427" t="s">
-        <v>584</v>
+      <c r="C427" t="str">
+        <v>zi1</v>
       </c>
       <c r="D427" t="str">
         <v>z</v>
@@ -41060,8 +41642,8 @@
       <c r="B428" t="s">
         <v>429</v>
       </c>
-      <c r="C428" t="s">
-        <v>804</v>
+      <c r="C428" t="str">
+        <v>bu5</v>
       </c>
       <c r="D428" t="str">
         <v>b</v>
@@ -41080,8 +41662,8 @@
       <c r="B429" t="s">
         <v>431</v>
       </c>
-      <c r="C429" t="s">
-        <v>805</v>
+      <c r="C429" t="str">
+        <v>kiong5</v>
       </c>
       <c r="D429" t="str">
         <v>k</v>
@@ -41097,6 +41679,9 @@
       <c r="A430" t="s">
         <v>54</v>
       </c>
+      <c r="C430" t="str">
+        <v/>
+      </c>
       <c r="D430" t="str">
         <v/>
       </c>
@@ -41114,8 +41699,8 @@
       <c r="B431" t="s">
         <v>433</v>
       </c>
-      <c r="C431" t="s">
-        <v>806</v>
+      <c r="C431" t="str">
+        <v>hiat8</v>
       </c>
       <c r="D431" t="str">
         <v>h</v>
@@ -41134,8 +41719,8 @@
       <c r="B432" t="s">
         <v>307</v>
       </c>
-      <c r="C432" t="s">
-        <v>753</v>
+      <c r="C432" t="str">
+        <v>hui1</v>
       </c>
       <c r="D432" t="str">
         <v>h</v>
@@ -41154,8 +41739,8 @@
       <c r="B433" t="s">
         <v>180</v>
       </c>
-      <c r="C433" t="s">
-        <v>687</v>
+      <c r="C433" t="str">
+        <v>sian1</v>
       </c>
       <c r="D433" t="str">
         <v>s</v>
@@ -41174,8 +41759,8 @@
       <c r="B434" t="s">
         <v>240</v>
       </c>
-      <c r="C434" t="s">
-        <v>983</v>
+      <c r="C434" t="str">
+        <v>i2</v>
       </c>
       <c r="D434" t="str">
         <v/>
@@ -41194,8 +41779,8 @@
       <c r="B435" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C435" s="51" t="s">
-        <v>808</v>
+      <c r="C435" s="51" t="str">
+        <v>go5</v>
       </c>
       <c r="D435" t="str">
         <v>g</v>
@@ -41214,8 +41799,8 @@
       <c r="B436" t="s">
         <v>49</v>
       </c>
-      <c r="C436" t="s">
-        <v>949</v>
+      <c r="C436" t="str">
+        <v>iu5</v>
       </c>
       <c r="D436" t="str">
         <v/>
@@ -41231,6 +41816,9 @@
       <c r="A437" t="s">
         <v>29</v>
       </c>
+      <c r="C437" t="str">
+        <v/>
+      </c>
       <c r="D437" t="str">
         <v/>
       </c>
@@ -41248,8 +41836,8 @@
       <c r="B438" t="s">
         <v>437</v>
       </c>
-      <c r="C438" t="s">
-        <v>809</v>
+      <c r="C438" t="str">
+        <v>po2</v>
       </c>
       <c r="D438" t="str">
         <v>p</v>
@@ -41268,8 +41856,8 @@
       <c r="B439" t="s">
         <v>80</v>
       </c>
-      <c r="C439" t="s">
-        <v>629</v>
+      <c r="C439" t="str">
+        <v>bing5</v>
       </c>
       <c r="D439" t="str">
         <v>b</v>
@@ -41288,8 +41876,8 @@
       <c r="B440" t="s">
         <v>33</v>
       </c>
-      <c r="C440" t="s">
-        <v>590</v>
+      <c r="C440" t="str">
+        <v>guat8</v>
       </c>
       <c r="D440" t="str">
         <v>g</v>
@@ -41308,8 +41896,8 @@
       <c r="B441" t="s">
         <v>150</v>
       </c>
-      <c r="C441" t="s">
-        <v>664</v>
+      <c r="C441" t="str">
+        <v>ji5</v>
       </c>
       <c r="D441" t="str">
         <v>j</v>
@@ -41328,8 +41916,8 @@
       <c r="B442" t="s">
         <v>427</v>
       </c>
-      <c r="C442" t="s">
-        <v>803</v>
+      <c r="C442" t="str">
+        <v>tiong5</v>
       </c>
       <c r="D442" t="str">
         <v>t</v>
@@ -41348,8 +41936,8 @@
       <c r="B443" t="s">
         <v>90</v>
       </c>
-      <c r="C443" t="s">
-        <v>636</v>
+      <c r="C443" t="str">
+        <v>ziong1</v>
       </c>
       <c r="D443" t="str">
         <v>z</v>
@@ -41365,6 +41953,9 @@
       <c r="A444" t="s">
         <v>54</v>
       </c>
+      <c r="C444" t="str">
+        <v/>
+      </c>
       <c r="D444" t="str">
         <v/>
       </c>
@@ -41382,8 +41973,8 @@
       <c r="B445" t="s">
         <v>159</v>
       </c>
-      <c r="C445" t="s">
-        <v>675</v>
+      <c r="C445" t="str">
+        <v>ti1</v>
       </c>
       <c r="D445" t="str">
         <v>t</v>
@@ -41402,8 +41993,8 @@
       <c r="B446" t="s">
         <v>68</v>
       </c>
-      <c r="C446" t="s">
-        <v>622</v>
+      <c r="C446" t="str">
+        <v>put4</v>
       </c>
       <c r="D446" t="str">
         <v>p</v>
@@ -41422,8 +42013,8 @@
       <c r="B447" t="s">
         <v>440</v>
       </c>
-      <c r="C447" t="s">
-        <v>810</v>
+      <c r="C447" t="str">
+        <v>kho2</v>
       </c>
       <c r="D447" t="str">
         <v>kh</v>
@@ -41442,8 +42033,8 @@
       <c r="B448" t="s">
         <v>149</v>
       </c>
-      <c r="C448" t="s">
-        <v>671</v>
+      <c r="C448" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D448" t="str">
         <v>h</v>
@@ -41462,8 +42053,8 @@
       <c r="B449" t="s">
         <v>442</v>
       </c>
-      <c r="C449" t="s">
-        <v>811</v>
+      <c r="C449" t="str">
+        <v>zoo7</v>
       </c>
       <c r="D449" t="str">
         <v>z</v>
@@ -41482,8 +42073,8 @@
       <c r="B450" t="s">
         <v>317</v>
       </c>
-      <c r="C450" t="s">
-        <v>757</v>
+      <c r="C450" t="str">
+        <v>tik4</v>
       </c>
       <c r="D450" t="str">
         <v>t</v>
@@ -41499,6 +42090,9 @@
       <c r="A451" t="s">
         <v>29</v>
       </c>
+      <c r="C451" t="str">
+        <v/>
+      </c>
       <c r="D451" t="str">
         <v/>
       </c>
@@ -41516,8 +42110,8 @@
       <c r="B452" t="s">
         <v>445</v>
       </c>
-      <c r="C452" t="s">
-        <v>812</v>
+      <c r="C452" t="str">
+        <v>thok4</v>
       </c>
       <c r="D452" t="str">
         <v>th</v>
@@ -41536,8 +42130,8 @@
       <c r="B453" t="s">
         <v>167</v>
       </c>
-      <c r="C453" t="s">
-        <v>971</v>
+      <c r="C453" t="str">
+        <v>ui5</v>
       </c>
       <c r="D453" t="str">
         <v/>
@@ -41556,8 +42150,8 @@
       <c r="B454" t="s">
         <v>447</v>
       </c>
-      <c r="C454" t="s">
-        <v>813</v>
+      <c r="C454" t="str">
+        <v>hiong2</v>
       </c>
       <c r="D454" t="str">
         <v>h</v>
@@ -41576,8 +42170,8 @@
       <c r="B455" t="s">
         <v>51</v>
       </c>
-      <c r="C455" t="s">
-        <v>950</v>
+      <c r="C455" t="str">
+        <v>u1</v>
       </c>
       <c r="D455" t="str">
         <v/>
@@ -41596,8 +42190,8 @@
       <c r="B456" t="s">
         <v>449</v>
       </c>
-      <c r="C456" t="s">
-        <v>814</v>
+      <c r="C456" t="str">
+        <v>pi1</v>
       </c>
       <c r="D456" t="str">
         <v>p</v>
@@ -41614,10 +42208,10 @@
         <v>57</v>
       </c>
       <c r="B457" s="51" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C457" s="51" t="s">
-        <v>1811</v>
+        <v>1886</v>
+      </c>
+      <c r="C457" s="51" t="str">
+        <v>hong1</v>
       </c>
       <c r="D457" t="str">
         <v>h</v>
@@ -41632,6 +42226,9 @@
     <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>54</v>
+      </c>
+      <c r="C458" t="str">
+        <v/>
       </c>
       <c r="D458" t="str">
         <v/>
@@ -41650,7 +42247,9 @@
 </v>
       </c>
       <c r="B459" s="95"/>
-      <c r="C459" s="95"/>
+      <c r="C459" s="95" t="str">
+        <v/>
+      </c>
       <c r="D459" s="95" t="str">
         <v/>
       </c>
@@ -41676,8 +42275,8 @@
       <c r="B460" t="s">
         <v>18</v>
       </c>
-      <c r="C460" t="s">
-        <v>576</v>
+      <c r="C460" t="str">
+        <v>soo1</v>
       </c>
       <c r="D460" t="str">
         <v>s</v>
@@ -41696,8 +42295,8 @@
       <c r="B461" t="s">
         <v>39</v>
       </c>
-      <c r="C461" t="s">
-        <v>597</v>
+      <c r="C461" t="str">
+        <v>zu2</v>
       </c>
       <c r="D461" t="str">
         <v>z</v>
@@ -41716,8 +42315,8 @@
       <c r="B462" t="s">
         <v>194</v>
       </c>
-      <c r="C462" t="s">
-        <v>976</v>
+      <c r="C462" t="str">
+        <v>uat8</v>
       </c>
       <c r="D462" t="str">
         <v/>
@@ -41733,6 +42332,9 @@
       <c r="A463" t="s">
         <v>16</v>
       </c>
+      <c r="C463" t="str">
+        <v/>
+      </c>
       <c r="D463" t="str">
         <v/>
       </c>
@@ -41747,6 +42349,9 @@
       <c r="A464" t="s">
         <v>196</v>
       </c>
+      <c r="C464" t="str">
+        <v/>
+      </c>
       <c r="D464" t="str">
         <v/>
       </c>
@@ -41764,8 +42369,8 @@
       <c r="B465" t="s">
         <v>43</v>
       </c>
-      <c r="C465" t="s">
-        <v>600</v>
+      <c r="C465" t="str">
+        <v>khik4</v>
       </c>
       <c r="D465" t="str">
         <v>kh</v>
@@ -41784,8 +42389,8 @@
       <c r="B466" t="s">
         <v>451</v>
       </c>
-      <c r="C466" t="s">
-        <v>1000</v>
+      <c r="C466" t="str">
+        <v>ik8</v>
       </c>
       <c r="D466" t="str">
         <v/>
@@ -41804,8 +42409,8 @@
       <c r="B467" t="s">
         <v>159</v>
       </c>
-      <c r="C467" t="s">
-        <v>675</v>
+      <c r="C467" t="str">
+        <v>ti1</v>
       </c>
       <c r="D467" t="str">
         <v>t</v>
@@ -41824,8 +42429,8 @@
       <c r="B468" t="s">
         <v>410</v>
       </c>
-      <c r="C468" t="s">
-        <v>797</v>
+      <c r="C468" t="str">
+        <v>hu5</v>
       </c>
       <c r="D468" t="str">
         <v>h</v>
@@ -41844,8 +42449,8 @@
       <c r="B469" t="s">
         <v>64</v>
       </c>
-      <c r="C469" t="s">
-        <v>617</v>
+      <c r="C469" t="str">
+        <v>sui2</v>
       </c>
       <c r="D469" t="str">
         <v>s</v>
@@ -41864,8 +42469,8 @@
       <c r="B470" t="s">
         <v>41</v>
       </c>
-      <c r="C470" t="s">
-        <v>946</v>
+      <c r="C470" t="str">
+        <v>u2</v>
       </c>
       <c r="D470" t="str">
         <v/>
@@ -41884,8 +42489,8 @@
       <c r="B471" t="s">
         <v>33</v>
       </c>
-      <c r="C471" t="s">
-        <v>590</v>
+      <c r="C471" t="str">
+        <v>guat8</v>
       </c>
       <c r="D471" t="str">
         <v>g</v>
@@ -41904,8 +42509,8 @@
       <c r="B472" t="s">
         <v>149</v>
       </c>
-      <c r="C472" t="s">
-        <v>671</v>
+      <c r="C472" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D472" t="str">
         <v>h</v>
@@ -41921,6 +42526,9 @@
       <c r="A473" t="s">
         <v>296</v>
       </c>
+      <c r="C473" t="str">
+        <v/>
+      </c>
       <c r="D473" t="str">
         <v/>
       </c>
@@ -41938,8 +42546,8 @@
       <c r="B474" t="s">
         <v>454</v>
       </c>
-      <c r="C474" t="s">
-        <v>1001</v>
+      <c r="C474" t="str">
+        <v>se7</v>
       </c>
       <c r="D474" t="str">
         <v>s</v>
@@ -41958,8 +42566,8 @@
       <c r="B475" t="s">
         <v>238</v>
       </c>
-      <c r="C475" t="s">
-        <v>718</v>
+      <c r="C475" t="str">
+        <v>zia2</v>
       </c>
       <c r="D475" t="str">
         <v>z</v>
@@ -41978,8 +42586,8 @@
       <c r="B476" t="s">
         <v>135</v>
       </c>
-      <c r="C476" t="s">
-        <v>968</v>
+      <c r="C476" t="str">
+        <v>ju5</v>
       </c>
       <c r="D476" t="str">
         <v>j</v>
@@ -41998,8 +42606,8 @@
       <c r="B477" t="s">
         <v>363</v>
       </c>
-      <c r="C477" t="s">
-        <v>777</v>
+      <c r="C477" t="str">
+        <v>su1</v>
       </c>
       <c r="D477" t="str">
         <v>s</v>
@@ -42015,6 +42623,9 @@
       <c r="A478" t="s">
         <v>29</v>
       </c>
+      <c r="C478" t="str">
+        <v/>
+      </c>
       <c r="D478" t="str">
         <v/>
       </c>
@@ -42032,8 +42643,8 @@
       <c r="B479" t="s">
         <v>150</v>
       </c>
-      <c r="C479" t="s">
-        <v>664</v>
+      <c r="C479" t="str">
+        <v>ji5</v>
       </c>
       <c r="D479" t="str">
         <v>j</v>
@@ -42052,8 +42663,8 @@
       <c r="B480" t="s">
         <v>457</v>
       </c>
-      <c r="C480" t="s">
-        <v>1002</v>
+      <c r="C480" t="str">
+        <v>bui7</v>
       </c>
       <c r="D480" t="str">
         <v>b</v>
@@ -42072,8 +42683,8 @@
       <c r="B481" t="s">
         <v>459</v>
       </c>
-      <c r="C481" t="s">
-        <v>818</v>
+      <c r="C481" t="str">
+        <v>siong5</v>
       </c>
       <c r="D481" t="str">
         <v>s</v>
@@ -42092,8 +42703,8 @@
       <c r="B482" s="51" t="s">
         <v>1824</v>
       </c>
-      <c r="C482" s="51" t="s">
-        <v>1825</v>
+      <c r="C482" s="51" t="str">
+        <v>ong2</v>
       </c>
       <c r="D482" t="str">
         <v/>
@@ -42112,8 +42723,8 @@
       <c r="B483" t="s">
         <v>295</v>
       </c>
-      <c r="C483" t="s">
-        <v>990</v>
+      <c r="C483" t="str">
+        <v>ia2</v>
       </c>
       <c r="D483" t="str">
         <v/>
@@ -42129,6 +42740,9 @@
       <c r="A484" t="s">
         <v>126</v>
       </c>
+      <c r="C484" t="str">
+        <v/>
+      </c>
       <c r="D484" t="str">
         <v/>
       </c>
@@ -42146,8 +42760,8 @@
       <c r="B485" t="s">
         <v>463</v>
       </c>
-      <c r="C485" t="s">
-        <v>1003</v>
+      <c r="C485" t="str">
+        <v>ing5</v>
       </c>
       <c r="D485" t="str">
         <v/>
@@ -42166,8 +42780,8 @@
       <c r="B486" t="s">
         <v>154</v>
       </c>
-      <c r="C486" t="s">
-        <v>673</v>
+      <c r="C486" t="str">
+        <v>hu1</v>
       </c>
       <c r="D486" t="str">
         <v>h</v>
@@ -42186,8 +42800,8 @@
       <c r="B487" t="s">
         <v>238</v>
       </c>
-      <c r="C487" t="s">
-        <v>718</v>
+      <c r="C487" t="str">
+        <v>zia2</v>
       </c>
       <c r="D487" t="str">
         <v>z</v>
@@ -42206,8 +42820,8 @@
       <c r="B488" t="s">
         <v>135</v>
       </c>
-      <c r="C488" t="s">
-        <v>968</v>
+      <c r="C488" t="str">
+        <v>ju5</v>
       </c>
       <c r="D488" t="str">
         <v>j</v>
@@ -42226,8 +42840,8 @@
       <c r="B489" t="s">
         <v>465</v>
       </c>
-      <c r="C489" t="s">
-        <v>821</v>
+      <c r="C489" t="str">
+        <v>pi2</v>
       </c>
       <c r="D489" t="str">
         <v>p</v>
@@ -42243,6 +42857,9 @@
       <c r="A490" t="s">
         <v>29</v>
       </c>
+      <c r="C490" t="str">
+        <v/>
+      </c>
       <c r="D490" t="str">
         <v/>
       </c>
@@ -42260,8 +42877,8 @@
       <c r="B491" t="s">
         <v>150</v>
       </c>
-      <c r="C491" t="s">
-        <v>664</v>
+      <c r="C491" t="str">
+        <v>ji5</v>
       </c>
       <c r="D491" t="str">
         <v>j</v>
@@ -42280,8 +42897,8 @@
       <c r="B492" t="s">
         <v>467</v>
       </c>
-      <c r="C492" t="s">
-        <v>822</v>
+      <c r="C492" t="str">
+        <v>zut4</v>
       </c>
       <c r="D492" t="str">
         <v>z</v>
@@ -42300,8 +42917,8 @@
       <c r="B493" t="s">
         <v>469</v>
       </c>
-      <c r="C493" t="s">
-        <v>823</v>
+      <c r="C493" t="str">
+        <v>bok8</v>
       </c>
       <c r="D493" t="str">
         <v>b</v>
@@ -42320,8 +42937,8 @@
       <c r="B494" t="s">
         <v>236</v>
       </c>
-      <c r="C494" t="s">
-        <v>717</v>
+      <c r="C494" t="str">
+        <v>siau1</v>
       </c>
       <c r="D494" t="str">
         <v>s</v>
@@ -42340,8 +42957,8 @@
       <c r="B495" t="s">
         <v>427</v>
       </c>
-      <c r="C495" t="s">
-        <v>803</v>
+      <c r="C495" t="str">
+        <v>tiong5</v>
       </c>
       <c r="D495" t="str">
         <v>t</v>
@@ -42360,8 +42977,8 @@
       <c r="B496" t="s">
         <v>295</v>
       </c>
-      <c r="C496" t="s">
-        <v>990</v>
+      <c r="C496" t="str">
+        <v>ia2</v>
       </c>
       <c r="D496" t="str">
         <v/>
@@ -42377,6 +42994,9 @@
       <c r="A497" t="s">
         <v>29</v>
       </c>
+      <c r="C497" t="str">
+        <v/>
+      </c>
       <c r="D497" t="str">
         <v/>
       </c>
@@ -42394,8 +43014,8 @@
       <c r="B498" t="s">
         <v>472</v>
       </c>
-      <c r="C498" t="s">
-        <v>824</v>
+      <c r="C498" t="str">
+        <v>kai3</v>
       </c>
       <c r="D498" t="str">
         <v>k</v>
@@ -42414,8 +43034,8 @@
       <c r="B499" t="s">
         <v>90</v>
       </c>
-      <c r="C499" t="s">
-        <v>636</v>
+      <c r="C499" t="str">
+        <v>ziong1</v>
       </c>
       <c r="D499" t="str">
         <v>z</v>
@@ -42434,8 +43054,8 @@
       <c r="B500" t="s">
         <v>475</v>
       </c>
-      <c r="C500" t="s">
-        <v>825</v>
+      <c r="C500" t="str">
+        <v>zu7</v>
       </c>
       <c r="D500" t="str">
         <v>z</v>
@@ -42454,8 +43074,8 @@
       <c r="B501" t="s">
         <v>161</v>
       </c>
-      <c r="C501" t="s">
-        <v>676</v>
+      <c r="C501" t="str">
+        <v>ki5</v>
       </c>
       <c r="D501" t="str">
         <v>k</v>
@@ -42474,8 +43094,8 @@
       <c r="B502" t="s">
         <v>477</v>
       </c>
-      <c r="C502" t="s">
-        <v>826</v>
+      <c r="C502" t="str">
+        <v>pian3</v>
       </c>
       <c r="D502" t="str">
         <v>p</v>
@@ -42494,8 +43114,8 @@
       <c r="B503" t="s">
         <v>238</v>
       </c>
-      <c r="C503" t="s">
-        <v>718</v>
+      <c r="C503" t="str">
+        <v>zia2</v>
       </c>
       <c r="D503" t="str">
         <v>z</v>
@@ -42514,8 +43134,8 @@
       <c r="B504" t="s">
         <v>150</v>
       </c>
-      <c r="C504" t="s">
-        <v>664</v>
+      <c r="C504" t="str">
+        <v>ji5</v>
       </c>
       <c r="D504" t="str">
         <v>j</v>
@@ -42534,8 +43154,8 @@
       <c r="B505" t="s">
         <v>479</v>
       </c>
-      <c r="C505" t="s">
-        <v>827</v>
+      <c r="C505" t="str">
+        <v>kuan1</v>
       </c>
       <c r="D505" t="str">
         <v>k</v>
@@ -42554,8 +43174,8 @@
       <c r="B506" t="s">
         <v>26</v>
       </c>
-      <c r="C506" t="s">
-        <v>584</v>
+      <c r="C506" t="str">
+        <v>zi1</v>
       </c>
       <c r="D506" t="str">
         <v>z</v>
@@ -42571,6 +43191,9 @@
       <c r="A507" t="s">
         <v>29</v>
       </c>
+      <c r="C507" t="str">
+        <v/>
+      </c>
       <c r="D507" t="str">
         <v/>
       </c>
@@ -42588,8 +43211,8 @@
       <c r="B508" t="s">
         <v>481</v>
       </c>
-      <c r="C508" t="s">
-        <v>828</v>
+      <c r="C508" t="str">
+        <v>zik4</v>
       </c>
       <c r="D508" t="str">
         <v>z</v>
@@ -42608,8 +43231,8 @@
       <c r="B509" t="s">
         <v>125</v>
       </c>
-      <c r="C509" t="s">
-        <v>659</v>
+      <c r="C509" t="str">
+        <v>thian1</v>
       </c>
       <c r="D509" t="str">
         <v>th</v>
@@ -42628,8 +43251,8 @@
       <c r="B510" t="s">
         <v>482</v>
       </c>
-      <c r="C510" t="s">
-        <v>829</v>
+      <c r="C510" t="str">
+        <v>tei7</v>
       </c>
       <c r="D510" t="str">
         <v>t</v>
@@ -42648,8 +43271,8 @@
       <c r="B511" t="s">
         <v>358</v>
       </c>
-      <c r="C511" t="s">
-        <v>775</v>
+      <c r="C511" t="str">
+        <v>zing1</v>
       </c>
       <c r="D511" t="str">
         <v>z</v>
@@ -42668,8 +43291,8 @@
       <c r="B512" t="s">
         <v>68</v>
       </c>
-      <c r="C512" t="s">
-        <v>622</v>
+      <c r="C512" t="str">
+        <v>put4</v>
       </c>
       <c r="D512" t="str">
         <v>p</v>
@@ -42688,8 +43311,8 @@
       <c r="B513" t="s">
         <v>137</v>
       </c>
-      <c r="C513" t="s">
-        <v>665</v>
+      <c r="C513" t="str">
+        <v>ling5</v>
       </c>
       <c r="D513" t="str">
         <v>l</v>
@@ -42708,8 +43331,8 @@
       <c r="B514" t="s">
         <v>240</v>
       </c>
-      <c r="C514" t="s">
-        <v>983</v>
+      <c r="C514" t="str">
+        <v>i2</v>
       </c>
       <c r="D514" t="str">
         <v/>
@@ -42728,8 +43351,8 @@
       <c r="B515" t="s">
         <v>129</v>
       </c>
-      <c r="C515" t="s">
-        <v>966</v>
+      <c r="C515" t="str">
+        <v>it4</v>
       </c>
       <c r="D515" t="str">
         <v/>
@@ -42748,8 +43371,8 @@
       <c r="B516" t="s">
         <v>486</v>
       </c>
-      <c r="C516" t="s">
-        <v>830</v>
+      <c r="C516" t="str">
+        <v>sun3</v>
       </c>
       <c r="D516" t="str">
         <v>s</v>
@@ -42765,6 +43388,9 @@
       <c r="A517" t="s">
         <v>126</v>
       </c>
+      <c r="C517" t="str">
+        <v/>
+      </c>
       <c r="D517" t="str">
         <v/>
       </c>
@@ -42782,8 +43408,8 @@
       <c r="B518" t="s">
         <v>475</v>
       </c>
-      <c r="C518" t="s">
-        <v>825</v>
+      <c r="C518" t="str">
+        <v>zu7</v>
       </c>
       <c r="D518" t="str">
         <v>z</v>
@@ -42802,8 +43428,8 @@
       <c r="B519" t="s">
         <v>161</v>
       </c>
-      <c r="C519" t="s">
-        <v>676</v>
+      <c r="C519" t="str">
+        <v>ki5</v>
       </c>
       <c r="D519" t="str">
         <v>k</v>
@@ -42822,8 +43448,8 @@
       <c r="B520" t="s">
         <v>68</v>
       </c>
-      <c r="C520" t="s">
-        <v>622</v>
+      <c r="C520" t="str">
+        <v>put4</v>
       </c>
       <c r="D520" t="str">
         <v>p</v>
@@ -42842,8 +43468,8 @@
       <c r="B521" s="51" t="s">
         <v>1826</v>
       </c>
-      <c r="C521" s="51" t="s">
-        <v>1827</v>
+      <c r="C521" s="51" t="str">
+        <v>pian3</v>
       </c>
       <c r="D521" t="str">
         <v>p</v>
@@ -42862,8 +43488,8 @@
       <c r="B522" t="s">
         <v>238</v>
       </c>
-      <c r="C522" t="s">
-        <v>718</v>
+      <c r="C522" t="str">
+        <v>zia2</v>
       </c>
       <c r="D522" t="str">
         <v>z</v>
@@ -42882,8 +43508,8 @@
       <c r="B523" t="s">
         <v>150</v>
       </c>
-      <c r="C523" t="s">
-        <v>664</v>
+      <c r="C523" t="str">
+        <v>ji5</v>
       </c>
       <c r="D523" t="str">
         <v>j</v>
@@ -42902,8 +43528,8 @@
       <c r="B524" t="s">
         <v>479</v>
       </c>
-      <c r="C524" t="s">
-        <v>827</v>
+      <c r="C524" t="str">
+        <v>kuan1</v>
       </c>
       <c r="D524" t="str">
         <v>k</v>
@@ -42922,8 +43548,8 @@
       <c r="B525" t="s">
         <v>26</v>
       </c>
-      <c r="C525" t="s">
-        <v>584</v>
+      <c r="C525" t="str">
+        <v>zi1</v>
       </c>
       <c r="D525" t="str">
         <v>z</v>
@@ -42939,6 +43565,9 @@
       <c r="A526" t="s">
         <v>29</v>
       </c>
+      <c r="C526" t="str">
+        <v/>
+      </c>
       <c r="D526" t="str">
         <v/>
       </c>
@@ -42956,8 +43585,8 @@
       <c r="B527" t="s">
         <v>481</v>
       </c>
-      <c r="C527" t="s">
-        <v>828</v>
+      <c r="C527" t="str">
+        <v>zik4</v>
       </c>
       <c r="D527" t="str">
         <v>z</v>
@@ -42976,8 +43605,8 @@
       <c r="B528" t="s">
         <v>489</v>
       </c>
-      <c r="C528" t="s">
-        <v>832</v>
+      <c r="C528" t="str">
+        <v>but8</v>
       </c>
       <c r="D528" t="str">
         <v>b</v>
@@ -42996,8 +43625,8 @@
       <c r="B529" t="s">
         <v>41</v>
       </c>
-      <c r="C529" t="s">
-        <v>946</v>
+      <c r="C529" t="str">
+        <v>u2</v>
       </c>
       <c r="D529" t="str">
         <v/>
@@ -43016,8 +43645,8 @@
       <c r="B530" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="C530" s="51" t="s">
-        <v>1005</v>
+      <c r="C530" s="51" t="str">
+        <v>gonn2</v>
       </c>
       <c r="D530" t="str">
         <v>g</v>
@@ -43036,8 +43665,8 @@
       <c r="B531" t="s">
         <v>493</v>
       </c>
-      <c r="C531" t="s">
-        <v>835</v>
+      <c r="C531" t="str">
+        <v>kai1</v>
       </c>
       <c r="D531" t="str">
         <v>k</v>
@@ -43056,8 +43685,8 @@
       <c r="B532" t="s">
         <v>429</v>
       </c>
-      <c r="C532" t="s">
-        <v>804</v>
+      <c r="C532" t="str">
+        <v>bu5</v>
       </c>
       <c r="D532" t="str">
         <v>b</v>
@@ -43076,8 +43705,8 @@
       <c r="B533" t="s">
         <v>495</v>
       </c>
-      <c r="C533" t="s">
-        <v>836</v>
+      <c r="C533" t="str">
+        <v>zin2</v>
       </c>
       <c r="D533" t="str">
         <v>z</v>
@@ -43096,8 +43725,8 @@
       <c r="B534" t="s">
         <v>295</v>
       </c>
-      <c r="C534" t="s">
-        <v>990</v>
+      <c r="C534" t="str">
+        <v>ia2</v>
       </c>
       <c r="D534" t="str">
         <v/>
@@ -43113,6 +43742,9 @@
       <c r="A535" t="s">
         <v>29</v>
       </c>
+      <c r="C535" t="str">
+        <v/>
+      </c>
       <c r="D535" t="str">
         <v/>
       </c>
@@ -43130,8 +43762,8 @@
       <c r="B536" t="s">
         <v>150</v>
       </c>
-      <c r="C536" t="s">
-        <v>664</v>
+      <c r="C536" t="str">
+        <v>ji5</v>
       </c>
       <c r="D536" t="str">
         <v>j</v>
@@ -43150,8 +43782,8 @@
       <c r="B537" t="s">
         <v>497</v>
       </c>
-      <c r="C537" t="s">
-        <v>1007</v>
+      <c r="C537" t="str">
+        <v>iu7</v>
       </c>
       <c r="D537" t="str">
         <v/>
@@ -43170,8 +43802,8 @@
       <c r="B538" t="s">
         <v>242</v>
       </c>
-      <c r="C538" t="s">
-        <v>721</v>
+      <c r="C538" t="str">
+        <v>ho5</v>
       </c>
       <c r="D538" t="str">
         <v>h</v>
@@ -43190,8 +43822,8 @@
       <c r="B539" t="s">
         <v>425</v>
       </c>
-      <c r="C539" t="s">
-        <v>802</v>
+      <c r="C539" t="str">
+        <v>sian7</v>
       </c>
       <c r="D539" t="str">
         <v>s</v>
@@ -43210,8 +43842,8 @@
       <c r="B540" t="s">
         <v>149</v>
       </c>
-      <c r="C540" t="s">
-        <v>671</v>
+      <c r="C540" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D540" t="str">
         <v>h</v>
@@ -43227,6 +43859,9 @@
       <c r="A541" t="s">
         <v>296</v>
       </c>
+      <c r="C541" t="str">
+        <v/>
+      </c>
       <c r="D541" t="str">
         <v/>
       </c>
@@ -43244,8 +43879,8 @@
       <c r="B542" t="s">
         <v>499</v>
       </c>
-      <c r="C542" t="s">
-        <v>838</v>
+      <c r="C542" t="str">
+        <v>ciann2</v>
       </c>
       <c r="D542" t="str">
         <v>c</v>
@@ -43264,8 +43899,8 @@
       <c r="B543" t="s">
         <v>410</v>
       </c>
-      <c r="C543" t="s">
-        <v>797</v>
+      <c r="C543" t="str">
+        <v>hu5</v>
       </c>
       <c r="D543" t="str">
         <v>h</v>
@@ -43284,8 +43919,8 @@
       <c r="B544" t="s">
         <v>125</v>
       </c>
-      <c r="C544" t="s">
-        <v>659</v>
+      <c r="C544" t="str">
+        <v>thian1</v>
       </c>
       <c r="D544" t="str">
         <v>th</v>
@@ -43304,8 +43939,8 @@
       <c r="B545" t="s">
         <v>482</v>
       </c>
-      <c r="C545" t="s">
-        <v>829</v>
+      <c r="C545" t="str">
+        <v>tei7</v>
       </c>
       <c r="D545" t="str">
         <v>t</v>
@@ -43324,8 +43959,8 @@
       <c r="B546" t="s">
         <v>26</v>
       </c>
-      <c r="C546" t="s">
-        <v>584</v>
+      <c r="C546" t="str">
+        <v>zi1</v>
       </c>
       <c r="D546" t="str">
         <v>z</v>
@@ -43344,8 +43979,8 @@
       <c r="B547" t="s">
         <v>112</v>
       </c>
-      <c r="C547" t="s">
-        <v>651</v>
+      <c r="C547" t="str">
+        <v>kan1</v>
       </c>
       <c r="D547" t="str">
         <v>k</v>
@@ -43361,6 +43996,9 @@
       <c r="A548" t="s">
         <v>29</v>
       </c>
+      <c r="C548" t="str">
+        <v/>
+      </c>
       <c r="D548" t="str">
         <v/>
       </c>
@@ -43378,8 +44016,8 @@
       <c r="B549" t="s">
         <v>489</v>
       </c>
-      <c r="C549" t="s">
-        <v>832</v>
+      <c r="C549" t="str">
+        <v>but8</v>
       </c>
       <c r="D549" t="str">
         <v>b</v>
@@ -43398,8 +44036,8 @@
       <c r="B550" t="s">
         <v>501</v>
       </c>
-      <c r="C550" t="s">
-        <v>840</v>
+      <c r="C550" t="str">
+        <v>kok4</v>
       </c>
       <c r="D550" t="str">
         <v>k</v>
@@ -43418,8 +44056,8 @@
       <c r="B551" t="s">
         <v>230</v>
       </c>
-      <c r="C551" t="s">
-        <v>981</v>
+      <c r="C551" t="str">
+        <v>iu2</v>
       </c>
       <c r="D551" t="str">
         <v/>
@@ -43438,8 +44076,8 @@
       <c r="B552" t="s">
         <v>39</v>
       </c>
-      <c r="C552" t="s">
-        <v>597</v>
+      <c r="C552" t="str">
+        <v>zu2</v>
       </c>
       <c r="D552" t="str">
         <v>z</v>
@@ -43455,6 +44093,9 @@
       <c r="A553" t="s">
         <v>29</v>
       </c>
+      <c r="C553" t="str">
+        <v/>
+      </c>
       <c r="D553" t="str">
         <v/>
       </c>
@@ -43472,8 +44113,8 @@
       <c r="B554" t="s">
         <v>504</v>
       </c>
-      <c r="C554" t="s">
-        <v>841</v>
+      <c r="C554" t="str">
+        <v>koo2</v>
       </c>
       <c r="D554" t="str">
         <v>k</v>
@@ -43492,8 +44133,8 @@
       <c r="B555" t="s">
         <v>307</v>
       </c>
-      <c r="C555" t="s">
-        <v>753</v>
+      <c r="C555" t="str">
+        <v>hui1</v>
       </c>
       <c r="D555" t="str">
         <v>h</v>
@@ -43512,8 +44153,8 @@
       <c r="B556" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="C556" s="51" t="s">
-        <v>1005</v>
+      <c r="C556" s="51" t="str">
+        <v>gonn2</v>
       </c>
       <c r="D556" t="str">
         <v>g</v>
@@ -43532,8 +44173,8 @@
       <c r="B557" t="s">
         <v>26</v>
       </c>
-      <c r="C557" t="s">
-        <v>584</v>
+      <c r="C557" t="str">
+        <v>zi1</v>
       </c>
       <c r="D557" t="str">
         <v>z</v>
@@ -43552,8 +44193,8 @@
       <c r="B558" t="s">
         <v>133</v>
       </c>
-      <c r="C558" t="s">
-        <v>663</v>
+      <c r="C558" t="str">
+        <v>soo2</v>
       </c>
       <c r="D558" t="str">
         <v>s</v>
@@ -43572,8 +44213,8 @@
       <c r="B559" t="s">
         <v>230</v>
       </c>
-      <c r="C559" t="s">
-        <v>981</v>
+      <c r="C559" t="str">
+        <v>iu2</v>
       </c>
       <c r="D559" t="str">
         <v/>
@@ -43589,6 +44230,9 @@
       <c r="A560" t="s">
         <v>29</v>
       </c>
+      <c r="C560" t="str">
+        <v/>
+      </c>
       <c r="D560" t="str">
         <v/>
       </c>
@@ -43606,8 +44250,8 @@
       <c r="B561" t="s">
         <v>506</v>
       </c>
-      <c r="C561" t="s">
-        <v>842</v>
+      <c r="C561" t="str">
+        <v>sui1</v>
       </c>
       <c r="D561" t="str">
         <v>s</v>
@@ -43626,8 +44270,8 @@
       <c r="B562" t="s">
         <v>129</v>
       </c>
-      <c r="C562" t="s">
-        <v>966</v>
+      <c r="C562" t="str">
+        <v>it4</v>
       </c>
       <c r="D562" t="str">
         <v/>
@@ -43646,8 +44290,8 @@
       <c r="B563" t="s">
         <v>242</v>
       </c>
-      <c r="C563" t="s">
-        <v>721</v>
+      <c r="C563" t="str">
+        <v>ho5</v>
       </c>
       <c r="D563" t="str">
         <v>h</v>
@@ -43666,8 +44310,8 @@
       <c r="B564" t="s">
         <v>150</v>
       </c>
-      <c r="C564" t="s">
-        <v>664</v>
+      <c r="C564" t="str">
+        <v>ji5</v>
       </c>
       <c r="D564" t="str">
         <v>j</v>
@@ -43686,8 +44330,8 @@
       <c r="B565" t="s">
         <v>469</v>
       </c>
-      <c r="C565" t="s">
-        <v>823</v>
+      <c r="C565" t="str">
+        <v>bok8</v>
       </c>
       <c r="D565" t="str">
         <v>b</v>
@@ -43706,8 +44350,8 @@
       <c r="B566" t="s">
         <v>310</v>
       </c>
-      <c r="C566" t="s">
-        <v>754</v>
+      <c r="C566" t="str">
+        <v>cu2</v>
       </c>
       <c r="D566" t="str">
         <v>c</v>
@@ -43723,6 +44367,9 @@
       <c r="A567" t="s">
         <v>54</v>
       </c>
+      <c r="C567" t="str">
+        <v/>
+      </c>
       <c r="D567" t="str">
         <v/>
       </c>
@@ -43740,8 +44387,8 @@
       <c r="B568" t="s">
         <v>167</v>
       </c>
-      <c r="C568" t="s">
-        <v>971</v>
+      <c r="C568" t="str">
+        <v>ui5</v>
       </c>
       <c r="D568" t="str">
         <v/>
@@ -43760,8 +44407,8 @@
       <c r="B569" t="s">
         <v>119</v>
       </c>
-      <c r="C569" t="s">
-        <v>654</v>
+      <c r="C569" t="str">
+        <v>kang1</v>
       </c>
       <c r="D569" t="str">
         <v>k</v>
@@ -43780,8 +44427,8 @@
       <c r="B570" t="s">
         <v>102</v>
       </c>
-      <c r="C570" t="s">
-        <v>643</v>
+      <c r="C570" t="str">
+        <v>siong2</v>
       </c>
       <c r="D570" t="str">
         <v>s</v>
@@ -43800,8 +44447,8 @@
       <c r="B571" t="s">
         <v>26</v>
       </c>
-      <c r="C571" t="s">
-        <v>584</v>
+      <c r="C571" t="str">
+        <v>zi1</v>
       </c>
       <c r="D571" t="str">
         <v>z</v>
@@ -43820,8 +44467,8 @@
       <c r="B572" t="s">
         <v>56</v>
       </c>
-      <c r="C572" t="s">
-        <v>609</v>
+      <c r="C572" t="str">
+        <v>cing1</v>
       </c>
       <c r="D572" t="str">
         <v>c</v>
@@ -43840,8 +44487,8 @@
       <c r="B573" s="51" t="s">
         <v>1810</v>
       </c>
-      <c r="C573" s="51" t="s">
-        <v>1811</v>
+      <c r="C573" s="51" t="str">
+        <v>hong1</v>
       </c>
       <c r="D573" t="str">
         <v>h</v>
@@ -43857,6 +44504,9 @@
       <c r="A574" t="s">
         <v>29</v>
       </c>
+      <c r="C574" t="str">
+        <v/>
+      </c>
       <c r="D574" t="str">
         <v/>
       </c>
@@ -43874,8 +44524,8 @@
       <c r="B575" t="s">
         <v>41</v>
       </c>
-      <c r="C575" t="s">
-        <v>946</v>
+      <c r="C575" t="str">
+        <v>u2</v>
       </c>
       <c r="D575" t="str">
         <v/>
@@ -43894,8 +44544,8 @@
       <c r="B576" t="s">
         <v>100</v>
       </c>
-      <c r="C576" t="s">
-        <v>641</v>
+      <c r="C576" t="str">
+        <v>san1</v>
       </c>
       <c r="D576" t="str">
         <v>s</v>
@@ -43914,8 +44564,8 @@
       <c r="B577" t="s">
         <v>112</v>
       </c>
-      <c r="C577" t="s">
-        <v>651</v>
+      <c r="C577" t="str">
+        <v>kan1</v>
       </c>
       <c r="D577" t="str">
         <v>k</v>
@@ -43934,8 +44584,8 @@
       <c r="B578" t="s">
         <v>26</v>
       </c>
-      <c r="C578" t="s">
-        <v>584</v>
+      <c r="C578" t="str">
+        <v>zi1</v>
       </c>
       <c r="D578" t="str">
         <v>z</v>
@@ -43954,8 +44604,8 @@
       <c r="B579" t="s">
         <v>80</v>
       </c>
-      <c r="C579" t="s">
-        <v>629</v>
+      <c r="C579" t="str">
+        <v>bing5</v>
       </c>
       <c r="D579" t="str">
         <v>b</v>
@@ -43974,8 +44624,8 @@
       <c r="B580" t="s">
         <v>33</v>
       </c>
-      <c r="C580" t="s">
-        <v>590</v>
+      <c r="C580" t="str">
+        <v>guat8</v>
       </c>
       <c r="D580" t="str">
         <v>g</v>
@@ -43991,6 +44641,9 @@
       <c r="A581" t="s">
         <v>29</v>
       </c>
+      <c r="C581" t="str">
+        <v/>
+      </c>
       <c r="D581" t="str">
         <v/>
       </c>
@@ -44008,8 +44661,8 @@
       <c r="B582" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="C582" s="51" t="s">
-        <v>730</v>
+      <c r="C582" s="51" t="str">
+        <v>li2</v>
       </c>
       <c r="D582" t="str">
         <v>l</v>
@@ -44028,8 +44681,8 @@
       <c r="B583" t="s">
         <v>317</v>
       </c>
-      <c r="C583" t="s">
-        <v>757</v>
+      <c r="C583" t="str">
+        <v>tik4</v>
       </c>
       <c r="D583" t="str">
         <v>t</v>
@@ -44048,8 +44701,8 @@
       <c r="B584" t="s">
         <v>26</v>
       </c>
-      <c r="C584" t="s">
-        <v>584</v>
+      <c r="C584" t="str">
+        <v>zi1</v>
       </c>
       <c r="D584" t="str">
         <v>z</v>
@@ -44068,8 +44721,8 @@
       <c r="B585" t="s">
         <v>150</v>
       </c>
-      <c r="C585" t="s">
-        <v>664</v>
+      <c r="C585" t="str">
+        <v>ji5</v>
       </c>
       <c r="D585" t="str">
         <v>j</v>
@@ -44088,8 +44741,8 @@
       <c r="B586" t="s">
         <v>293</v>
       </c>
-      <c r="C586" t="s">
-        <v>989</v>
+      <c r="C586" t="str">
+        <v>ui7</v>
       </c>
       <c r="D586" t="str">
         <v/>
@@ -44108,8 +44761,8 @@
       <c r="B587" t="s">
         <v>244</v>
       </c>
-      <c r="C587" t="s">
-        <v>722</v>
+      <c r="C587" t="str">
+        <v>sing1</v>
       </c>
       <c r="D587" t="str">
         <v>s</v>
@@ -44125,6 +44778,9 @@
       <c r="A588" t="s">
         <v>29</v>
       </c>
+      <c r="C588" t="str">
+        <v/>
+      </c>
       <c r="D588" t="str">
         <v/>
       </c>
@@ -44142,8 +44798,8 @@
       <c r="B589" s="51" t="s">
         <v>1828</v>
       </c>
-      <c r="C589" s="51" t="s">
-        <v>1829</v>
+      <c r="C589" s="51" t="str">
+        <v>bok8</v>
       </c>
       <c r="D589" t="str">
         <v>b</v>
@@ -44162,8 +44818,8 @@
       <c r="B590" t="s">
         <v>156</v>
       </c>
-      <c r="C590" t="s">
-        <v>970</v>
+      <c r="C590" t="str">
+        <v>gu7</v>
       </c>
       <c r="D590" t="str">
         <v>g</v>
@@ -44182,8 +44838,8 @@
       <c r="B591" t="s">
         <v>26</v>
       </c>
-      <c r="C591" t="s">
-        <v>584</v>
+      <c r="C591" t="str">
+        <v>zi1</v>
       </c>
       <c r="D591" t="str">
         <v>z</v>
@@ -44202,8 +44858,8 @@
       <c r="B592" t="s">
         <v>150</v>
       </c>
-      <c r="C592" t="s">
-        <v>664</v>
+      <c r="C592" t="str">
+        <v>ji5</v>
       </c>
       <c r="D592" t="str">
         <v>j</v>
@@ -44222,8 +44878,8 @@
       <c r="B593" t="s">
         <v>515</v>
       </c>
-      <c r="C593" t="s">
-        <v>844</v>
+      <c r="C593" t="str">
+        <v>sing5</v>
       </c>
       <c r="D593" t="str">
         <v>s</v>
@@ -44242,8 +44898,8 @@
       <c r="B594" t="s">
         <v>20</v>
       </c>
-      <c r="C594" t="s">
-        <v>578</v>
+      <c r="C594" t="str">
+        <v>sik4</v>
       </c>
       <c r="D594" t="str">
         <v>s</v>
@@ -44259,6 +44915,9 @@
       <c r="A595" t="s">
         <v>29</v>
       </c>
+      <c r="C595" t="str">
+        <v/>
+      </c>
       <c r="D595" t="str">
         <v/>
       </c>
@@ -44276,8 +44935,8 @@
       <c r="B596" t="s">
         <v>310</v>
       </c>
-      <c r="C596" t="s">
-        <v>754</v>
+      <c r="C596" t="str">
+        <v>cu2</v>
       </c>
       <c r="D596" t="str">
         <v>c</v>
@@ -44296,8 +44955,8 @@
       <c r="B597" t="s">
         <v>26</v>
       </c>
-      <c r="C597" t="s">
-        <v>584</v>
+      <c r="C597" t="str">
+        <v>zi1</v>
       </c>
       <c r="D597" t="str">
         <v>z</v>
@@ -44316,8 +44975,8 @@
       <c r="B598" t="s">
         <v>429</v>
       </c>
-      <c r="C598" t="s">
-        <v>804</v>
+      <c r="C598" t="str">
+        <v>bu5</v>
       </c>
       <c r="D598" t="str">
         <v>b</v>
@@ -44336,8 +44995,8 @@
       <c r="B599" t="s">
         <v>284</v>
       </c>
-      <c r="C599" t="s">
-        <v>742</v>
+      <c r="C599" t="str">
+        <v>kim1</v>
       </c>
       <c r="D599" t="str">
         <v>k</v>
@@ -44353,6 +45012,9 @@
       <c r="A600" t="s">
         <v>29</v>
       </c>
+      <c r="C600" t="str">
+        <v/>
+      </c>
       <c r="D600" t="str">
         <v/>
       </c>
@@ -44370,8 +45032,8 @@
       <c r="B601" t="s">
         <v>519</v>
       </c>
-      <c r="C601" t="s">
-        <v>1009</v>
+      <c r="C601" t="str">
+        <v>iong7</v>
       </c>
       <c r="D601" t="str">
         <v/>
@@ -44390,8 +45052,8 @@
       <c r="B602" t="s">
         <v>26</v>
       </c>
-      <c r="C602" t="s">
-        <v>584</v>
+      <c r="C602" t="str">
+        <v>zi1</v>
       </c>
       <c r="D602" t="str">
         <v>z</v>
@@ -44410,8 +45072,8 @@
       <c r="B603" t="s">
         <v>68</v>
       </c>
-      <c r="C603" t="s">
-        <v>622</v>
+      <c r="C603" t="str">
+        <v>put4</v>
       </c>
       <c r="D603" t="str">
         <v>p</v>
@@ -44430,8 +45092,8 @@
       <c r="B604" t="s">
         <v>521</v>
       </c>
-      <c r="C604" t="s">
-        <v>846</v>
+      <c r="C604" t="str">
+        <v>kiat8</v>
       </c>
       <c r="D604" t="str">
         <v>k</v>
@@ -44447,6 +45109,9 @@
       <c r="A605" t="s">
         <v>29</v>
       </c>
+      <c r="C605" t="str">
+        <v/>
+      </c>
       <c r="D605" t="str">
         <v/>
       </c>
@@ -44464,8 +45129,8 @@
       <c r="B606" t="s">
         <v>182</v>
       </c>
-      <c r="C606" t="s">
-        <v>688</v>
+      <c r="C606" t="str">
+        <v>si2</v>
       </c>
       <c r="D606" t="str">
         <v>s</v>
@@ -44484,8 +45149,8 @@
       <c r="B607" t="s">
         <v>288</v>
       </c>
-      <c r="C607" t="s">
-        <v>744</v>
+      <c r="C607" t="str">
+        <v>zo2</v>
       </c>
       <c r="D607" t="str">
         <v>z</v>
@@ -44504,8 +45169,8 @@
       <c r="B608" t="s">
         <v>489</v>
       </c>
-      <c r="C608" t="s">
-        <v>832</v>
+      <c r="C608" t="str">
+        <v>but8</v>
       </c>
       <c r="D608" t="str">
         <v>b</v>
@@ -44524,8 +45189,8 @@
       <c r="B609" t="s">
         <v>238</v>
       </c>
-      <c r="C609" t="s">
-        <v>718</v>
+      <c r="C609" t="str">
+        <v>zia2</v>
       </c>
       <c r="D609" t="str">
         <v>z</v>
@@ -44544,8 +45209,8 @@
       <c r="B610" t="s">
         <v>26</v>
       </c>
-      <c r="C610" t="s">
-        <v>584</v>
+      <c r="C610" t="str">
+        <v>zi1</v>
       </c>
       <c r="D610" t="str">
         <v>z</v>
@@ -44564,8 +45229,8 @@
       <c r="B611" t="s">
         <v>429</v>
       </c>
-      <c r="C611" t="s">
-        <v>804</v>
+      <c r="C611" t="str">
+        <v>bu5</v>
       </c>
       <c r="D611" t="str">
         <v>b</v>
@@ -44584,8 +45249,8 @@
       <c r="B612" t="s">
         <v>495</v>
       </c>
-      <c r="C612" t="s">
-        <v>836</v>
+      <c r="C612" t="str">
+        <v>zin2</v>
       </c>
       <c r="D612" t="str">
         <v>z</v>
@@ -44604,8 +45269,8 @@
       <c r="B613" t="s">
         <v>524</v>
       </c>
-      <c r="C613" t="s">
-        <v>847</v>
+      <c r="C613" t="str">
+        <v>zong5</v>
       </c>
       <c r="D613" t="str">
         <v>z</v>
@@ -44624,8 +45289,8 @@
       <c r="B614" t="s">
         <v>295</v>
       </c>
-      <c r="C614" t="s">
-        <v>990</v>
+      <c r="C614" t="str">
+        <v>ia2</v>
       </c>
       <c r="D614" t="str">
         <v/>
@@ -44641,6 +45306,9 @@
       <c r="A615" t="s">
         <v>29</v>
       </c>
+      <c r="C615" t="str">
+        <v/>
+      </c>
       <c r="D615" t="str">
         <v/>
       </c>
@@ -44658,8 +45326,8 @@
       <c r="B616" t="s">
         <v>150</v>
       </c>
-      <c r="C616" t="s">
-        <v>664</v>
+      <c r="C616" t="str">
+        <v>ji5</v>
       </c>
       <c r="D616" t="str">
         <v>j</v>
@@ -44678,8 +45346,8 @@
       <c r="B617" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="C617" s="51" t="s">
-        <v>1010</v>
+      <c r="C617" s="51" t="str">
+        <v>gonn5</v>
       </c>
       <c r="D617" t="str">
         <v>g</v>
@@ -44698,8 +45366,8 @@
       <c r="B618" t="s">
         <v>41</v>
       </c>
-      <c r="C618" t="s">
-        <v>946</v>
+      <c r="C618" t="str">
+        <v>u2</v>
       </c>
       <c r="D618" t="str">
         <v/>
@@ -44718,8 +45386,8 @@
       <c r="B619" t="s">
         <v>39</v>
       </c>
-      <c r="C619" t="s">
-        <v>597</v>
+      <c r="C619" t="str">
+        <v>zu2</v>
       </c>
       <c r="D619" t="str">
         <v>z</v>
@@ -44738,8 +45406,8 @@
       <c r="B620" t="s">
         <v>26</v>
       </c>
-      <c r="C620" t="s">
-        <v>584</v>
+      <c r="C620" t="str">
+        <v>zi1</v>
       </c>
       <c r="D620" t="str">
         <v>z</v>
@@ -44758,8 +45426,8 @@
       <c r="B621" t="s">
         <v>133</v>
       </c>
-      <c r="C621" t="s">
-        <v>663</v>
+      <c r="C621" t="str">
+        <v>soo2</v>
       </c>
       <c r="D621" t="str">
         <v>s</v>
@@ -44778,8 +45446,8 @@
       <c r="B622" t="s">
         <v>527</v>
       </c>
-      <c r="C622" t="s">
-        <v>848</v>
+      <c r="C622" t="str">
+        <v>kiong1</v>
       </c>
       <c r="D622" t="str">
         <v>k</v>
@@ -44798,8 +45466,8 @@
       <c r="B623" t="s">
         <v>20</v>
       </c>
-      <c r="C623" t="s">
-        <v>578</v>
+      <c r="C623" t="str">
+        <v>sik4</v>
       </c>
       <c r="D623" t="str">
         <v>s</v>
@@ -44814,6 +45482,9 @@
     <row r="624" spans="1:6">
       <c r="A624" t="s">
         <v>54</v>
+      </c>
+      <c r="C624" t="str">
+        <v/>
       </c>
       <c r="D624" t="str">
         <v/>
@@ -44832,7 +45503,9 @@
 </v>
       </c>
       <c r="B625" s="95"/>
-      <c r="C625" s="95"/>
+      <c r="C625" s="95" t="str">
+        <v/>
+      </c>
       <c r="D625" s="95" t="str">
         <v/>
       </c>
@@ -44850,8 +45523,8 @@
       <c r="B626" t="s">
         <v>43</v>
       </c>
-      <c r="C626" t="s">
-        <v>600</v>
+      <c r="C626" t="str">
+        <v>khik4</v>
       </c>
       <c r="D626" t="str">
         <v>kh</v>
@@ -44870,8 +45543,8 @@
       <c r="B627" t="s">
         <v>530</v>
       </c>
-      <c r="C627" t="s">
-        <v>849</v>
+      <c r="C627" t="str">
+        <v>hi2</v>
       </c>
       <c r="D627" t="str">
         <v>h</v>
@@ -44890,8 +45563,8 @@
       <c r="B628" t="s">
         <v>150</v>
       </c>
-      <c r="C628" t="s">
-        <v>664</v>
+      <c r="C628" t="str">
+        <v>ji5</v>
       </c>
       <c r="D628" t="str">
         <v>j</v>
@@ -44910,8 +45583,8 @@
       <c r="B629" t="s">
         <v>532</v>
       </c>
-      <c r="C629" t="s">
-        <v>850</v>
+      <c r="C629" t="str">
+        <v>siau3</v>
       </c>
       <c r="D629" t="str">
         <v>s</v>
@@ -44927,6 +45600,9 @@
       <c r="A630" t="s">
         <v>29</v>
       </c>
+      <c r="C630" t="str">
+        <v/>
+      </c>
       <c r="D630" t="str">
         <v/>
       </c>
@@ -44944,8 +45620,8 @@
       <c r="B631" t="s">
         <v>534</v>
       </c>
-      <c r="C631" t="s">
-        <v>1011</v>
+      <c r="C631" t="str">
+        <v>se2</v>
       </c>
       <c r="D631" t="str">
         <v>s</v>
@@ -44964,8 +45640,8 @@
       <c r="B632" t="s">
         <v>536</v>
       </c>
-      <c r="C632" t="s">
-        <v>852</v>
+      <c r="C632" t="str">
+        <v>zan2</v>
       </c>
       <c r="D632" t="str">
         <v>z</v>
@@ -44984,8 +45660,8 @@
       <c r="B633" t="s">
         <v>344</v>
       </c>
-      <c r="C633" t="s">
-        <v>770</v>
+      <c r="C633" t="str">
+        <v>king1</v>
       </c>
       <c r="D633" t="str">
         <v>k</v>
@@ -45004,8 +45680,8 @@
       <c r="B634" t="s">
         <v>76</v>
       </c>
-      <c r="C634" t="s">
-        <v>626</v>
+      <c r="C634" t="str">
+        <v>ziok4</v>
       </c>
       <c r="D634" t="str">
         <v>z</v>
@@ -45021,6 +45697,9 @@
       <c r="A635" t="s">
         <v>54</v>
       </c>
+      <c r="C635" t="str">
+        <v/>
+      </c>
       <c r="D635" t="str">
         <v/>
       </c>
@@ -45038,8 +45717,8 @@
       <c r="B636" t="s">
         <v>540</v>
       </c>
-      <c r="C636" t="s">
-        <v>853</v>
+      <c r="C636" t="str">
+        <v>hau5</v>
       </c>
       <c r="D636" t="str">
         <v>h</v>
@@ -45058,8 +45737,8 @@
       <c r="B637" t="s">
         <v>542</v>
       </c>
-      <c r="C637" t="s">
-        <v>854</v>
+      <c r="C637" t="str">
+        <v>hut8</v>
       </c>
       <c r="D637" t="str">
         <v>h</v>
@@ -45078,8 +45757,8 @@
       <c r="B638" t="s">
         <v>35</v>
       </c>
-      <c r="C638" t="s">
-        <v>593</v>
+      <c r="C638" t="str">
+        <v>ki3</v>
       </c>
       <c r="D638" t="str">
         <v>k</v>
@@ -45098,8 +45777,8 @@
       <c r="B639" t="s">
         <v>495</v>
       </c>
-      <c r="C639" t="s">
-        <v>836</v>
+      <c r="C639" t="str">
+        <v>zin2</v>
       </c>
       <c r="D639" t="str">
         <v>z</v>
@@ -45115,6 +45794,9 @@
       <c r="A640" t="s">
         <v>29</v>
       </c>
+      <c r="C640" t="str">
+        <v/>
+      </c>
       <c r="D640" t="str">
         <v/>
       </c>
@@ -45132,8 +45814,8 @@
       <c r="B641" t="s">
         <v>544</v>
       </c>
-      <c r="C641" t="s">
-        <v>855</v>
+      <c r="C641" t="str">
+        <v>pue1</v>
       </c>
       <c r="D641" t="str">
         <v>p</v>
@@ -45152,8 +45834,8 @@
       <c r="B642" t="s">
         <v>546</v>
       </c>
-      <c r="C642" t="s">
-        <v>856</v>
+      <c r="C642" t="str">
+        <v>puan5</v>
       </c>
       <c r="D642" t="str">
         <v>p</v>
@@ -45172,8 +45854,8 @@
       <c r="B643" t="s">
         <v>340</v>
       </c>
-      <c r="C643" t="s">
-        <v>768</v>
+      <c r="C643" t="str">
+        <v>long5</v>
       </c>
       <c r="D643" t="str">
         <v>l</v>
@@ -45192,8 +45874,8 @@
       <c r="B644" t="s">
         <v>549</v>
       </c>
-      <c r="C644" t="s">
-        <v>857</v>
+      <c r="C644" t="str">
+        <v>zik8</v>
       </c>
       <c r="D644" t="str">
         <v>z</v>
@@ -45209,6 +45891,9 @@
       <c r="A645" t="s">
         <v>29</v>
       </c>
+      <c r="C645" t="str">
+        <v/>
+      </c>
       <c r="D645" t="str">
         <v/>
       </c>
@@ -45226,8 +45911,8 @@
       <c r="B646" t="s">
         <v>329</v>
       </c>
-      <c r="C646" t="s">
-        <v>763</v>
+      <c r="C646" t="str">
+        <v>siong1</v>
       </c>
       <c r="D646" t="str">
         <v>s</v>
@@ -45246,8 +45931,8 @@
       <c r="B647" t="s">
         <v>41</v>
       </c>
-      <c r="C647" t="s">
-        <v>946</v>
+      <c r="C647" t="str">
+        <v>u2</v>
       </c>
       <c r="D647" t="str">
         <v/>
@@ -45266,8 +45951,8 @@
       <c r="B648" t="s">
         <v>551</v>
       </c>
-      <c r="C648" t="s">
-        <v>858</v>
+      <c r="C648" t="str">
+        <v>zim2</v>
       </c>
       <c r="D648" t="str">
         <v>z</v>
@@ -45286,8 +45971,8 @@
       <c r="B649" t="s">
         <v>553</v>
       </c>
-      <c r="C649" t="s">
-        <v>859</v>
+      <c r="C649" t="str">
+        <v>zia7</v>
       </c>
       <c r="D649" t="str">
         <v>z</v>
@@ -45306,8 +45991,8 @@
       <c r="B650" t="s">
         <v>149</v>
       </c>
-      <c r="C650" t="s">
-        <v>671</v>
+      <c r="C650" t="str">
+        <v>hoo5</v>
       </c>
       <c r="D650" t="str">
         <v>h</v>
@@ -45326,8 +46011,8 @@
       <c r="B651" t="s">
         <v>47</v>
       </c>
-      <c r="C651" t="s">
-        <v>604</v>
+      <c r="C651" t="str">
+        <v>ziu1</v>
       </c>
       <c r="D651" t="str">
         <v>z</v>
@@ -45346,8 +46031,8 @@
       <c r="B652" t="s">
         <v>555</v>
       </c>
-      <c r="C652" t="s">
-        <v>860</v>
+      <c r="C652" t="str">
+        <v>tiong1</v>
       </c>
       <c r="D652" t="str">
         <v>t</v>
@@ -45363,6 +46048,9 @@
       <c r="A653" t="s">
         <v>29</v>
       </c>
+      <c r="C653" t="str">
+        <v/>
+      </c>
       <c r="D653" t="str">
         <v/>
       </c>
@@ -45380,8 +46068,8 @@
       <c r="B654" t="s">
         <v>68</v>
       </c>
-      <c r="C654" t="s">
-        <v>622</v>
+      <c r="C654" t="str">
+        <v>put4</v>
       </c>
       <c r="D654" t="str">
         <v>p</v>
@@ -45400,8 +46088,8 @@
       <c r="B655" t="s">
         <v>159</v>
       </c>
-      <c r="C655" t="s">
-        <v>675</v>
+      <c r="C655" t="str">
+        <v>ti1</v>
       </c>
       <c r="D655" t="str">
         <v>t</v>
@@ -45420,8 +46108,8 @@
       <c r="B656" t="s">
         <v>98</v>
       </c>
-      <c r="C656" t="s">
-        <v>640</v>
+      <c r="C656" t="str">
+        <v>tong1</v>
       </c>
       <c r="D656" t="str">
         <v>t</v>
@@ -45440,8 +46128,8 @@
       <c r="B657" t="s">
         <v>227</v>
       </c>
-      <c r="C657" t="s">
-        <v>713</v>
+      <c r="C657" t="str">
+        <v>hiong5</v>
       </c>
       <c r="D657" t="str">
         <v>h</v>
@@ -45460,8 +46148,8 @@
       <c r="B658" t="s">
         <v>26</v>
       </c>
-      <c r="C658" t="s">
-        <v>584</v>
+      <c r="C658" t="str">
+        <v>zi1</v>
       </c>
       <c r="D658" t="str">
         <v>z</v>
@@ -45480,8 +46168,8 @@
       <c r="B659" t="s">
         <v>35</v>
       </c>
-      <c r="C659" t="s">
-        <v>593</v>
+      <c r="C659" t="str">
+        <v>ki3</v>
       </c>
       <c r="D659" t="str">
         <v>k</v>
@@ -45500,8 +46188,8 @@
       <c r="B660" t="s">
         <v>114</v>
       </c>
-      <c r="C660" t="s">
-        <v>652</v>
+      <c r="C660" t="str">
+        <v>pik8</v>
       </c>
       <c r="D660" t="str">
         <v>p</v>
@@ -45517,6 +46205,9 @@
       <c r="A661" t="s">
         <v>54</v>
       </c>
+      <c r="C661" t="str">
+        <v/>
+      </c>
       <c r="D661" t="str">
         <v/>
       </c>
@@ -45532,10 +46223,102 @@
         <v>1884</v>
       </c>
       <c r="B662" s="95"/>
-      <c r="C662" s="95"/>
-      <c r="D662" s="95"/>
-      <c r="E662" s="95"/>
-      <c r="F662" s="95"/>
+      <c r="C662" s="95" t="str">
+        <v/>
+      </c>
+      <c r="D662" s="95" t="str">
+        <v/>
+      </c>
+      <c r="E662" s="95" t="str">
+        <v/>
+      </c>
+      <c r="F662" s="95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="C663" t="str">
+        <v/>
+      </c>
+      <c r="D663" t="str">
+        <v/>
+      </c>
+      <c r="E663" t="str">
+        <v/>
+      </c>
+      <c r="F663" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="C664" t="str">
+        <v/>
+      </c>
+      <c r="D664" t="str">
+        <v/>
+      </c>
+      <c r="E664" t="str">
+        <v/>
+      </c>
+      <c r="F664" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="C665" t="str">
+        <v/>
+      </c>
+      <c r="D665" t="str">
+        <v/>
+      </c>
+      <c r="E665" t="str">
+        <v/>
+      </c>
+      <c r="F665" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="C666" t="str">
+        <v/>
+      </c>
+      <c r="D666" t="str">
+        <v/>
+      </c>
+      <c r="E666" t="str">
+        <v/>
+      </c>
+      <c r="F666" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="C667" t="str">
+        <v/>
+      </c>
+      <c r="D667" t="str">
+        <v/>
+      </c>
+      <c r="E667" t="str">
+        <v/>
+      </c>
+      <c r="F667" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="C668" t="str">
+        <v/>
+      </c>
+      <c r="D668" t="str">
+        <v/>
+      </c>
+      <c r="E668" t="str">
+        <v/>
+      </c>
+      <c r="F668" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
